--- a/data/raw/szenarien/szenarien_w2s.xlsx
+++ b/data/raw/szenarien/szenarien_w2s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8775" windowHeight="0" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8775" windowHeight="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="factors" sheetId="17" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <externalReference r:id="rId16"/>
     <externalReference r:id="rId17"/>
   </externalReferences>
-  <calcPr calcId="162913" calcMode="manual" calcCompleted="0"/>
+  <calcPr calcId="162913" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -250,7 +250,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="711">
   <si>
     <t>Wasserkraft</t>
   </si>
@@ -2489,6 +2489,12 @@
   </si>
   <si>
     <t>E-Control 2019</t>
+  </si>
+  <si>
+    <t>Szenario [GWh/a]</t>
+  </si>
+  <si>
+    <t>100% Erneuerbare Deckung 2050 ohne Speicherausbau (FLUCCO+)</t>
   </si>
 </sst>
 </file>
@@ -3210,7 +3216,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="420">
+  <cellXfs count="421">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4045,9 +4051,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4055,6 +4058,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Accent6" xfId="13"/>
@@ -4135,9 +4144,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>factors!$A$2:$B$20</c:f>
+              <c:f>factors!$A$2:$B$21</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Energie und Klimazukunft 2030 (Veigl17)</c:v>
@@ -4170,30 +4179,33 @@
                     <c:v>100% Erneuerbare Deckung 2050 inkl Methan (FLUCCO+)</c:v>
                   </c:pt>
                   <c:pt idx="10">
+                    <c:v>100% Erneuerbare Deckung 2050 ohne Speicherausbau (FLUCCO+)</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
                     <c:v>Energie und Klimazukunft 2030 (Veigl17)</c:v>
                   </c:pt>
-                  <c:pt idx="11">
+                  <c:pt idx="12">
                     <c:v>Erneuerbare Energie 2030 (UBA16)</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="13">
                     <c:v>WEM 2030 (UBA17)</c:v>
                   </c:pt>
-                  <c:pt idx="13">
+                  <c:pt idx="14">
                     <c:v>Transition 2030 (UBA17)</c:v>
                   </c:pt>
-                  <c:pt idx="14">
+                  <c:pt idx="15">
                     <c:v>Energie und Klimazukunft 2050 (Veigl17)</c:v>
                   </c:pt>
-                  <c:pt idx="15">
+                  <c:pt idx="16">
                     <c:v>Erneuerbare Energie 2050 (UBA16)</c:v>
                   </c:pt>
-                  <c:pt idx="16">
+                  <c:pt idx="17">
                     <c:v>WEM 2050 (UBA17)</c:v>
                   </c:pt>
-                  <c:pt idx="17">
+                  <c:pt idx="18">
                     <c:v>Transition 2050 (UBA17)</c:v>
                   </c:pt>
-                  <c:pt idx="18">
+                  <c:pt idx="19">
                     <c:v>100% Erneuerbare Deckung 2050 (FLUCCO+)</c:v>
                   </c:pt>
                 </c:lvl>
@@ -4204,7 +4216,7 @@
                   <c:pt idx="9">
                     <c:v>100% Erneuerbare Deckung 2050 inkl Methan (FLUCCO+)</c:v>
                   </c:pt>
-                  <c:pt idx="10">
+                  <c:pt idx="11">
                     <c:v>EM2019</c:v>
                   </c:pt>
                 </c:lvl>
@@ -4213,10 +4225,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>factors!$E$2:$E$20</c:f>
+              <c:f>factors!$E$2:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1.2331176672022346</c:v>
                 </c:pt>
@@ -4248,30 +4260,33 @@
                   <c:v>1.8383865701037312</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>1.8383865701037312</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1.3155041873554014</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>1.229825046815729</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>1.276049666412173</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>1.3208834402251213</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>1.4079086960457552</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>1.3227036746397631</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>1.4879016159378382</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>1.9457839165748669</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>1.4679212771544103</c:v>
                 </c:pt>
               </c:numCache>
@@ -4309,9 +4324,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>factors!$A$2:$B$20</c:f>
+              <c:f>factors!$A$2:$B$21</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Energie und Klimazukunft 2030 (Veigl17)</c:v>
@@ -4344,30 +4359,33 @@
                     <c:v>100% Erneuerbare Deckung 2050 inkl Methan (FLUCCO+)</c:v>
                   </c:pt>
                   <c:pt idx="10">
+                    <c:v>100% Erneuerbare Deckung 2050 ohne Speicherausbau (FLUCCO+)</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
                     <c:v>Energie und Klimazukunft 2030 (Veigl17)</c:v>
                   </c:pt>
-                  <c:pt idx="11">
+                  <c:pt idx="12">
                     <c:v>Erneuerbare Energie 2030 (UBA16)</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="13">
                     <c:v>WEM 2030 (UBA17)</c:v>
                   </c:pt>
-                  <c:pt idx="13">
+                  <c:pt idx="14">
                     <c:v>Transition 2030 (UBA17)</c:v>
                   </c:pt>
-                  <c:pt idx="14">
+                  <c:pt idx="15">
                     <c:v>Energie und Klimazukunft 2050 (Veigl17)</c:v>
                   </c:pt>
-                  <c:pt idx="15">
+                  <c:pt idx="16">
                     <c:v>Erneuerbare Energie 2050 (UBA16)</c:v>
                   </c:pt>
-                  <c:pt idx="16">
+                  <c:pt idx="17">
                     <c:v>WEM 2050 (UBA17)</c:v>
                   </c:pt>
-                  <c:pt idx="17">
+                  <c:pt idx="18">
                     <c:v>Transition 2050 (UBA17)</c:v>
                   </c:pt>
-                  <c:pt idx="18">
+                  <c:pt idx="19">
                     <c:v>100% Erneuerbare Deckung 2050 (FLUCCO+)</c:v>
                   </c:pt>
                 </c:lvl>
@@ -4378,7 +4396,7 @@
                   <c:pt idx="9">
                     <c:v>100% Erneuerbare Deckung 2050 inkl Methan (FLUCCO+)</c:v>
                   </c:pt>
-                  <c:pt idx="10">
+                  <c:pt idx="11">
                     <c:v>EM2019</c:v>
                   </c:pt>
                 </c:lvl>
@@ -4387,10 +4405,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>factors!$H$2:$H$20</c:f>
+              <c:f>factors!$H$2:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1.2621516911228507</c:v>
                 </c:pt>
@@ -4422,30 +4440,33 @@
                   <c:v>1.4411902783956245</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>1.4411902783956245</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1.2400659119833537</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>1.2304654016970311</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>1.255730744600537</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>1.2135045001911942</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>1.2400659119833537</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>1.304069313892172</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>1.255730744600537</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>1.3538159580258009</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>0.97597387928328605</c:v>
                 </c:pt>
               </c:numCache>
@@ -4486,9 +4507,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>factors!$A$2:$B$20</c:f>
+              <c:f>factors!$A$2:$B$21</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Energie und Klimazukunft 2030 (Veigl17)</c:v>
@@ -4521,30 +4542,33 @@
                     <c:v>100% Erneuerbare Deckung 2050 inkl Methan (FLUCCO+)</c:v>
                   </c:pt>
                   <c:pt idx="10">
+                    <c:v>100% Erneuerbare Deckung 2050 ohne Speicherausbau (FLUCCO+)</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
                     <c:v>Energie und Klimazukunft 2030 (Veigl17)</c:v>
                   </c:pt>
-                  <c:pt idx="11">
+                  <c:pt idx="12">
                     <c:v>Erneuerbare Energie 2030 (UBA16)</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="13">
                     <c:v>WEM 2030 (UBA17)</c:v>
                   </c:pt>
-                  <c:pt idx="13">
+                  <c:pt idx="14">
                     <c:v>Transition 2030 (UBA17)</c:v>
                   </c:pt>
-                  <c:pt idx="14">
+                  <c:pt idx="15">
                     <c:v>Energie und Klimazukunft 2050 (Veigl17)</c:v>
                   </c:pt>
-                  <c:pt idx="15">
+                  <c:pt idx="16">
                     <c:v>Erneuerbare Energie 2050 (UBA16)</c:v>
                   </c:pt>
-                  <c:pt idx="16">
+                  <c:pt idx="17">
                     <c:v>WEM 2050 (UBA17)</c:v>
                   </c:pt>
-                  <c:pt idx="17">
+                  <c:pt idx="18">
                     <c:v>Transition 2050 (UBA17)</c:v>
                   </c:pt>
-                  <c:pt idx="18">
+                  <c:pt idx="19">
                     <c:v>100% Erneuerbare Deckung 2050 (FLUCCO+)</c:v>
                   </c:pt>
                 </c:lvl>
@@ -4555,7 +4579,7 @@
                   <c:pt idx="9">
                     <c:v>100% Erneuerbare Deckung 2050 inkl Methan (FLUCCO+)</c:v>
                   </c:pt>
-                  <c:pt idx="10">
+                  <c:pt idx="11">
                     <c:v>EM2019</c:v>
                   </c:pt>
                 </c:lvl>
@@ -4564,10 +4588,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>factors!$I$2:$I$20</c:f>
+              <c:f>factors!$I$2:$I$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1.8674609137173559</c:v>
                 </c:pt>
@@ -4599,30 +4623,33 @@
                   <c:v>4.7276278611905402</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>4.7276278611905402</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1.5149912613190106</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>2.2090686531326038</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>0.9094527774052934</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>1.9603986921467997</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>2.5367295538364827</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>2.6741357380026258</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>0.96480280697580889</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>3.5958141425632144</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>3.0303275447952549</c:v>
                 </c:pt>
               </c:numCache>
@@ -4660,9 +4687,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>factors!$A$2:$B$20</c:f>
+              <c:f>factors!$A$2:$B$21</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Energie und Klimazukunft 2030 (Veigl17)</c:v>
@@ -4695,30 +4722,33 @@
                     <c:v>100% Erneuerbare Deckung 2050 inkl Methan (FLUCCO+)</c:v>
                   </c:pt>
                   <c:pt idx="10">
+                    <c:v>100% Erneuerbare Deckung 2050 ohne Speicherausbau (FLUCCO+)</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
                     <c:v>Energie und Klimazukunft 2030 (Veigl17)</c:v>
                   </c:pt>
-                  <c:pt idx="11">
+                  <c:pt idx="12">
                     <c:v>Erneuerbare Energie 2030 (UBA16)</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="13">
                     <c:v>WEM 2030 (UBA17)</c:v>
                   </c:pt>
-                  <c:pt idx="13">
+                  <c:pt idx="14">
                     <c:v>Transition 2030 (UBA17)</c:v>
                   </c:pt>
-                  <c:pt idx="14">
+                  <c:pt idx="15">
                     <c:v>Energie und Klimazukunft 2050 (Veigl17)</c:v>
                   </c:pt>
-                  <c:pt idx="15">
+                  <c:pt idx="16">
                     <c:v>Erneuerbare Energie 2050 (UBA16)</c:v>
                   </c:pt>
-                  <c:pt idx="16">
+                  <c:pt idx="17">
                     <c:v>WEM 2050 (UBA17)</c:v>
                   </c:pt>
-                  <c:pt idx="17">
+                  <c:pt idx="18">
                     <c:v>Transition 2050 (UBA17)</c:v>
                   </c:pt>
-                  <c:pt idx="18">
+                  <c:pt idx="19">
                     <c:v>100% Erneuerbare Deckung 2050 (FLUCCO+)</c:v>
                   </c:pt>
                 </c:lvl>
@@ -4729,7 +4759,7 @@
                   <c:pt idx="9">
                     <c:v>100% Erneuerbare Deckung 2050 inkl Methan (FLUCCO+)</c:v>
                   </c:pt>
-                  <c:pt idx="10">
+                  <c:pt idx="11">
                     <c:v>EM2019</c:v>
                   </c:pt>
                 </c:lvl>
@@ -4738,10 +4768,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>factors!$J$2:$J$20</c:f>
+              <c:f>factors!$J$2:$J$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>8.9944375269833134</c:v>
                 </c:pt>
@@ -4773,30 +4803,33 @@
                   <c:v>24.902173434837461</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>24.902173434837461</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>9.6431914351689301</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>11.194487448652627</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>6.8600825331406092</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>8.1053120358559028</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>24.736882377172471</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>17.777013776137505</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>12.980993479315879</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>19.966437501113685</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>20.860469084847619</c:v>
                 </c:pt>
               </c:numCache>
@@ -4834,9 +4867,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>factors!$A$2:$B$20</c:f>
+              <c:f>factors!$A$2:$B$21</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Energie und Klimazukunft 2030 (Veigl17)</c:v>
@@ -4869,30 +4902,33 @@
                     <c:v>100% Erneuerbare Deckung 2050 inkl Methan (FLUCCO+)</c:v>
                   </c:pt>
                   <c:pt idx="10">
+                    <c:v>100% Erneuerbare Deckung 2050 ohne Speicherausbau (FLUCCO+)</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
                     <c:v>Energie und Klimazukunft 2030 (Veigl17)</c:v>
                   </c:pt>
-                  <c:pt idx="11">
+                  <c:pt idx="12">
                     <c:v>Erneuerbare Energie 2030 (UBA16)</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="13">
                     <c:v>WEM 2030 (UBA17)</c:v>
                   </c:pt>
-                  <c:pt idx="13">
+                  <c:pt idx="14">
                     <c:v>Transition 2030 (UBA17)</c:v>
                   </c:pt>
-                  <c:pt idx="14">
+                  <c:pt idx="15">
                     <c:v>Energie und Klimazukunft 2050 (Veigl17)</c:v>
                   </c:pt>
-                  <c:pt idx="15">
+                  <c:pt idx="16">
                     <c:v>Erneuerbare Energie 2050 (UBA16)</c:v>
                   </c:pt>
-                  <c:pt idx="16">
+                  <c:pt idx="17">
                     <c:v>WEM 2050 (UBA17)</c:v>
                   </c:pt>
-                  <c:pt idx="17">
+                  <c:pt idx="18">
                     <c:v>Transition 2050 (UBA17)</c:v>
                   </c:pt>
-                  <c:pt idx="18">
+                  <c:pt idx="19">
                     <c:v>100% Erneuerbare Deckung 2050 (FLUCCO+)</c:v>
                   </c:pt>
                 </c:lvl>
@@ -4903,7 +4939,7 @@
                   <c:pt idx="9">
                     <c:v>100% Erneuerbare Deckung 2050 inkl Methan (FLUCCO+)</c:v>
                   </c:pt>
-                  <c:pt idx="10">
+                  <c:pt idx="11">
                     <c:v>EM2019</c:v>
                   </c:pt>
                 </c:lvl>
@@ -4912,10 +4948,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>factors!$L$2:$L$20</c:f>
+              <c:f>factors!$L$2:$L$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>2.1232857422531901</c:v>
                 </c:pt>
@@ -4947,30 +4983,33 @@
                   <c:v>1.3360756148402371</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0.74481468199243284</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>2.037142573823802</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>1.8876777742338096</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>1.9766989145288805</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>2.0457080438305582</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>2.1344619041474084</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>1.6690104184238921</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>1.6870895517953697</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>2.1054540243122393</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>0.92740606660159908</c:v>
                 </c:pt>
               </c:numCache>
@@ -6055,7 +6094,7 @@
           <c:x val="7.5908821771609916E-2"/>
           <c:y val="9.5513306307162274E-2"/>
           <c:w val="0.8907533774192723"/>
-          <c:h val="0.77957584571266847"/>
+          <c:h val="0.53124124931404648"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -6088,9 +6127,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'scenarios GWh'!$A$4:$A$15</c:f>
+              <c:f>'scenarios GWh'!$A$4:$A$17</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>EM2018</c:v>
                 </c:pt>
@@ -6127,15 +6166,21 @@
                 <c:pt idx="11">
                   <c:v>100% Erneuerbare Deckung 2050 (FLUCCO+)</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>100% Erneuerbare Deckung 2050 inkl Methan (FLUCCO+)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100% Erneuerbare Deckung 2050 ohne Speicherausbau (FLUCCO+)</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'scenarios GWh'!$G$4:$G$15</c:f>
+              <c:f>'scenarios GWh'!$G$4:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>_-* #\ ##0\ _€_-;\-* #\ ##0\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>34112.848956924005</c:v>
                 </c:pt>
@@ -6171,6 +6216,12 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>33886.207814488123</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>49163.106285097194</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>49163.106285097194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6210,9 +6261,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'scenarios GWh'!$A$4:$A$15</c:f>
+              <c:f>'scenarios GWh'!$A$4:$A$17</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>EM2018</c:v>
                 </c:pt>
@@ -6249,15 +6300,21 @@
                 <c:pt idx="11">
                   <c:v>100% Erneuerbare Deckung 2050 (FLUCCO+)</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>100% Erneuerbare Deckung 2050 inkl Methan (FLUCCO+)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100% Erneuerbare Deckung 2050 ohne Speicherausbau (FLUCCO+)</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'scenarios GWh'!$J$4:$J$15</c:f>
+              <c:f>'scenarios GWh'!$J$4:$J$17</c:f>
               <c:numCache>
                 <c:formatCode>_-* #\ ##0\ _€_-;\-* #\ ##0\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>6396.0931724260008</c:v>
                 </c:pt>
@@ -6294,6 +6351,12 @@
                 <c:pt idx="11">
                   <c:v>23891.628214559176</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>30238.348284731746</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30238.348284731746</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6329,9 +6392,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'scenarios GWh'!$A$4:$A$15</c:f>
+              <c:f>'scenarios GWh'!$A$4:$A$17</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>EM2018</c:v>
                 </c:pt>
@@ -6368,15 +6431,21 @@
                 <c:pt idx="11">
                   <c:v>100% Erneuerbare Deckung 2050 (FLUCCO+)</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>100% Erneuerbare Deckung 2050 inkl Methan (FLUCCO+)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100% Erneuerbare Deckung 2050 ohne Speicherausbau (FLUCCO+)</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'scenarios GWh'!$K$4:$K$15</c:f>
+              <c:f>'scenarios GWh'!$K$4:$K$17</c:f>
               <c:numCache>
                 <c:formatCode>_-* #\ ##0\ _€_-;\-* #\ ##0\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1420.6322476160001</c:v>
                 </c:pt>
@@ -6413,6 +6482,12 @@
                 <c:pt idx="11">
                   <c:v>27641.331538293525</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>35376.830617256594</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>35376.830617256594</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6448,9 +6523,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'scenarios GWh'!$A$4:$A$15</c:f>
+              <c:f>'scenarios GWh'!$A$4:$A$17</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>EM2018</c:v>
                 </c:pt>
@@ -6487,15 +6562,21 @@
                 <c:pt idx="11">
                   <c:v>100% Erneuerbare Deckung 2050 (FLUCCO+)</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>100% Erneuerbare Deckung 2050 inkl Methan (FLUCCO+)</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100% Erneuerbare Deckung 2050 ohne Speicherausbau (FLUCCO+)</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'scenarios GWh'!$M$4:$M$15</c:f>
+              <c:f>'scenarios GWh'!$M$4:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>_-* #\ ##0\ _€_-;\-* #\ ##0\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>13231.12308489</c:v>
                 </c:pt>
@@ -6531,6 +6612,12 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>12789.502773989954</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17677.780910671259</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9854.734732875082</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6787,8 +6874,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10022246752619854"/>
-          <c:y val="4.5264533001351498E-2"/>
+          <c:x val="0.15308787612823016"/>
+          <c:y val="0.12167517804708129"/>
           <c:w val="0.8118529772809151"/>
           <c:h val="9.5115710234188078E-2"/>
         </c:manualLayout>
@@ -6926,7 +7013,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[3]TabellenEE!$B$9</c:f>
+              <c:f>[4]TabellenEE!$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6945,7 +7032,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>[3]TabellenEE!$C$5:$J$5</c:f>
+              <c:f>[4]TabellenEE!$C$5:$J$5</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -6977,7 +7064,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[3]TabellenEE!$C$9:$J$9</c:f>
+              <c:f>[4]TabellenEE!$C$9:$J$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7019,7 +7106,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[3]TabellenEE!$B$10</c:f>
+              <c:f>[4]TabellenEE!$B$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7036,7 +7123,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>[3]TabellenEE!$C$5:$J$5</c:f>
+              <c:f>[4]TabellenEE!$C$5:$J$5</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -7068,7 +7155,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[3]TabellenEE!$C$10:$J$10</c:f>
+              <c:f>[4]TabellenEE!$C$10:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7110,7 +7197,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>[3]TabellenEE!$B$11</c:f>
+              <c:f>[4]TabellenEE!$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7127,7 +7214,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>[3]TabellenEE!$C$5:$J$5</c:f>
+              <c:f>[4]TabellenEE!$C$5:$J$5</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -7159,7 +7246,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[3]TabellenEE!$C$11:$J$11</c:f>
+              <c:f>[4]TabellenEE!$C$11:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7201,7 +7288,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>[3]TabellenEE!$B$12</c:f>
+              <c:f>[4]TabellenEE!$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7218,7 +7305,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>[3]TabellenEE!$C$5:$J$5</c:f>
+              <c:f>[4]TabellenEE!$C$5:$J$5</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -7250,7 +7337,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[3]TabellenEE!$C$12:$J$12</c:f>
+              <c:f>[4]TabellenEE!$C$12:$J$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7292,7 +7379,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>[3]TabellenEE!$B$13</c:f>
+              <c:f>[4]TabellenEE!$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7309,7 +7396,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>[3]TabellenEE!$C$5:$J$5</c:f>
+              <c:f>[4]TabellenEE!$C$5:$J$5</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -7341,7 +7428,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[3]TabellenEE!$C$13:$J$13</c:f>
+              <c:f>[4]TabellenEE!$C$13:$J$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7383,7 +7470,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>[3]TabellenEE!$B$14</c:f>
+              <c:f>[4]TabellenEE!$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7400,7 +7487,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>[3]TabellenEE!$C$5:$J$5</c:f>
+              <c:f>[4]TabellenEE!$C$5:$J$5</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -7432,7 +7519,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[3]TabellenEE!$C$14:$J$14</c:f>
+              <c:f>[4]TabellenEE!$C$14:$J$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7474,7 +7561,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>[3]TabellenEE!$B$15</c:f>
+              <c:f>[4]TabellenEE!$B$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7491,7 +7578,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>[3]TabellenEE!$C$5:$J$5</c:f>
+              <c:f>[4]TabellenEE!$C$5:$J$5</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -7523,7 +7610,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[3]TabellenEE!$C$15:$J$15</c:f>
+              <c:f>[4]TabellenEE!$C$15:$J$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7565,7 +7652,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>[3]TabellenEE!$B$16</c:f>
+              <c:f>[4]TabellenEE!$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7582,7 +7669,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>[3]TabellenEE!$C$5:$J$5</c:f>
+              <c:f>[4]TabellenEE!$C$5:$J$5</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -7614,7 +7701,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[3]TabellenEE!$C$16:$J$16</c:f>
+              <c:f>[4]TabellenEE!$C$16:$J$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7656,7 +7743,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>[3]TabellenEE!$B$17</c:f>
+              <c:f>[4]TabellenEE!$B$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7675,7 +7762,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>[3]TabellenEE!$C$5:$J$5</c:f>
+              <c:f>[4]TabellenEE!$C$5:$J$5</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -7707,7 +7794,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[3]TabellenEE!$C$17:$J$17</c:f>
+              <c:f>[4]TabellenEE!$C$17:$J$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7749,7 +7836,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>[3]TabellenEE!$B$18</c:f>
+              <c:f>[4]TabellenEE!$B$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7769,7 +7856,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>[3]TabellenEE!$C$5:$J$5</c:f>
+              <c:f>[4]TabellenEE!$C$5:$J$5</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -7801,7 +7888,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[3]TabellenEE!$C$18:$J$18</c:f>
+              <c:f>[4]TabellenEE!$C$18:$J$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7843,7 +7930,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>[3]TabellenEE!$B$19</c:f>
+              <c:f>[4]TabellenEE!$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7855,7 +7942,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>[3]TabellenEE!$C$5:$J$5</c:f>
+              <c:f>[4]TabellenEE!$C$5:$J$5</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -7887,7 +7974,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[3]TabellenEE!$C$19:$J$19</c:f>
+              <c:f>[4]TabellenEE!$C$19:$J$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -7929,7 +8016,7 @@
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>[3]TabellenEE!$B$20</c:f>
+              <c:f>[4]TabellenEE!$B$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7941,7 +8028,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>[3]TabellenEE!$C$5:$J$5</c:f>
+              <c:f>[4]TabellenEE!$C$5:$J$5</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -7973,7 +8060,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[3]TabellenEE!$C$20:$J$20</c:f>
+              <c:f>[4]TabellenEE!$C$20:$J$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8015,7 +8102,7 @@
           <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>[3]TabellenEE!$B$21</c:f>
+              <c:f>[4]TabellenEE!$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8032,7 +8119,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>[3]TabellenEE!$C$5:$J$5</c:f>
+              <c:f>[4]TabellenEE!$C$5:$J$5</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -8064,7 +8151,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[3]TabellenEE!$C$21:$J$21</c:f>
+              <c:f>[4]TabellenEE!$C$21:$J$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8166,7 +8253,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -8271,7 +8357,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[3]TabellenEE!$B$73</c:f>
+              <c:f>[4]TabellenEE!$B$73</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8288,7 +8374,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>[3]TabellenEE!$C$5:$J$5</c:f>
+              <c:f>[4]TabellenEE!$C$5:$J$5</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -8320,7 +8406,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[3]TabellenEE!$C$73:$J$73</c:f>
+              <c:f>[4]TabellenEE!$C$73:$J$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8362,7 +8448,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[3]TabellenEE!$B$74</c:f>
+              <c:f>[4]TabellenEE!$B$74</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8379,7 +8465,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>[3]TabellenEE!$C$5:$J$5</c:f>
+              <c:f>[4]TabellenEE!$C$5:$J$5</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -8411,7 +8497,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[3]TabellenEE!$C$74:$J$74</c:f>
+              <c:f>[4]TabellenEE!$C$74:$J$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8453,7 +8539,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>[3]TabellenEE!$B$75</c:f>
+              <c:f>[4]TabellenEE!$B$75</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8470,7 +8556,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>[3]TabellenEE!$C$5:$J$5</c:f>
+              <c:f>[4]TabellenEE!$C$5:$J$5</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -8502,7 +8588,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[3]TabellenEE!$C$75:$J$75</c:f>
+              <c:f>[4]TabellenEE!$C$75:$J$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8544,7 +8630,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>[3]TabellenEE!$B$76</c:f>
+              <c:f>[4]TabellenEE!$B$76</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8561,7 +8647,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>[3]TabellenEE!$C$5:$J$5</c:f>
+              <c:f>[4]TabellenEE!$C$5:$J$5</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -8593,7 +8679,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[3]TabellenEE!$C$76:$J$76</c:f>
+              <c:f>[4]TabellenEE!$C$76:$J$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -8695,7 +8781,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -11505,13 +11590,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11604,42 +11689,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>324069</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>80423</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>11259</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>34921</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Grafik 3"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13305283" y="4312244"/>
-          <a:ext cx="5783190" cy="7574498"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11648,15 +11697,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>130468</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>11527</xdr:rowOff>
+      <xdr:colOff>715575</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>120384</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11717,16 +11766,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>132769</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>122464</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>513769</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>714828</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>84165</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>306614</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>138594</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11741,7 +11790,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11413090" y="3224893"/>
+          <a:off x="12528876" y="3469822"/>
           <a:ext cx="5793595" cy="7581701"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13061,6 +13110,59 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="FLUCCOplus"/>
+      <sheetName val="Bil"/>
+      <sheetName val="Dia1"/>
+      <sheetName val="Dia2"/>
+      <sheetName val="DiaDat_1_2"/>
+      <sheetName val="Erz"/>
+      <sheetName val="ErzAnt"/>
+      <sheetName val="Dia3"/>
+      <sheetName val="Dia4"/>
+      <sheetName val="DiaDat_3_4"/>
+      <sheetName val="ImEx_L"/>
+      <sheetName val="ImEx"/>
+      <sheetName val="Dia5"/>
+      <sheetName val="Dia6"/>
+      <sheetName val="DiaDat_5_6"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="22">
+          <cell r="O22">
+            <v>26046.847100000003</v>
+          </cell>
+          <cell r="Q22">
+            <v>22918.264192999999</v>
+          </cell>
+          <cell r="R22">
+            <v>76588.827260000005</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
       <sheetName val="Way2smartKenndatenFlächen"/>
       <sheetName val="Kenndaten"/>
       <sheetName val="ZQ_Personenzuschlag"/>
@@ -13284,7 +13386,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -13677,7 +13779,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -15896,53 +15998,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="FLUCCOplus"/>
-      <sheetName val="Bil"/>
-      <sheetName val="Dia1"/>
-      <sheetName val="Dia2"/>
-      <sheetName val="DiaDat_1_2"/>
-      <sheetName val="Erz"/>
-      <sheetName val="ErzAnt"/>
-      <sheetName val="Dia3"/>
-      <sheetName val="Dia4"/>
-      <sheetName val="DiaDat_3_4"/>
-      <sheetName val="ImEx_L"/>
-      <sheetName val="ImEx"/>
-      <sheetName val="Dia5"/>
-      <sheetName val="Dia6"/>
-      <sheetName val="DiaDat_5_6"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="22">
-          <cell r="O22">
-            <v>26046.847100000003</v>
-          </cell>
-          <cell r="Q22">
-            <v>22918.264192999999</v>
-          </cell>
-          <cell r="R22">
-            <v>76588.827260000005</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="14"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -16230,10 +16285,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16290,7 +16345,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="415" t="s">
+      <c r="A2" s="419" t="s">
         <v>697</v>
       </c>
       <c r="B2" t="str">
@@ -16345,7 +16400,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="415"/>
+      <c r="A3" s="419"/>
       <c r="B3" t="str">
         <f>CONCATENATE(scenarios!A8)</f>
         <v>Erneuerbare Energie 2030 (UBA16)</v>
@@ -16398,7 +16453,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="415"/>
+      <c r="A4" s="419"/>
       <c r="B4" t="str">
         <f>CONCATENATE(scenarios!A9)</f>
         <v>WEM 2030 (UBA17)</v>
@@ -16451,7 +16506,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="415"/>
+      <c r="A5" s="419"/>
       <c r="B5" t="str">
         <f>CONCATENATE(scenarios!A10)</f>
         <v>Transition 2030 (UBA17)</v>
@@ -16504,7 +16559,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="415"/>
+      <c r="A6" s="419"/>
       <c r="B6" t="str">
         <f>CONCATENATE(scenarios!A11)</f>
         <v>Energie und Klimazukunft 2050 (Veigl17)</v>
@@ -16557,7 +16612,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="415"/>
+      <c r="A7" s="419"/>
       <c r="B7" t="str">
         <f>CONCATENATE(scenarios!A12)</f>
         <v>Erneuerbare Energie 2050 (UBA16)</v>
@@ -16610,7 +16665,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="415"/>
+      <c r="A8" s="419"/>
       <c r="B8" t="str">
         <f>CONCATENATE(scenarios!A13)</f>
         <v>WEM 2050 (UBA17)</v>
@@ -16663,7 +16718,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="415"/>
+      <c r="A9" s="419"/>
       <c r="B9" t="str">
         <f>CONCATENATE(scenarios!A14)</f>
         <v>Transition 2050 (UBA17)</v>
@@ -16716,7 +16771,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="415"/>
+      <c r="A10" s="419"/>
       <c r="B10" t="str">
         <f>CONCATENATE(scenarios!A15)</f>
         <v>100% Erneuerbare Deckung 2050 (FLUCCO+)</v>
@@ -16824,542 +16879,646 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="415" t="s">
+      <c r="B12" t="str">
+        <f>CONCATENATE(scenarios!A17)</f>
+        <v>100% Erneuerbare Deckung 2050 ohne Speicherausbau (FLUCCO+)</v>
+      </c>
+      <c r="C12" s="415">
+        <v>2018</v>
+      </c>
+      <c r="D12">
+        <v>2050</v>
+      </c>
+      <c r="E12" s="412">
+        <f>scenarios!C17/scenarios!$C$4</f>
+        <v>1.8383865701037312</v>
+      </c>
+      <c r="F12" s="412">
+        <f>scenarios!E17/scenarios!C$4</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="412">
+        <f>scenarios!F17/scenarios!F$4</f>
+        <v>2.2860415048912275</v>
+      </c>
+      <c r="H12" s="412">
+        <f>scenarios!G17/scenarios!G$4</f>
+        <v>1.4411902783956245</v>
+      </c>
+      <c r="I12" s="412">
+        <f>scenarios!J17/scenarios!J$4</f>
+        <v>4.7276278611905402</v>
+      </c>
+      <c r="J12" s="412">
+        <f>scenarios!K17/scenarios!K$4</f>
+        <v>24.902173434837461</v>
+      </c>
+      <c r="K12" s="412">
+        <f>scenarios!L17/scenarios!L$4</f>
+        <v>2.8251136444764646</v>
+      </c>
+      <c r="L12" s="412">
+        <f>scenarios!M17/scenarios!M$4</f>
+        <v>0.74481468199243284</v>
+      </c>
+      <c r="M12" s="412">
+        <f>scenarios!I17/scenarios!I$4</f>
+        <v>1.3746033696965605</v>
+      </c>
+      <c r="N12" s="412">
+        <f>scenarios!H17/scenarios!H$4</f>
+        <v>1.9284427429581568</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="419" t="s">
         <v>698</v>
       </c>
-      <c r="B12" t="str">
+      <c r="B13" t="str">
         <f>CONCATENATE(scenarios!A7)</f>
         <v>Energie und Klimazukunft 2030 (Veigl17)</v>
       </c>
-      <c r="C12" s="363">
+      <c r="C13" s="363">
         <v>2019</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>2030</v>
       </c>
-      <c r="E12" s="412">
+      <c r="E13" s="412">
         <f>scenarios!C7/scenarios!C$5</f>
         <v>1.3155041873554014</v>
       </c>
-      <c r="F12" s="412">
+      <c r="F13" s="412">
         <f>scenarios!E7/scenarios!E$5</f>
         <v>0</v>
       </c>
-      <c r="G12" s="412">
+      <c r="G13" s="412">
         <f>scenarios!F7/scenarios!F$5</f>
         <v>1.5149299281240221</v>
       </c>
-      <c r="H12" s="412">
+      <c r="H13" s="412">
         <f>scenarios!G7/scenarios!G$5</f>
         <v>1.2400659119833537</v>
       </c>
-      <c r="I12" s="412">
+      <c r="I13" s="412">
         <f>scenarios!J7/scenarios!J$5</f>
         <v>1.5149912613190106</v>
       </c>
-      <c r="J12" s="412">
+      <c r="J13" s="412">
         <f>scenarios!K7/scenarios!K$5</f>
         <v>9.6431914351689301</v>
       </c>
-      <c r="K12" s="412">
+      <c r="K13" s="412">
         <f>scenarios!L7/scenarios!L$5</f>
         <v>1.336667291430276</v>
       </c>
-      <c r="L12" s="412">
+      <c r="L13" s="412">
         <f>scenarios!M7/scenarios!M$5</f>
         <v>2.037142573823802</v>
       </c>
-      <c r="M12" s="412">
+      <c r="M13" s="412">
         <f>scenarios!I7/scenarios!I$5</f>
         <v>0.93869841573891233</v>
       </c>
-      <c r="N12" s="412">
+      <c r="N13" s="412">
         <f>scenarios!H7/scenarios!H$5</f>
         <v>3.9023708633885388</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="415"/>
-      <c r="B13" t="str">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="419"/>
+      <c r="B14" t="str">
         <f>CONCATENATE(scenarios!A8)</f>
         <v>Erneuerbare Energie 2030 (UBA16)</v>
       </c>
-      <c r="C13" s="363">
+      <c r="C14" s="363">
         <v>2019</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>2030</v>
       </c>
-      <c r="E13" s="412">
+      <c r="E14" s="412">
         <f>scenarios!C8/scenarios!C$5</f>
         <v>1.229825046815729</v>
       </c>
-      <c r="F13" s="412">
+      <c r="F14" s="412">
         <f>scenarios!E8/scenarios!E$5</f>
         <v>-4.4652550086081169</v>
       </c>
-      <c r="G13" s="412">
+      <c r="G14" s="412">
         <f>scenarios!F8/scenarios!F$5</f>
         <v>1.6116256358091241</v>
       </c>
-      <c r="H13" s="412">
+      <c r="H14" s="412">
         <f>scenarios!G8/scenarios!G$5</f>
         <v>1.2304654016970311</v>
       </c>
-      <c r="I13" s="412">
+      <c r="I14" s="412">
         <f>scenarios!J8/scenarios!J$5</f>
         <v>2.2090686531326038</v>
       </c>
-      <c r="J13" s="412">
+      <c r="J14" s="412">
         <f>scenarios!K8/scenarios!K$5</f>
         <v>11.194487448652627</v>
       </c>
-      <c r="K13" s="412">
+      <c r="K14" s="412">
         <f>scenarios!L8/scenarios!L$5</f>
         <v>1.5173924101954686</v>
       </c>
-      <c r="L13" s="412">
+      <c r="L14" s="412">
         <f>scenarios!M8/scenarios!M$5</f>
         <v>1.8876777742338096</v>
       </c>
-      <c r="M13" s="412">
+      <c r="M14" s="412">
         <f>scenarios!I8/scenarios!I$5</f>
         <v>0.93143107316544993</v>
       </c>
-      <c r="N13" s="412">
+      <c r="N14" s="412">
         <f>scenarios!H8/scenarios!H$5</f>
         <v>3.8721589599300477</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="415"/>
-      <c r="B14" t="str">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="419"/>
+      <c r="B15" t="str">
         <f>CONCATENATE(scenarios!A9)</f>
         <v>WEM 2030 (UBA17)</v>
       </c>
-      <c r="C14" s="363">
+      <c r="C15" s="363">
         <v>2019</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>2030</v>
       </c>
-      <c r="E14" s="412">
+      <c r="E15" s="412">
         <f>scenarios!C9/scenarios!C$5</f>
         <v>1.276049666412173</v>
       </c>
-      <c r="F14" s="412">
+      <c r="F15" s="412">
         <f>scenarios!E9/scenarios!E$5</f>
         <v>0.8772603160330289</v>
       </c>
-      <c r="G14" s="412">
+      <c r="G15" s="412">
         <f>scenarios!F9/scenarios!F$5</f>
         <v>1.3502183173494482</v>
       </c>
-      <c r="H14" s="412">
+      <c r="H15" s="412">
         <f>scenarios!G9/scenarios!G$5</f>
         <v>1.255730744600537</v>
       </c>
-      <c r="I14" s="412">
+      <c r="I15" s="412">
         <f>scenarios!J9/scenarios!J$5</f>
         <v>0.9094527774052934</v>
       </c>
-      <c r="J14" s="412">
+      <c r="J15" s="412">
         <f>scenarios!K9/scenarios!K$5</f>
         <v>6.8600825331406092</v>
       </c>
-      <c r="K14" s="412">
+      <c r="K15" s="412">
         <f>scenarios!L9/scenarios!L$5</f>
         <v>1.1363627471898512</v>
       </c>
-      <c r="L14" s="412">
+      <c r="L15" s="412">
         <f>scenarios!M9/scenarios!M$5</f>
         <v>1.9766989145288805</v>
       </c>
-      <c r="M14" s="412">
+      <c r="M15" s="412">
         <f>scenarios!I9/scenarios!I$5</f>
         <v>0.9505562963712787</v>
       </c>
-      <c r="N14" s="412">
+      <c r="N15" s="412">
         <f>scenarios!H9/scenarios!H$5</f>
         <v>3.9516666191983112</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="415"/>
-      <c r="B15" t="str">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="419"/>
+      <c r="B16" t="str">
         <f>CONCATENATE(scenarios!A10)</f>
         <v>Transition 2030 (UBA17)</v>
       </c>
-      <c r="C15" s="363">
+      <c r="C16" s="363">
         <v>2019</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>2030</v>
       </c>
-      <c r="E15" s="412">
+      <c r="E16" s="412">
         <f>scenarios!C10/scenarios!C$5</f>
         <v>1.3208834402251213</v>
       </c>
-      <c r="F15" s="412">
+      <c r="F16" s="412">
         <f>scenarios!E10/scenarios!E$5</f>
         <v>-1.4036165056528462</v>
       </c>
-      <c r="G15" s="412">
+      <c r="G16" s="412">
         <f>scenarios!F10/scenarios!F$5</f>
         <v>1.5327359458119789</v>
       </c>
-      <c r="H15" s="412">
+      <c r="H16" s="412">
         <f>scenarios!G10/scenarios!G$5</f>
         <v>1.2135045001911942</v>
       </c>
-      <c r="I15" s="412">
+      <c r="I16" s="412">
         <f>scenarios!J10/scenarios!J$5</f>
         <v>1.9603986921467997</v>
       </c>
-      <c r="J15" s="412">
+      <c r="J16" s="412">
         <f>scenarios!K10/scenarios!K$5</f>
         <v>8.1053120358559028</v>
       </c>
-      <c r="K15" s="412">
+      <c r="K16" s="412">
         <f>scenarios!L10/scenarios!L$5</f>
         <v>1.3576276647388978</v>
       </c>
-      <c r="L15" s="412">
+      <c r="L16" s="412">
         <f>scenarios!M10/scenarios!M$5</f>
         <v>2.0457080438305582</v>
       </c>
-      <c r="M15" s="412">
+      <c r="M16" s="412">
         <f>scenarios!I10/scenarios!I$5</f>
         <v>0.91859210128566593</v>
       </c>
-      <c r="N15" s="412">
+      <c r="N16" s="412">
         <f>scenarios!H10/scenarios!H$5</f>
         <v>3.8187845971533783</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="415"/>
-      <c r="B16" t="str">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="419"/>
+      <c r="B17" t="str">
         <f>CONCATENATE(scenarios!A11)</f>
         <v>Energie und Klimazukunft 2050 (Veigl17)</v>
       </c>
-      <c r="C16" s="363">
+      <c r="C17" s="363">
         <v>2019</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>2050</v>
       </c>
-      <c r="E16" s="412">
+      <c r="E17" s="412">
         <f>scenarios!C11/scenarios!C$5</f>
         <v>1.4079086960457552</v>
       </c>
-      <c r="F16" s="412">
+      <c r="F17" s="412">
         <f>scenarios!E11/scenarios!E$5</f>
         <v>0</v>
       </c>
-      <c r="G16" s="412">
+      <c r="G17" s="412">
         <f>scenarios!F11/scenarios!F$5</f>
         <v>2.0574261508627099</v>
       </c>
-      <c r="H16" s="412">
+      <c r="H17" s="412">
         <f>scenarios!G11/scenarios!G$5</f>
         <v>1.2400659119833537</v>
       </c>
-      <c r="I16" s="412">
+      <c r="I17" s="412">
         <f>scenarios!J11/scenarios!J$5</f>
         <v>2.5367295538364827</v>
       </c>
-      <c r="J16" s="412">
+      <c r="J17" s="412">
         <f>scenarios!K11/scenarios!K$5</f>
         <v>24.736882377172471</v>
       </c>
-      <c r="K16" s="412">
+      <c r="K17" s="412">
         <f>scenarios!L11/scenarios!L$5</f>
         <v>2.0311292072453884</v>
       </c>
-      <c r="L16" s="412">
+      <c r="L17" s="412">
         <f>scenarios!M11/scenarios!M$5</f>
         <v>2.1344619041474084</v>
       </c>
-      <c r="M16" s="412">
+      <c r="M17" s="412">
         <f>scenarios!I11/scenarios!I$5</f>
         <v>0.93869841573891233</v>
       </c>
-      <c r="N16" s="412">
+      <c r="N17" s="412">
         <f>scenarios!H11/scenarios!H$5</f>
         <v>3.9023708633885388</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="415"/>
-      <c r="B17" t="str">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="419"/>
+      <c r="B18" t="str">
         <f>CONCATENATE(scenarios!A12)</f>
         <v>Erneuerbare Energie 2050 (UBA16)</v>
       </c>
-      <c r="C17" s="363">
+      <c r="C18" s="363">
         <v>2019</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>2050</v>
       </c>
-      <c r="E17" s="412">
+      <c r="E18" s="412">
         <f>scenarios!C12/scenarios!C$5</f>
         <v>1.3227036746397631</v>
       </c>
-      <c r="F17" s="412">
+      <c r="F18" s="412">
         <f>scenarios!E12/scenarios!E$5</f>
         <v>-6.2285482438345046</v>
       </c>
-      <c r="G17" s="412">
+      <c r="G18" s="412">
         <f>scenarios!F12/scenarios!F$5</f>
         <v>1.816667065301379</v>
       </c>
-      <c r="H17" s="412">
+      <c r="H18" s="412">
         <f>scenarios!G12/scenarios!G$5</f>
         <v>1.304069313892172</v>
       </c>
-      <c r="I17" s="412">
+      <c r="I18" s="412">
         <f>scenarios!J12/scenarios!J$5</f>
         <v>2.6741357380026258</v>
       </c>
-      <c r="J17" s="412">
+      <c r="J18" s="412">
         <f>scenarios!K12/scenarios!K$5</f>
         <v>17.777013776137505</v>
       </c>
-      <c r="K17" s="412">
+      <c r="K18" s="412">
         <f>scenarios!L12/scenarios!L$5</f>
         <v>1.8670711744597588</v>
       </c>
-      <c r="L17" s="412">
+      <c r="L18" s="412">
         <f>scenarios!M12/scenarios!M$5</f>
         <v>1.6690104184238921</v>
       </c>
-      <c r="M17" s="412">
+      <c r="M18" s="412">
         <f>scenarios!I12/scenarios!I$5</f>
         <v>0.98714736622866261</v>
       </c>
-      <c r="N17" s="412">
+      <c r="N18" s="412">
         <f>scenarios!H12/scenarios!H$5</f>
         <v>4.1037835531118185</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="415"/>
-      <c r="B18" t="str">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="419"/>
+      <c r="B19" t="str">
         <f>CONCATENATE(scenarios!A13)</f>
         <v>WEM 2050 (UBA17)</v>
       </c>
-      <c r="C18" s="363">
+      <c r="C19" s="363">
         <v>2019</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>2050</v>
       </c>
-      <c r="E18" s="412">
+      <c r="E19" s="412">
         <f>scenarios!C13/scenarios!C$5</f>
         <v>1.4879016159378382</v>
       </c>
-      <c r="F18" s="412">
+      <c r="F19" s="412">
         <f>scenarios!E13/scenarios!E$5</f>
         <v>3.4213152325288125</v>
       </c>
-      <c r="G18" s="412">
+      <c r="G19" s="412">
         <f>scenarios!F13/scenarios!F$5</f>
         <v>1.4342391691196372</v>
       </c>
-      <c r="H18" s="412">
+      <c r="H19" s="412">
         <f>scenarios!G13/scenarios!G$5</f>
         <v>1.255730744600537</v>
       </c>
-      <c r="I18" s="412">
+      <c r="I19" s="412">
         <f>scenarios!J13/scenarios!J$5</f>
         <v>0.96480280697580889</v>
       </c>
-      <c r="J18" s="412">
+      <c r="J19" s="412">
         <f>scenarios!K13/scenarios!K$5</f>
         <v>12.980993479315879</v>
       </c>
-      <c r="K18" s="412">
+      <c r="K19" s="412">
         <f>scenarios!L13/scenarios!L$5</f>
         <v>1.3479261005335661</v>
       </c>
-      <c r="L18" s="412">
+      <c r="L19" s="412">
         <f>scenarios!M13/scenarios!M$5</f>
         <v>1.6870895517953697</v>
       </c>
-      <c r="M18" s="412">
+      <c r="M19" s="412">
         <f>scenarios!I13/scenarios!I$5</f>
         <v>0.9505562963712787</v>
       </c>
-      <c r="N18" s="412">
+      <c r="N19" s="412">
         <f>scenarios!H13/scenarios!H$5</f>
         <v>3.9516666191983112</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="415"/>
-      <c r="B19" t="str">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="419"/>
+      <c r="B20" t="str">
         <f>CONCATENATE(scenarios!A14)</f>
         <v>Transition 2050 (UBA17)</v>
       </c>
-      <c r="C19" s="363">
+      <c r="C20" s="363">
         <v>2019</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>2050</v>
       </c>
-      <c r="E19" s="412">
+      <c r="E20" s="412">
         <f>scenarios!C14/scenarios!C$5</f>
         <v>1.9457839165748669</v>
       </c>
-      <c r="F19" s="412">
+      <c r="F20" s="412">
         <f>scenarios!E14/scenarios!E$5</f>
         <v>0</v>
       </c>
-      <c r="G19" s="412">
+      <c r="G20" s="412">
         <f>scenarios!F14/scenarios!F$5</f>
         <v>2.1370442988830276</v>
       </c>
-      <c r="H19" s="412">
+      <c r="H20" s="412">
         <f>scenarios!G14/scenarios!G$5</f>
         <v>1.3538159580258009</v>
       </c>
-      <c r="I19" s="412">
+      <c r="I20" s="412">
         <f>scenarios!J14/scenarios!J$5</f>
         <v>3.5958141425632144</v>
       </c>
-      <c r="J19" s="412">
+      <c r="J20" s="412">
         <f>scenarios!K14/scenarios!K$5</f>
         <v>19.966437501113685</v>
       </c>
-      <c r="K19" s="412">
+      <c r="K20" s="412">
         <f>scenarios!L14/scenarios!L$5</f>
         <v>2.1478279627510708</v>
       </c>
-      <c r="L19" s="412">
+      <c r="L20" s="412">
         <f>scenarios!M14/scenarios!M$5</f>
         <v>2.1054540243122393</v>
       </c>
-      <c r="M19" s="412">
+      <c r="M20" s="412">
         <f>scenarios!I14/scenarios!I$5</f>
         <v>1.024804312996821</v>
       </c>
-      <c r="N19" s="412">
+      <c r="N20" s="412">
         <f>scenarios!H14/scenarios!H$5</f>
         <v>4.2603315661992376</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="415"/>
-      <c r="B20" t="str">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="419"/>
+      <c r="B21" t="str">
         <f>CONCATENATE(scenarios!A15)</f>
         <v>100% Erneuerbare Deckung 2050 (FLUCCO+)</v>
       </c>
-      <c r="C20" s="363">
+      <c r="C21" s="363">
         <v>2019</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>2050</v>
       </c>
-      <c r="E20" s="412">
+      <c r="E21" s="412">
         <f>scenarios!C15/scenarios!C$5</f>
         <v>1.4679212771544103</v>
       </c>
-      <c r="F20" s="412">
+      <c r="F21" s="412">
         <f>scenarios!E15/scenarios!E$5</f>
         <v>0</v>
       </c>
-      <c r="G20" s="412">
+      <c r="G21" s="412">
         <f>scenarios!F15/scenarios!F$5</f>
         <v>1.6122102612883962</v>
       </c>
-      <c r="H20" s="412">
+      <c r="H21" s="412">
         <f>scenarios!G15/scenarios!G$5</f>
         <v>0.97597387928328605</v>
       </c>
-      <c r="I20" s="412">
+      <c r="I21" s="412">
         <f>scenarios!J15/scenarios!J$5</f>
         <v>3.0303275447952549</v>
       </c>
-      <c r="J20" s="412">
+      <c r="J21" s="412">
         <f>scenarios!K15/scenarios!K$5</f>
         <v>20.860469084847619</v>
       </c>
-      <c r="K20" s="412">
+      <c r="K21" s="412">
         <f>scenarios!L15/scenarios!L$5</f>
         <v>1.8459751889841272</v>
       </c>
-      <c r="L20" s="412">
+      <c r="L21" s="412">
         <f>scenarios!M15/scenarios!M$5</f>
         <v>0.92740606660159908</v>
       </c>
-      <c r="M20" s="412">
+      <c r="M21" s="412">
         <f>scenarios!I15/scenarios!I$5</f>
         <v>0.73878745108032551</v>
       </c>
-      <c r="N20" s="412">
+      <c r="N21" s="412">
         <f>scenarios!H15/scenarios!H$5</f>
         <v>3.0712980601586799</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B21" t="str">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B22" t="str">
         <f>CONCATENATE(scenarios!A16)</f>
         <v>100% Erneuerbare Deckung 2050 inkl Methan (FLUCCO+)</v>
       </c>
-      <c r="C21" s="363">
+      <c r="C22" s="363">
         <v>2019</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>2050</v>
       </c>
-      <c r="E21" s="412">
+      <c r="E22" s="412">
         <f>scenarios!C16/scenarios!C$5</f>
         <v>1.9612120524040533</v>
       </c>
-      <c r="F21" s="412">
+      <c r="F22" s="412">
         <f>scenarios!E16/scenarios!E$5</f>
         <v>0</v>
       </c>
-      <c r="G21" s="412">
+      <c r="G22" s="412">
         <f>scenarios!F16/scenarios!F$5</f>
         <v>2.1539889397731593</v>
       </c>
-      <c r="H21" s="413">
+      <c r="H22" s="413">
         <f>scenarios!G16/scenarios!G$5</f>
         <v>1.4159715900156888</v>
       </c>
-      <c r="I21" s="412">
+      <c r="I22" s="412">
         <f>scenarios!J16/scenarios!J$5</f>
         <v>3.8353225193959712</v>
       </c>
-      <c r="J21" s="412">
+      <c r="J22" s="412">
         <f>scenarios!K16/scenarios!K$5</f>
         <v>26.698326033563141</v>
       </c>
-      <c r="K21" s="412">
+      <c r="K22" s="412">
         <f>scenarios!L16/scenarios!L$5</f>
         <v>2.4516956389913687</v>
       </c>
-      <c r="L21" s="412">
+      <c r="L22" s="412">
         <f>scenarios!M16/scenarios!M$5</f>
         <v>1.2818701047512158</v>
       </c>
-      <c r="M21" s="412">
+      <c r="M22" s="412">
         <f>scenarios!I16/scenarios!I$5</f>
         <v>1.071854548564414</v>
       </c>
-      <c r="N21" s="412">
+      <c r="N22" s="412">
         <f>scenarios!H16/scenarios!H$5</f>
         <v>4.4559294976712014</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B23" t="str">
+        <f>CONCATENATE(scenarios!A17)</f>
+        <v>100% Erneuerbare Deckung 2050 ohne Speicherausbau (FLUCCO+)</v>
+      </c>
+      <c r="C23" s="415">
+        <v>2019</v>
+      </c>
+      <c r="D23">
+        <v>2050</v>
+      </c>
+      <c r="E23" s="412">
+        <f>scenarios!C17/scenarios!C$5</f>
+        <v>1.9612120524040533</v>
+      </c>
+      <c r="F23" s="412">
+        <f>scenarios!E17/scenarios!E$5</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="412">
+        <f>scenarios!F17/scenarios!F$5</f>
+        <v>2.1539889397731593</v>
+      </c>
+      <c r="H23" s="413">
+        <f>scenarios!G17/scenarios!G$5</f>
+        <v>1.4159715900156888</v>
+      </c>
+      <c r="I23" s="412">
+        <f>scenarios!J17/scenarios!J$5</f>
+        <v>3.8353225193959712</v>
+      </c>
+      <c r="J23" s="412">
+        <f>scenarios!K17/scenarios!K$5</f>
+        <v>26.698326033563141</v>
+      </c>
+      <c r="K23" s="412">
+        <f>scenarios!L17/scenarios!L$5</f>
+        <v>2.645340112690767</v>
+      </c>
+      <c r="L23" s="412">
+        <f>scenarios!M17/scenarios!M$5</f>
+        <v>0.71459703614158798</v>
+      </c>
+      <c r="M23" s="412">
+        <f>scenarios!I17/scenarios!I$5</f>
+        <v>1.3226753326521761</v>
+      </c>
+      <c r="N23" s="412">
+        <f>scenarios!H17/scenarios!H$5</f>
+        <v>2.240158308960944</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="A13:A21"/>
   </mergeCells>
-  <conditionalFormatting sqref="E2:N21">
+  <conditionalFormatting sqref="E2:N23">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -17388,7 +17547,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E2:N21</xm:sqref>
+          <xm:sqref>E2:N23</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -17749,18 +17908,18 @@
         <v>2008</v>
       </c>
       <c r="B4" s="74">
-        <f>[1]TabellenEE!$C$64*277.7778</f>
+        <f>[2]TabellenEE!$C$64*277.7778</f>
         <v>86666.673600000009</v>
       </c>
       <c r="C4" s="74">
-        <f>[1]TabellenEE!$C$53*277.7778</f>
+        <f>[2]TabellenEE!$C$53*277.7778</f>
         <v>84722.229000000007</v>
       </c>
       <c r="D4" s="74">
         <v>0</v>
       </c>
       <c r="E4" s="74">
-        <f>[1]TabellenEE!$C$48*277.7778</f>
+        <f>[2]TabellenEE!$C$48*277.7778</f>
         <v>117194.45382</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -17797,18 +17956,18 @@
         <v>71</v>
       </c>
       <c r="B6" s="71">
-        <f>[1]TabellenEE!$J$64*277.7778</f>
+        <f>[2]TabellenEE!$J$64*277.7778</f>
         <v>84444.45120000001</v>
       </c>
       <c r="C6" s="71">
-        <f>[1]TabellenEE!$J$53*277.7778</f>
+        <f>[2]TabellenEE!$J$53*277.7778</f>
         <v>38055.558600000004</v>
       </c>
       <c r="D6" s="73">
         <v>0</v>
       </c>
       <c r="E6" s="72">
-        <f>[1]TabellenEE!$J$48*277.7778</f>
+        <f>[2]TabellenEE!$J$48*277.7778</f>
         <v>66388.89420000001</v>
       </c>
       <c r="F6" s="70"/>
@@ -19060,14 +19219,14 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="416">
+      <c r="B2" s="420">
         <v>2017</v>
       </c>
-      <c r="C2" s="416"/>
-      <c r="D2" s="416">
+      <c r="C2" s="420"/>
+      <c r="D2" s="420">
         <v>2050</v>
       </c>
-      <c r="E2" s="416"/>
+      <c r="E2" s="420"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -19228,10 +19387,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19303,6 +19462,10 @@
       <c r="B2">
         <v>2015</v>
       </c>
+      <c r="H2">
+        <f>SUM(H4:H5)/SUM(G4:G5)</f>
+        <v>0.11087567346883498</v>
+      </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -19311,6 +19474,9 @@
       <c r="B3">
         <v>2018</v>
       </c>
+      <c r="H3" s="78">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="410" t="s">
@@ -19425,7 +19591,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="418" t="s">
+      <c r="A6" s="417" t="s">
         <v>708</v>
       </c>
       <c r="B6">
@@ -19527,7 +19693,7 @@
         <v>46</v>
       </c>
       <c r="L7" s="407">
-        <f>J7+K7+I7</f>
+        <f t="shared" ref="L7:L16" si="2">J7+K7+I7</f>
         <v>194.4</v>
       </c>
       <c r="M7" s="407">
@@ -19535,15 +19701,15 @@
         <v>101.13635709143264</v>
       </c>
       <c r="N7" s="414">
-        <f>C7-L7</f>
+        <f t="shared" ref="N7:N16" si="3">C7-L7</f>
         <v>87.457451403887688</v>
       </c>
       <c r="O7" s="414">
-        <f>N7-H7</f>
+        <f t="shared" ref="O7:O16" si="4">N7-H7</f>
         <v>37.857451403887687</v>
       </c>
       <c r="P7" s="414">
-        <f>O7-M7</f>
+        <f t="shared" ref="P7:P16" si="5">O7-M7</f>
         <v>-63.278905687544956</v>
       </c>
     </row>
@@ -19572,11 +19738,11 @@
         <v>153.80000000000001</v>
       </c>
       <c r="H8" s="407">
-        <f t="shared" ref="H8:H16" si="2">G8*32%</f>
+        <f t="shared" ref="H8:H16" si="6">G8*32%</f>
         <v>49.216000000000008</v>
       </c>
       <c r="I8" s="407">
-        <f t="shared" ref="I8:I16" si="3">G8*68%</f>
+        <f t="shared" ref="I8:I16" si="7">G8*68%</f>
         <v>104.58400000000002</v>
       </c>
       <c r="J8" s="407">
@@ -19586,7 +19752,7 @@
         <v>53.4</v>
       </c>
       <c r="L8" s="407">
-        <f>J8+K8+I8</f>
+        <f t="shared" si="2"/>
         <v>220.68400000000003</v>
       </c>
       <c r="M8" s="407">
@@ -19594,15 +19760,15 @@
         <v>93.715999999999951</v>
       </c>
       <c r="N8" s="414">
-        <f>C8-L8</f>
+        <f t="shared" si="3"/>
         <v>42.815999999999974</v>
       </c>
       <c r="O8" s="414">
-        <f>N8-H8</f>
+        <f t="shared" si="4"/>
         <v>-6.4000000000000341</v>
       </c>
       <c r="P8" s="414">
-        <f>O8-M8</f>
+        <f t="shared" si="5"/>
         <v>-100.11599999999999</v>
       </c>
     </row>
@@ -19631,11 +19797,11 @@
         <v>156.958</v>
       </c>
       <c r="H9" s="407">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>50.226559999999999</v>
       </c>
       <c r="I9" s="407">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>106.73144000000001</v>
       </c>
       <c r="J9" s="407">
@@ -19645,7 +19811,7 @@
         <v>32.723999999999997</v>
       </c>
       <c r="L9" s="407">
-        <f>J9+K9+I9</f>
+        <f t="shared" si="2"/>
         <v>165.26844</v>
       </c>
       <c r="M9" s="407">
@@ -19653,15 +19819,15 @@
         <v>98.135559999999998</v>
       </c>
       <c r="N9" s="414">
-        <f>C9-L9</f>
+        <f t="shared" si="3"/>
         <v>108.13556</v>
       </c>
       <c r="O9" s="414">
-        <f>N9-H9</f>
+        <f t="shared" si="4"/>
         <v>57.908999999999999</v>
       </c>
       <c r="P9" s="414">
-        <f>O9-M9</f>
+        <f t="shared" si="5"/>
         <v>-40.226559999999999</v>
       </c>
     </row>
@@ -19690,11 +19856,11 @@
         <v>151.68</v>
       </c>
       <c r="H10" s="407">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>48.537600000000005</v>
       </c>
       <c r="I10" s="407">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>103.14240000000001</v>
       </c>
       <c r="J10" s="407">
@@ -19704,7 +19870,7 @@
         <v>38.664000000000001</v>
       </c>
       <c r="L10" s="407">
-        <f>J10+K10+I10</f>
+        <f t="shared" si="2"/>
         <v>197.44840000000002</v>
       </c>
       <c r="M10" s="407">
@@ -19712,15 +19878,15 @@
         <v>101.5616</v>
       </c>
       <c r="N10" s="414">
-        <f>C10-L10</f>
+        <f t="shared" si="3"/>
         <v>85.56159999999997</v>
       </c>
       <c r="O10" s="414">
-        <f>N10-H10</f>
+        <f t="shared" si="4"/>
         <v>37.023999999999965</v>
       </c>
       <c r="P10" s="414">
-        <f>O10-M10</f>
+        <f t="shared" si="5"/>
         <v>-64.537600000000026</v>
       </c>
     </row>
@@ -19750,11 +19916,11 @@
         <v>155</v>
       </c>
       <c r="H11" s="407">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>49.6</v>
       </c>
       <c r="I11" s="407">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>105.4</v>
       </c>
       <c r="J11" s="407">
@@ -19764,7 +19930,7 @@
         <v>118</v>
       </c>
       <c r="L11" s="407">
-        <f>J11+K11+I11</f>
+        <f t="shared" si="2"/>
         <v>295.39999999999998</v>
       </c>
       <c r="M11" s="407">
@@ -19772,15 +19938,15 @@
         <v>105.96789056875451</v>
       </c>
       <c r="N11" s="414">
-        <f>C11-L11</f>
+        <f t="shared" si="3"/>
         <v>6.2558675305975839</v>
       </c>
       <c r="O11" s="414">
-        <f>N11-H11</f>
+        <f t="shared" si="4"/>
         <v>-43.344132469402417</v>
       </c>
       <c r="P11" s="414">
-        <f>O11-M11</f>
+        <f t="shared" si="5"/>
         <v>-149.31202303815692</v>
       </c>
     </row>
@@ -19809,11 +19975,11 @@
         <v>163</v>
       </c>
       <c r="H12" s="407">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>52.160000000000004</v>
       </c>
       <c r="I12" s="407">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>110.84</v>
       </c>
       <c r="J12" s="407">
@@ -19823,7 +19989,7 @@
         <v>84.8</v>
       </c>
       <c r="L12" s="407">
-        <f>J12+K12+I12</f>
+        <f t="shared" si="2"/>
         <v>271.53999999999996</v>
       </c>
       <c r="M12" s="407">
@@ -19831,15 +19997,15 @@
         <v>82.859999999999957</v>
       </c>
       <c r="N12" s="414">
-        <f>C12-L12</f>
+        <f t="shared" si="3"/>
         <v>11.860000000000014</v>
       </c>
       <c r="O12" s="414">
-        <f>N12-H12</f>
+        <f t="shared" si="4"/>
         <v>-40.29999999999999</v>
       </c>
       <c r="P12" s="414">
-        <f>O12-M12</f>
+        <f t="shared" si="5"/>
         <v>-123.15999999999994</v>
       </c>
     </row>
@@ -19868,11 +20034,11 @@
         <v>156.958</v>
       </c>
       <c r="H13" s="407">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>50.226559999999999</v>
       </c>
       <c r="I13" s="407">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>106.73144000000001</v>
       </c>
       <c r="J13" s="407">
@@ -19882,7 +20048,7 @@
         <v>61.921999999999997</v>
       </c>
       <c r="L13" s="407">
-        <f>J13+K13+I13</f>
+        <f t="shared" si="2"/>
         <v>196.03744</v>
       </c>
       <c r="M13" s="407">
@@ -19890,15 +20056,15 @@
         <v>83.757560000000012</v>
       </c>
       <c r="N13" s="414">
-        <f>C13-L13</f>
+        <f t="shared" si="3"/>
         <v>122.75756000000001</v>
       </c>
       <c r="O13" s="414">
-        <f>N13-H13</f>
+        <f t="shared" si="4"/>
         <v>72.531000000000006</v>
       </c>
       <c r="P13" s="414">
-        <f>O13-M13</f>
+        <f t="shared" si="5"/>
         <v>-11.226560000000006</v>
       </c>
     </row>
@@ -19927,11 +20093,11 @@
         <v>169.21799999999999</v>
       </c>
       <c r="H14" s="407">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>54.149760000000001</v>
       </c>
       <c r="I14" s="407">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>115.06824</v>
       </c>
       <c r="J14" s="407">
@@ -19941,7 +20107,7 @@
         <v>95.244</v>
       </c>
       <c r="L14" s="407">
-        <f>J14+K14+I14</f>
+        <f t="shared" si="2"/>
         <v>312.37224000000003</v>
       </c>
       <c r="M14" s="407">
@@ -19949,15 +20115,15 @@
         <v>104.52775999999994</v>
       </c>
       <c r="N14" s="414">
-        <f>C14-L14</f>
+        <f t="shared" si="3"/>
         <v>104.52775999999994</v>
       </c>
       <c r="O14" s="414">
-        <f>N14-H14</f>
+        <f t="shared" si="4"/>
         <v>50.377999999999943</v>
       </c>
       <c r="P14" s="414">
-        <f>O14-M14</f>
+        <f t="shared" si="5"/>
         <v>-54.149760000000001</v>
       </c>
     </row>
@@ -19988,11 +20154,11 @@
         <v>121.9902505399568</v>
       </c>
       <c r="H15" s="407">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>39.036880172786177</v>
       </c>
       <c r="I15" s="407">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>82.953370367170635</v>
       </c>
       <c r="J15" s="407">
@@ -20004,7 +20170,7 @@
         <v>99.508713930885534</v>
       </c>
       <c r="L15" s="407">
-        <f>J15+K15+I15</f>
+        <f t="shared" si="2"/>
         <v>268.47187706263497</v>
       </c>
       <c r="M15" s="407">
@@ -20012,15 +20178,15 @@
         <v>46.04217315262531</v>
       </c>
       <c r="N15" s="414">
-        <f>C15-L15</f>
+        <f t="shared" si="3"/>
         <v>46.042173152625367</v>
       </c>
       <c r="O15" s="414">
-        <f>N15-H15</f>
+        <f t="shared" si="4"/>
         <v>7.0052929798391901</v>
       </c>
       <c r="P15" s="414">
-        <f>O15-M15</f>
+        <f t="shared" si="5"/>
         <v>-39.03688017278612</v>
       </c>
     </row>
@@ -20051,11 +20217,11 @@
         <v>176.98704103671705</v>
       </c>
       <c r="H16" s="407">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>56.635853131749457</v>
       </c>
       <c r="I16" s="407">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>120.3511879049676</v>
       </c>
       <c r="J16" s="407">
@@ -20067,7 +20233,7 @@
         <v>127.35648833693305</v>
       </c>
       <c r="L16" s="407">
-        <f>J16+K16+I16</f>
+        <f t="shared" si="2"/>
         <v>356.56564298056156</v>
       </c>
       <c r="M16" s="407">
@@ -20075,21 +20241,84 @@
         <v>63.639960366448236</v>
       </c>
       <c r="N16" s="414">
-        <f>C16-L16</f>
+        <f t="shared" si="3"/>
         <v>63.639960366448236</v>
       </c>
       <c r="O16" s="414">
-        <f>N16-H16</f>
+        <f t="shared" si="4"/>
         <v>7.0041072346987789</v>
       </c>
       <c r="P16" s="414">
-        <f>O16-M16</f>
+        <f t="shared" si="5"/>
         <v>-56.635853131749457</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>710</v>
+      </c>
+      <c r="B17">
+        <v>2050</v>
+      </c>
+      <c r="C17" s="407">
+        <f>'Sankey2050 (PJ)'!D37+'Sankey2050 (PJ)'!E37</f>
+        <v>420.2056033470098</v>
+      </c>
+      <c r="D17" s="252">
+        <f t="shared" ref="D17" si="8">C17-E17-F17</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="407">
+        <v>0</v>
+      </c>
+      <c r="F17" s="407">
+        <f>'Sankey2050 (PJ)'!D37+'Sankey2050 (PJ)'!E37</f>
+        <v>420.2056033470098</v>
+      </c>
+      <c r="G17" s="407">
+        <f>'Sankey2050 (PJ)'!C31</f>
+        <v>176.98704103671705</v>
+      </c>
+      <c r="H17" s="407">
+        <f>G17*($H$2+5%)</f>
+        <v>28.472909422038185</v>
+      </c>
+      <c r="I17" s="407">
+        <f>G17-H17</f>
+        <v>148.51413161467886</v>
+      </c>
+      <c r="J17" s="407">
+        <f>'Sankey2050 (PJ)'!D32+'Sankey2050 (PJ)'!E32</f>
+        <v>108.85796673866089</v>
+      </c>
+      <c r="K17" s="407">
+        <f>'Sankey2050 (PJ)'!D34+'Sankey2050 (PJ)'!E34</f>
+        <v>127.35648833693305</v>
+      </c>
+      <c r="L17" s="407">
+        <f>J17+K17+I17</f>
+        <v>384.72858669027278</v>
+      </c>
+      <c r="M17" s="407">
+        <f>F17-SUM(I17:K17)</f>
+        <v>35.477016656736964</v>
+      </c>
+      <c r="N17" s="414">
+        <f t="shared" ref="N17" si="9">C17-L17</f>
+        <v>35.477016656737021</v>
+      </c>
+      <c r="O17" s="414">
+        <f t="shared" ref="O17" si="10">N17-H17</f>
+        <v>7.0041072346988358</v>
+      </c>
+      <c r="P17" s="414">
+        <f t="shared" ref="P17" si="11">O17-M17</f>
+        <v>-28.472909422038128</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C4:N5 C7:N16 C6:P6">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20103,7 +20332,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:M5 C7:M16 C6:P6">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20112,6 +20341,62 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{7554B8AF-EA9E-4EFD-9AE1-6D2488D8D388}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:E17 G17:N17">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9613EF2C-6E2B-4C1B-A3CA-BE27D3E89F49}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:E17 G17:M17">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A9D2C3E7-0FF9-43B6-A06D-C0E512699061}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5EFB51D3-EA37-464F-B649-82A729C359D2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B4653764-C951-4B08-9914-6D05E9A31ECD}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -20144,6 +20429,50 @@
           </x14:cfRule>
           <xm:sqref>C4:M5 C7:M16 C6:P6</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9613EF2C-6E2B-4C1B-A3CA-BE27D3E89F49}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C17:E17 G17:N17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A9D2C3E7-0FF9-43B6-A06D-C0E512699061}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C17:E17 G17:M17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5EFB51D3-EA37-464F-B649-82A729C359D2}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B4653764-C951-4B08-9914-6D05E9A31ECD}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F17</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -20152,10 +20481,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20175,7 +20504,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>684</v>
+        <v>709</v>
       </c>
       <c r="B1" t="s">
         <v>664</v>
@@ -20230,59 +20559,59 @@
       <c r="B2">
         <v>2015</v>
       </c>
-      <c r="C2" s="417">
+      <c r="C2" s="416">
         <f>scenarios!C2*277.778</f>
         <v>0</v>
       </c>
-      <c r="D2" s="417">
+      <c r="D2" s="416">
         <f>scenarios!D2*277.778</f>
         <v>0</v>
       </c>
-      <c r="E2" s="417">
+      <c r="E2" s="416">
         <f>scenarios!E2*277.778</f>
         <v>0</v>
       </c>
-      <c r="F2" s="417">
+      <c r="F2" s="416">
         <f>scenarios!F2*277.778</f>
         <v>0</v>
       </c>
-      <c r="G2" s="417">
+      <c r="G2" s="416">
         <f>scenarios!G2*277.778</f>
         <v>0</v>
       </c>
-      <c r="H2" s="417">
+      <c r="H2" s="416">
         <f>scenarios!H2*277.778</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="417">
+        <v>30.798822824826043</v>
+      </c>
+      <c r="I2" s="416">
         <f>scenarios!I2*277.778</f>
         <v>0</v>
       </c>
-      <c r="J2" s="417">
+      <c r="J2" s="416">
         <f>scenarios!J2*277.778</f>
         <v>0</v>
       </c>
-      <c r="K2" s="417">
+      <c r="K2" s="416">
         <f>scenarios!K2*277.778</f>
         <v>0</v>
       </c>
-      <c r="L2" s="417">
+      <c r="L2" s="416">
         <f>scenarios!L2*277.778</f>
         <v>0</v>
       </c>
-      <c r="M2" s="417">
+      <c r="M2" s="416">
         <f>scenarios!M2*277.778</f>
         <v>0</v>
       </c>
-      <c r="N2" s="417">
+      <c r="N2" s="416">
         <f>scenarios!N2*277.778</f>
         <v>0</v>
       </c>
-      <c r="O2" s="417">
+      <c r="O2" s="416">
         <f>scenarios!O2*277.778</f>
         <v>0</v>
       </c>
-      <c r="P2" s="417">
+      <c r="P2" s="416">
         <f>scenarios!P2*277.778</f>
         <v>0</v>
       </c>
@@ -20294,59 +20623,59 @@
       <c r="B3">
         <v>2018</v>
       </c>
-      <c r="C3" s="417">
+      <c r="C3" s="416">
         <f>scenarios!C3*277.778</f>
         <v>0</v>
       </c>
-      <c r="D3" s="417">
+      <c r="D3" s="416">
         <f>scenarios!D3*277.778</f>
         <v>0</v>
       </c>
-      <c r="E3" s="417">
+      <c r="E3" s="416">
         <f>scenarios!E3*277.778</f>
         <v>0</v>
       </c>
-      <c r="F3" s="417">
+      <c r="F3" s="416">
         <f>scenarios!F3*277.778</f>
         <v>0</v>
       </c>
-      <c r="G3" s="417">
+      <c r="G3" s="416">
         <f>scenarios!G3*277.778</f>
         <v>0</v>
       </c>
-      <c r="H3" s="417">
+      <c r="H3" s="416">
         <f>scenarios!H3*277.778</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="417">
+        <v>55.555600000000005</v>
+      </c>
+      <c r="I3" s="416">
         <f>scenarios!I3*277.778</f>
         <v>0</v>
       </c>
-      <c r="J3" s="417">
+      <c r="J3" s="416">
         <f>scenarios!J3*277.778</f>
         <v>0</v>
       </c>
-      <c r="K3" s="417">
+      <c r="K3" s="416">
         <f>scenarios!K3*277.778</f>
         <v>0</v>
       </c>
-      <c r="L3" s="417">
+      <c r="L3" s="416">
         <f>scenarios!L3*277.778</f>
         <v>0</v>
       </c>
-      <c r="M3" s="417">
+      <c r="M3" s="416">
         <f>scenarios!M3*277.778</f>
         <v>0</v>
       </c>
-      <c r="N3" s="417">
+      <c r="N3" s="416">
         <f>scenarios!N3*277.778</f>
         <v>0</v>
       </c>
-      <c r="O3" s="417">
+      <c r="O3" s="416">
         <f>scenarios!O3*277.778</f>
         <v>0</v>
       </c>
-      <c r="P3" s="417">
+      <c r="P3" s="416">
         <f>scenarios!P3*277.778</f>
         <v>0</v>
       </c>
@@ -20358,59 +20687,59 @@
       <c r="B4">
         <v>2018</v>
       </c>
-      <c r="C4" s="417">
+      <c r="C4" s="416">
         <f>scenarios!C4*277.778</f>
         <v>63492.561349564006</v>
       </c>
-      <c r="D4" s="417">
+      <c r="D4" s="416">
         <f>scenarios!D4*277.778</f>
         <v>2187.5173055680002</v>
       </c>
-      <c r="E4" s="417">
+      <c r="E4" s="416">
         <f>scenarios!E4*277.778</f>
         <v>10245.659585410001</v>
       </c>
-      <c r="F4" s="417">
+      <c r="F4" s="416">
         <f>scenarios!F4*277.778</f>
         <v>51059.384458586006</v>
       </c>
-      <c r="G4" s="417">
+      <c r="G4" s="416">
         <f>scenarios!G4*277.778</f>
         <v>34112.848956924005</v>
       </c>
-      <c r="H4" s="417">
+      <c r="H4" s="416">
         <f>scenarios!H4*277.778</f>
         <v>4101.3132810480001</v>
       </c>
-      <c r="I4" s="417">
+      <c r="I4" s="416">
         <f>scenarios!I4*277.778</f>
         <v>30011.535953654002</v>
       </c>
-      <c r="J4" s="417">
+      <c r="J4" s="416">
         <f>scenarios!J4*277.778</f>
         <v>6396.0931724260008</v>
       </c>
-      <c r="K4" s="417">
+      <c r="K4" s="416">
         <f>scenarios!K4*277.778</f>
         <v>1420.6322476160001</v>
       </c>
-      <c r="L4" s="417">
+      <c r="L4" s="416">
         <f>scenarios!L4*277.778</f>
         <v>37828.261373696005</v>
       </c>
-      <c r="M4" s="417">
+      <c r="M4" s="416">
         <f>scenarios!M4*277.778</f>
         <v>13231.12308489</v>
       </c>
-      <c r="N4" s="417">
+      <c r="N4" s="416">
         <f>scenarios!N4*277.778</f>
         <v>25664.299975867998</v>
       </c>
-      <c r="O4" s="417">
+      <c r="O4" s="416">
         <f>scenarios!O4*277.778</f>
         <v>21562.98669482</v>
       </c>
-      <c r="P4" s="417">
+      <c r="P4" s="416">
         <f>scenarios!P4*277.778</f>
         <v>8331.863609930002</v>
       </c>
@@ -20422,110 +20751,110 @@
       <c r="B5">
         <v>2019</v>
       </c>
-      <c r="C5" s="417">
+      <c r="C5" s="416">
         <f>scenarios!C5*277.778</f>
         <v>59516.191501804002</v>
       </c>
-      <c r="D5" s="417">
+      <c r="D5" s="416">
         <f>scenarios!D5*277.778</f>
         <v>2160.1314503259991</v>
       </c>
-      <c r="E5" s="417">
+      <c r="E5" s="416">
         <f>scenarios!E5*277.778</f>
         <v>3166.4261442500001</v>
       </c>
-      <c r="F5" s="417">
+      <c r="F5" s="416">
         <f>scenarios!F5*277.778</f>
         <v>54189.633907228002</v>
       </c>
-      <c r="G5" s="417">
+      <c r="G5" s="416">
         <f>scenarios!G5*277.778</f>
         <v>34720.404442968007</v>
       </c>
-      <c r="H5" s="417">
+      <c r="H5" s="416">
         <f>scenarios!H5*277.778</f>
         <v>3530.6200467160002</v>
       </c>
-      <c r="I5" s="417">
+      <c r="I5" s="416">
         <f>scenarios!I5*277.778</f>
         <v>31189.784396252002</v>
       </c>
-      <c r="J5" s="417">
+      <c r="J5" s="416">
         <f>scenarios!J5*277.778</f>
         <v>7884.1735295560011</v>
       </c>
-      <c r="K5" s="417">
+      <c r="K5" s="416">
         <f>scenarios!K5*277.778</f>
         <v>1325.05800449</v>
       </c>
-      <c r="L5" s="417">
+      <c r="L5" s="416">
         <f>scenarios!L5*277.778</f>
         <v>40399.015930298003</v>
       </c>
-      <c r="M5" s="417">
+      <c r="M5" s="416">
         <f>scenarios!M5*277.778</f>
         <v>13790.617976930002</v>
       </c>
-      <c r="N5" s="417">
+      <c r="N5" s="416">
         <f>scenarios!N5*277.778</f>
         <v>19117.175571505999</v>
       </c>
-      <c r="O5" s="417">
+      <c r="O5" s="416">
         <f>scenarios!O5*277.778</f>
         <v>15586.555524789999</v>
       </c>
-      <c r="P5" s="417">
+      <c r="P5" s="416">
         <f>scenarios!P5*277.778</f>
         <v>1795.9375478599982</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="418" t="s">
+      <c r="A6" s="417" t="s">
         <v>708</v>
       </c>
       <c r="B6">
         <v>2019</v>
       </c>
-      <c r="C6" s="417">
-        <f>[4]FLUCCOplus!$R$22</f>
+      <c r="C6" s="416">
+        <f>[1]FLUCCOplus!$R$22</f>
         <v>76588.827260000005</v>
       </c>
-      <c r="D6" s="417"/>
-      <c r="E6" s="419">
-        <f>[4]FLUCCOplus!$O$22-[4]FLUCCOplus!$Q$22</f>
+      <c r="D6" s="416"/>
+      <c r="E6" s="418">
+        <f>[1]FLUCCOplus!$O$22-[1]FLUCCOplus!$Q$22</f>
         <v>3128.5829070000036</v>
       </c>
-      <c r="F6" s="417">
+      <c r="F6" s="416">
         <v>73460</v>
       </c>
-      <c r="G6" s="417">
+      <c r="G6" s="416">
         <v>44187</v>
       </c>
-      <c r="H6" s="417">
+      <c r="H6" s="416">
         <f>G6*0.323</f>
         <v>14272.401</v>
       </c>
-      <c r="I6" s="417">
+      <c r="I6" s="416">
         <f>G6*0.677</f>
         <v>29914.599000000002</v>
       </c>
-      <c r="J6" s="417">
+      <c r="J6" s="416">
         <v>7420</v>
       </c>
-      <c r="K6" s="417">
+      <c r="K6" s="416">
         <v>912</v>
       </c>
-      <c r="L6" s="417">
+      <c r="L6" s="416">
         <f>SUM(I6:K6)</f>
         <v>38246.599000000002</v>
       </c>
-      <c r="M6" s="417">
+      <c r="M6" s="416">
         <f>F6-L6-H6</f>
         <v>20941</v>
       </c>
-      <c r="N6" s="417"/>
-      <c r="O6" s="417"/>
-      <c r="P6" s="417"/>
+      <c r="N6" s="416"/>
+      <c r="O6" s="416"/>
+      <c r="P6" s="416"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -20534,59 +20863,59 @@
       <c r="B7">
         <v>2030</v>
       </c>
-      <c r="C7" s="417">
+      <c r="C7" s="416">
         <f>scenarios!C7*277.778</f>
         <v>78293.799136069123</v>
       </c>
-      <c r="D7" s="417">
+      <c r="D7" s="416">
         <f>scenarios!D7*277.778</f>
         <v>-3799.6990640748627</v>
       </c>
-      <c r="E7" s="417">
+      <c r="E7" s="416">
         <f>scenarios!E7*277.778</f>
         <v>0</v>
       </c>
-      <c r="F7" s="417">
+      <c r="F7" s="416">
         <f>scenarios!F7*277.778</f>
         <v>82093.498200143978</v>
       </c>
-      <c r="G7" s="417">
+      <c r="G7" s="416">
         <f>scenarios!G7*277.778</f>
         <v>43055.590000000004</v>
       </c>
-      <c r="H7" s="417">
+      <c r="H7" s="416">
         <f>scenarios!H7*277.778</f>
         <v>13777.788800000002</v>
       </c>
-      <c r="I7" s="417">
+      <c r="I7" s="416">
         <f>scenarios!I7*277.778</f>
         <v>29277.801200000005</v>
       </c>
-      <c r="J7" s="417">
+      <c r="J7" s="416">
         <f>scenarios!J7*277.778</f>
         <v>11944.454000000002</v>
       </c>
-      <c r="K7" s="417">
+      <c r="K7" s="416">
         <f>scenarios!K7*277.778</f>
         <v>12777.788</v>
       </c>
-      <c r="L7" s="417">
+      <c r="L7" s="416">
         <f>scenarios!L7*277.778</f>
         <v>54000.043200000007</v>
       </c>
-      <c r="M7" s="417">
+      <c r="M7" s="416">
         <f>scenarios!M7*277.778</f>
         <v>28093.455000143978</v>
       </c>
-      <c r="N7" s="417">
+      <c r="N7" s="416">
         <f>scenarios!N7*277.778</f>
         <v>24293.755936069116</v>
       </c>
-      <c r="O7" s="417">
+      <c r="O7" s="416">
         <f>scenarios!O7*277.778</f>
         <v>10515.967136069115</v>
       </c>
-      <c r="P7" s="417">
+      <c r="P7" s="416">
         <f>scenarios!P7*277.778</f>
         <v>-17577.487864074865</v>
       </c>
@@ -20598,59 +20927,59 @@
       <c r="B8">
         <v>2030</v>
       </c>
-      <c r="C8" s="417">
+      <c r="C8" s="416">
         <f>scenarios!C8*277.778</f>
         <v>73194.503000000012</v>
       </c>
-      <c r="D8" s="417">
+      <c r="D8" s="416">
         <f>scenarios!D8*277.778</f>
         <v>0</v>
       </c>
-      <c r="E8" s="417">
+      <c r="E8" s="416">
         <f>scenarios!E8*277.778</f>
         <v>-14138.9002</v>
       </c>
-      <c r="F8" s="417">
+      <c r="F8" s="416">
         <f>scenarios!F8*277.778</f>
         <v>87333.403200000001</v>
       </c>
-      <c r="G8" s="417">
+      <c r="G8" s="416">
         <f>scenarios!G8*277.778</f>
         <v>42722.256400000006</v>
       </c>
-      <c r="H8" s="417">
+      <c r="H8" s="416">
         <f>scenarios!H8*277.778</f>
         <v>13671.122048000003</v>
       </c>
-      <c r="I8" s="417">
+      <c r="I8" s="416">
         <f>scenarios!I8*277.778</f>
         <v>29051.134352000008</v>
       </c>
-      <c r="J8" s="417">
+      <c r="J8" s="416">
         <f>scenarios!J8*277.778</f>
         <v>17416.680600000003</v>
       </c>
-      <c r="K8" s="417">
+      <c r="K8" s="416">
         <f>scenarios!K8*277.778</f>
         <v>14833.345200000002</v>
       </c>
-      <c r="L8" s="417">
+      <c r="L8" s="416">
         <f>scenarios!L8*277.778</f>
         <v>61301.160152000011</v>
       </c>
-      <c r="M8" s="417">
+      <c r="M8" s="416">
         <f>scenarios!M8*277.778</f>
         <v>26032.243047999989</v>
       </c>
-      <c r="N8" s="417">
+      <c r="N8" s="416">
         <f>scenarios!N8*277.778</f>
         <v>11893.342847999993</v>
       </c>
-      <c r="O8" s="417">
+      <c r="O8" s="416">
         <f>scenarios!O8*277.778</f>
         <v>-1777.7792000000095</v>
       </c>
-      <c r="P8" s="417">
+      <c r="P8" s="416">
         <f>scenarios!P8*277.778</f>
         <v>-27810.022247999997</v>
       </c>
@@ -20662,59 +20991,59 @@
       <c r="B9">
         <v>2030</v>
       </c>
-      <c r="C9" s="417">
+      <c r="C9" s="416">
         <f>scenarios!C9*277.778</f>
         <v>75945.616311999998</v>
       </c>
-      <c r="D9" s="417">
+      <c r="D9" s="416">
         <f>scenarios!D9*277.778</f>
         <v>0</v>
       </c>
-      <c r="E9" s="417">
+      <c r="E9" s="416">
         <f>scenarios!E9*277.778</f>
         <v>2777.78</v>
       </c>
-      <c r="F9" s="417">
+      <c r="F9" s="416">
         <f>scenarios!F9*277.778</f>
         <v>73167.836311999999</v>
       </c>
-      <c r="G9" s="417">
+      <c r="G9" s="416">
         <f>scenarios!G9*277.778</f>
         <v>43599.479324</v>
       </c>
-      <c r="H9" s="417">
+      <c r="H9" s="416">
         <f>scenarios!H9*277.778</f>
         <v>13951.833383680001</v>
       </c>
-      <c r="I9" s="417">
+      <c r="I9" s="416">
         <f>scenarios!I9*277.778</f>
         <v>29647.645940320002</v>
       </c>
-      <c r="J9" s="417">
+      <c r="J9" s="416">
         <f>scenarios!J9*277.778</f>
         <v>7170.2835139999997</v>
       </c>
-      <c r="K9" s="417">
+      <c r="K9" s="416">
         <f>scenarios!K9*277.778</f>
         <v>9090.0072719999989</v>
       </c>
-      <c r="L9" s="417">
+      <c r="L9" s="416">
         <f>scenarios!L9*277.778</f>
         <v>45907.936726320004</v>
       </c>
-      <c r="M9" s="417">
+      <c r="M9" s="416">
         <f>scenarios!M9*277.778</f>
         <v>27259.899585680003</v>
       </c>
-      <c r="N9" s="417">
+      <c r="N9" s="416">
         <f>scenarios!N9*277.778</f>
         <v>30037.679585680002</v>
       </c>
-      <c r="O9" s="417">
+      <c r="O9" s="416">
         <f>scenarios!O9*277.778</f>
         <v>16085.846202000001</v>
       </c>
-      <c r="P9" s="417">
+      <c r="P9" s="416">
         <f>scenarios!P9*277.778</f>
         <v>-11174.05338368</v>
       </c>
@@ -20726,59 +21055,59 @@
       <c r="B10">
         <v>2030</v>
       </c>
-      <c r="C10" s="417">
+      <c r="C10" s="416">
         <f>scenarios!C10*277.778</f>
         <v>78613.951780000003</v>
       </c>
-      <c r="D10" s="417">
+      <c r="D10" s="416">
         <f>scenarios!D10*277.778</f>
         <v>0</v>
       </c>
-      <c r="E10" s="417">
+      <c r="E10" s="416">
         <f>scenarios!E10*277.778</f>
         <v>-4444.4480000000003</v>
       </c>
-      <c r="F10" s="417">
+      <c r="F10" s="416">
         <f>scenarios!F10*277.778</f>
         <v>83058.399780000007</v>
       </c>
-      <c r="G10" s="417">
+      <c r="G10" s="416">
         <f>scenarios!G10*277.778</f>
         <v>42133.367040000005</v>
       </c>
-      <c r="H10" s="417">
+      <c r="H10" s="416">
         <f>scenarios!H10*277.778</f>
         <v>13482.677452800002</v>
       </c>
-      <c r="I10" s="417">
+      <c r="I10" s="416">
         <f>scenarios!I10*277.778</f>
         <v>28650.689587200006</v>
       </c>
-      <c r="J10" s="417">
+      <c r="J10" s="416">
         <f>scenarios!J10*277.778</f>
         <v>15456.123476000002</v>
       </c>
-      <c r="K10" s="417">
+      <c r="K10" s="416">
         <f>scenarios!K10*277.778</f>
         <v>10740.008592000002</v>
       </c>
-      <c r="L10" s="417">
+      <c r="L10" s="416">
         <f>scenarios!L10*277.778</f>
         <v>54846.821655200009</v>
       </c>
-      <c r="M10" s="417">
+      <c r="M10" s="416">
         <f>scenarios!M10*277.778</f>
         <v>28211.578124800002</v>
       </c>
-      <c r="N10" s="417">
+      <c r="N10" s="416">
         <f>scenarios!N10*277.778</f>
         <v>23767.130124799995</v>
       </c>
-      <c r="O10" s="417">
+      <c r="O10" s="416">
         <f>scenarios!O10*277.778</f>
         <v>10284.45267199999</v>
       </c>
-      <c r="P10" s="417">
+      <c r="P10" s="416">
         <f>scenarios!P10*277.778</f>
         <v>-17927.12545280001</v>
       </c>
@@ -20790,59 +21119,59 @@
       <c r="B11">
         <v>2050</v>
       </c>
-      <c r="C11" s="417">
+      <c r="C11" s="416">
         <f>scenarios!C11*277.778</f>
         <v>83793.363570914342</v>
       </c>
-      <c r="D11" s="417">
+      <c r="D11" s="416">
         <f>scenarios!D11*277.778</f>
         <v>-27697.806335493158</v>
       </c>
-      <c r="E11" s="417">
+      <c r="E11" s="416">
         <f>scenarios!E11*277.778</f>
         <v>0</v>
       </c>
-      <c r="F11" s="417">
+      <c r="F11" s="416">
         <f>scenarios!F11*277.778</f>
         <v>111491.16990640749</v>
       </c>
-      <c r="G11" s="417">
+      <c r="G11" s="416">
         <f>scenarios!G11*277.778</f>
         <v>43055.590000000004</v>
       </c>
-      <c r="H11" s="417">
+      <c r="H11" s="416">
         <f>scenarios!H11*277.778</f>
         <v>13777.788800000002</v>
       </c>
-      <c r="I11" s="417">
+      <c r="I11" s="416">
         <f>scenarios!I11*277.778</f>
         <v>29277.801200000005</v>
       </c>
-      <c r="J11" s="417">
+      <c r="J11" s="416">
         <f>scenarios!J11*277.778</f>
         <v>20000.016000000003</v>
       </c>
-      <c r="K11" s="417">
+      <c r="K11" s="416">
         <f>scenarios!K11*277.778</f>
         <v>32777.804000000004</v>
       </c>
-      <c r="L11" s="417">
+      <c r="L11" s="416">
         <f>scenarios!L11*277.778</f>
         <v>82055.621199999994</v>
       </c>
-      <c r="M11" s="417">
+      <c r="M11" s="416">
         <f>scenarios!M11*277.778</f>
         <v>29435.548706407491</v>
       </c>
-      <c r="N11" s="417">
+      <c r="N11" s="416">
         <f>scenarios!N11*277.778</f>
         <v>1737.7423709143359</v>
       </c>
-      <c r="O11" s="417">
+      <c r="O11" s="416">
         <f>scenarios!O11*277.778</f>
         <v>-12040.046429085665</v>
       </c>
-      <c r="P11" s="417">
+      <c r="P11" s="416">
         <f>scenarios!P11*277.778</f>
         <v>-41475.59513549316</v>
       </c>
@@ -20854,59 +21183,59 @@
       <c r="B12">
         <v>2050</v>
       </c>
-      <c r="C12" s="417">
+      <c r="C12" s="416">
         <f>scenarios!C12*277.778</f>
         <v>78722.285199999998</v>
       </c>
-      <c r="D12" s="417">
+      <c r="D12" s="416">
         <f>scenarios!D12*277.778</f>
         <v>0</v>
       </c>
-      <c r="E12" s="417">
+      <c r="E12" s="416">
         <f>scenarios!E12*277.778</f>
         <v>-19722.238000000001</v>
       </c>
-      <c r="F12" s="417">
+      <c r="F12" s="416">
         <f>scenarios!F12*277.778</f>
         <v>98444.523199999996</v>
       </c>
-      <c r="G12" s="417">
+      <c r="G12" s="416">
         <f>scenarios!G12*277.778</f>
         <v>45277.814000000006</v>
       </c>
-      <c r="H12" s="417">
+      <c r="H12" s="416">
         <f>scenarios!H12*277.778</f>
         <v>14488.900480000002</v>
       </c>
-      <c r="I12" s="417">
+      <c r="I12" s="416">
         <f>scenarios!I12*277.778</f>
         <v>30788.913520000002</v>
       </c>
-      <c r="J12" s="417">
+      <c r="J12" s="416">
         <f>scenarios!J12*277.778</f>
         <v>21083.350200000004</v>
       </c>
-      <c r="K12" s="417">
+      <c r="K12" s="416">
         <f>scenarios!K12*277.778</f>
         <v>23555.574400000001</v>
       </c>
-      <c r="L12" s="417">
+      <c r="L12" s="416">
         <f>scenarios!L12*277.778</f>
         <v>75427.83812</v>
       </c>
-      <c r="M12" s="417">
+      <c r="M12" s="416">
         <f>scenarios!M12*277.778</f>
         <v>23016.685079999988</v>
       </c>
-      <c r="N12" s="417">
+      <c r="N12" s="416">
         <f>scenarios!N12*277.778</f>
         <v>3294.447080000004</v>
       </c>
-      <c r="O12" s="417">
+      <c r="O12" s="416">
         <f>scenarios!O12*277.778</f>
         <v>-11194.453399999999</v>
       </c>
-      <c r="P12" s="417">
+      <c r="P12" s="416">
         <f>scenarios!P12*277.778</f>
         <v>-34211.138479999987</v>
       </c>
@@ -20918,59 +21247,59 @@
       <c r="B13">
         <v>2050</v>
       </c>
-      <c r="C13" s="417">
+      <c r="C13" s="416">
         <f>scenarios!C13*277.778</f>
         <v>88554.237510000006</v>
       </c>
-      <c r="D13" s="417">
+      <c r="D13" s="416">
         <f>scenarios!D13*277.778</f>
         <v>0</v>
       </c>
-      <c r="E13" s="417">
+      <c r="E13" s="416">
         <f>scenarios!E13*277.778</f>
         <v>10833.342000000001</v>
       </c>
-      <c r="F13" s="417">
+      <c r="F13" s="416">
         <f>scenarios!F13*277.778</f>
         <v>77720.895510000017</v>
       </c>
-      <c r="G13" s="417">
+      <c r="G13" s="416">
         <f>scenarios!G13*277.778</f>
         <v>43599.479324</v>
       </c>
-      <c r="H13" s="417">
+      <c r="H13" s="416">
         <f>scenarios!H13*277.778</f>
         <v>13951.833383680001</v>
       </c>
-      <c r="I13" s="417">
+      <c r="I13" s="416">
         <f>scenarios!I13*277.778</f>
         <v>29647.645940320002</v>
       </c>
-      <c r="J13" s="417">
+      <c r="J13" s="416">
         <f>scenarios!J13*277.778</f>
         <v>7606.6727520000004</v>
       </c>
-      <c r="K13" s="417">
+      <c r="K13" s="416">
         <f>scenarios!K13*277.778</f>
         <v>17200.569316000001</v>
       </c>
-      <c r="L13" s="417">
+      <c r="L13" s="416">
         <f>scenarios!L13*277.778</f>
         <v>54454.888008320006</v>
       </c>
-      <c r="M13" s="417">
+      <c r="M13" s="416">
         <f>scenarios!M13*277.778</f>
         <v>23266.007501680004</v>
       </c>
-      <c r="N13" s="417">
+      <c r="N13" s="416">
         <f>scenarios!N13*277.778</f>
         <v>34099.349501680008</v>
       </c>
-      <c r="O13" s="417">
+      <c r="O13" s="416">
         <f>scenarios!O13*277.778</f>
         <v>20147.516118000003</v>
       </c>
-      <c r="P13" s="417">
+      <c r="P13" s="416">
         <f>scenarios!P13*277.778</f>
         <v>-3118.4913836800019</v>
       </c>
@@ -20982,59 +21311,59 @@
       <c r="B14">
         <v>2050</v>
       </c>
-      <c r="C14" s="417">
+      <c r="C14" s="416">
         <f>scenarios!C14*277.778</f>
         <v>115805.6482</v>
       </c>
-      <c r="D14" s="417">
+      <c r="D14" s="416">
         <f>scenarios!D14*277.778</f>
         <v>0</v>
       </c>
-      <c r="E14" s="417">
+      <c r="E14" s="416">
         <f>scenarios!E14*277.778</f>
         <v>0</v>
       </c>
-      <c r="F14" s="417">
+      <c r="F14" s="416">
         <f>scenarios!F14*277.778</f>
         <v>115805.6482</v>
       </c>
-      <c r="G14" s="417">
+      <c r="G14" s="416">
         <f>scenarios!G14*277.778</f>
         <v>47005.037603999997</v>
       </c>
-      <c r="H14" s="417">
+      <c r="H14" s="416">
         <f>scenarios!H14*277.778</f>
         <v>15041.612033280002</v>
       </c>
-      <c r="I14" s="417">
+      <c r="I14" s="416">
         <f>scenarios!I14*277.778</f>
         <v>31963.425570720003</v>
       </c>
-      <c r="J14" s="417">
+      <c r="J14" s="416">
         <f>scenarios!J14*277.778</f>
         <v>28350.022680000002</v>
       </c>
-      <c r="K14" s="417">
+      <c r="K14" s="416">
         <f>scenarios!K14*277.778</f>
         <v>26456.687832000003</v>
       </c>
-      <c r="L14" s="417">
+      <c r="L14" s="416">
         <f>scenarios!L14*277.778</f>
         <v>86770.136082720011</v>
       </c>
-      <c r="M14" s="417">
+      <c r="M14" s="416">
         <f>scenarios!M14*277.778</f>
         <v>29035.512117279988</v>
       </c>
-      <c r="N14" s="417">
+      <c r="N14" s="416">
         <f>scenarios!N14*277.778</f>
         <v>29035.512117279988</v>
       </c>
-      <c r="O14" s="417">
+      <c r="O14" s="416">
         <f>scenarios!O14*277.778</f>
         <v>13993.900083999984</v>
       </c>
-      <c r="P14" s="417">
+      <c r="P14" s="416">
         <f>scenarios!P14*277.778</f>
         <v>-15041.612033280002</v>
       </c>
@@ -21046,59 +21375,59 @@
       <c r="B15">
         <v>2050</v>
       </c>
-      <c r="C15" s="417">
+      <c r="C15" s="416">
         <f>scenarios!C15*277.778</f>
         <v>87365.083840694599</v>
       </c>
-      <c r="D15" s="417">
+      <c r="D15" s="416">
         <f>scenarios!D15*277.778</f>
         <v>0</v>
       </c>
-      <c r="E15" s="417">
+      <c r="E15" s="416">
         <f>scenarios!E15*277.778</f>
         <v>0</v>
       </c>
-      <c r="F15" s="417">
+      <c r="F15" s="416">
         <f>scenarios!F15*277.778</f>
         <v>87365.083840694599</v>
       </c>
-      <c r="G15" s="417">
+      <c r="G15" s="416">
         <f>scenarios!G15*277.778</f>
         <v>33886.207814488123</v>
       </c>
-      <c r="H15" s="417">
+      <c r="H15" s="416">
         <f>scenarios!H15*277.778</f>
         <v>10843.5865006362</v>
       </c>
-      <c r="I15" s="417">
+      <c r="I15" s="416">
         <f>scenarios!I15*277.778</f>
         <v>23042.621313851927</v>
       </c>
-      <c r="J15" s="417">
+      <c r="J15" s="416">
         <f>scenarios!J15*277.778</f>
         <v>23891.628214559176</v>
       </c>
-      <c r="K15" s="417">
+      <c r="K15" s="416">
         <f>scenarios!K15*277.778</f>
         <v>27641.331538293525</v>
       </c>
-      <c r="L15" s="417">
+      <c r="L15" s="416">
         <f>scenarios!L15*277.778</f>
         <v>74575.581066704617</v>
       </c>
-      <c r="M15" s="417">
+      <c r="M15" s="416">
         <f>scenarios!M15*277.778</f>
         <v>12789.502773989954</v>
       </c>
-      <c r="N15" s="417">
+      <c r="N15" s="416">
         <f>scenarios!N15*277.778</f>
         <v>12789.502773989971</v>
       </c>
-      <c r="O15" s="417">
+      <c r="O15" s="416">
         <f>scenarios!O15*277.778</f>
         <v>1945.9162733537707</v>
       </c>
-      <c r="P15" s="417">
+      <c r="P15" s="416">
         <f>scenarios!P15*277.778</f>
         <v>-10843.586500636184</v>
       </c>
@@ -21110,65 +21439,130 @@
       <c r="B16">
         <v>2050</v>
       </c>
-      <c r="C16" s="417">
+      <c r="C16" s="416">
         <f>scenarios!C16*277.778</f>
         <v>116723.87208652569</v>
       </c>
-      <c r="D16" s="417">
+      <c r="D16" s="416">
         <f>scenarios!D16*277.778</f>
         <v>0</v>
       </c>
-      <c r="E16" s="417">
+      <c r="E16" s="416">
         <f>scenarios!E16*277.778</f>
         <v>0</v>
       </c>
-      <c r="F16" s="417">
+      <c r="F16" s="416">
         <f>scenarios!F16*277.778</f>
         <v>116723.87208652569</v>
       </c>
-      <c r="G16" s="417">
+      <c r="G16" s="416">
         <f>scenarios!G16*277.778</f>
         <v>49163.106285097194</v>
       </c>
-      <c r="H16" s="417">
+      <c r="H16" s="416">
         <f>scenarios!H16*277.778</f>
         <v>15732.194011231102</v>
       </c>
-      <c r="I16" s="417">
+      <c r="I16" s="416">
         <f>scenarios!I16*277.778</f>
         <v>33430.912273866095</v>
       </c>
-      <c r="J16" s="417">
+      <c r="J16" s="416">
         <f>scenarios!J16*277.778</f>
         <v>30238.348284731746</v>
       </c>
-      <c r="K16" s="417">
+      <c r="K16" s="416">
         <f>scenarios!K16*277.778</f>
         <v>35376.830617256594</v>
       </c>
-      <c r="L16" s="417">
+      <c r="L16" s="416">
         <f>scenarios!L16*277.778</f>
         <v>99046.091175854439</v>
       </c>
-      <c r="M16" s="417">
+      <c r="M16" s="416">
         <f>scenarios!M16*277.778</f>
         <v>17677.780910671259</v>
       </c>
-      <c r="N16" s="417">
+      <c r="N16" s="416">
         <f>scenarios!N16*277.778</f>
         <v>17677.780910671259</v>
       </c>
-      <c r="O16" s="417">
+      <c r="O16" s="416">
         <f>scenarios!O16*277.778</f>
         <v>1945.5868994401576</v>
       </c>
-      <c r="P16" s="417">
+      <c r="P16" s="416">
         <f>scenarios!P16*277.778</f>
         <v>-15732.194011231102</v>
       </c>
     </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>scenarios!A17</f>
+        <v>100% Erneuerbare Deckung 2050 ohne Speicherausbau (FLUCCO+)</v>
+      </c>
+      <c r="B17">
+        <v>2050</v>
+      </c>
+      <c r="C17" s="416">
+        <f>scenarios!C17*277.778</f>
+        <v>116723.87208652569</v>
+      </c>
+      <c r="D17" s="416">
+        <f>scenarios!D17*277.778</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="416">
+        <f>scenarios!E17*277.778</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="416">
+        <f>scenarios!F17*277.778</f>
+        <v>116723.87208652569</v>
+      </c>
+      <c r="G17" s="416">
+        <f>scenarios!G17*277.778</f>
+        <v>49163.106285097194</v>
+      </c>
+      <c r="H17" s="416">
+        <f>scenarios!H17*277.778</f>
+        <v>7909.147833434924</v>
+      </c>
+      <c r="I17" s="416">
+        <f>scenarios!I17*277.778</f>
+        <v>41253.958451662271</v>
+      </c>
+      <c r="J17" s="416">
+        <f>scenarios!J17*277.778</f>
+        <v>30238.348284731746</v>
+      </c>
+      <c r="K17" s="416">
+        <f>scenarios!K17*277.778</f>
+        <v>35376.830617256594</v>
+      </c>
+      <c r="L17" s="416">
+        <f>scenarios!L17*277.778</f>
+        <v>106869.1373536506</v>
+      </c>
+      <c r="M17" s="416">
+        <f>scenarios!M17*277.778</f>
+        <v>9854.734732875082</v>
+      </c>
+      <c r="N17" s="416">
+        <f>scenarios!N17*277.778</f>
+        <v>9854.7347328750966</v>
+      </c>
+      <c r="O17" s="416">
+        <f>scenarios!O17*277.778</f>
+        <v>1945.5868994401733</v>
+      </c>
+      <c r="P17" s="416">
+        <f>scenarios!P17*277.778</f>
+        <v>-7909.1478334349076</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:P16">
+  <conditionalFormatting sqref="C2:P17">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -21197,7 +21591,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C2:P16</xm:sqref>
+          <xm:sqref>C2:P17</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -29810,8 +30204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R127"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30930,26 +31324,26 @@
         <v>81390</v>
       </c>
       <c r="D30" s="74">
-        <f>([1]KO_EEneu4neu!$F$278+[1]KO_EEneu4neu!$F$267)*277.7778</f>
+        <f>([2]KO_EEneu4neu!$F$278+[2]KO_EEneu4neu!$F$267)*277.7778</f>
         <v>1946.0703897993312</v>
       </c>
       <c r="E30" s="74">
         <v>0</v>
       </c>
       <c r="F30" s="74">
-        <f>[2]KO_EEneu4neu!$C$214*277.7778</f>
+        <f>[3]KO_EEneu4neu!$C$214*277.7778</f>
         <v>18055.557000000001</v>
       </c>
       <c r="G30" s="74">
-        <f>[2]KO_EEneu4neu!$C$215*277.7778</f>
+        <f>[3]KO_EEneu4neu!$C$215*277.7778</f>
         <v>28416.66894</v>
       </c>
       <c r="H30" s="74">
-        <f>[2]KO_EEneu4neu!$C$216*277.7778</f>
+        <f>[3]KO_EEneu4neu!$C$216*277.7778</f>
         <v>6305.5560599999999</v>
       </c>
       <c r="I30" s="74">
-        <f>[2]KO_EEneu4neu!$C$217*277.7778</f>
+        <f>[3]KO_EEneu4neu!$C$217*277.7778</f>
         <v>4083.3336599999998</v>
       </c>
       <c r="J30" s="74">
@@ -30957,7 +31351,7 @@
         <v>59690.860869657183</v>
       </c>
       <c r="K30" s="74">
-        <f>([1]KO_EEneu4neu!$F$257+[1]KO_EEneu4neu!$F$258)*277.7778</f>
+        <f>([2]KO_EEneu4neu!$F$257+[2]KO_EEneu4neu!$F$258)*277.7778</f>
         <v>883.67481985785969</v>
       </c>
       <c r="L30" s="49">
@@ -30978,11 +31372,11 @@
         <v>49167</v>
       </c>
       <c r="D31" s="74">
-        <f>[2]KO_EEneu4neu!$K$204*277.7778</f>
+        <f>[3]KO_EEneu4neu!$K$204*277.7778</f>
         <v>33888.891600000003</v>
       </c>
       <c r="E31" s="74">
-        <f>[2]KO_EEneu4neu!$J$204*277.7778</f>
+        <f>[3]KO_EEneu4neu!$J$204*277.7778</f>
         <v>15277.779</v>
       </c>
       <c r="F31" s="74">
@@ -31020,11 +31414,11 @@
         <v>30241.019</v>
       </c>
       <c r="D32" s="74">
-        <f>[2]KO_EEneu4neu!$K$206*277.7778</f>
+        <f>[3]KO_EEneu4neu!$K$206*277.7778</f>
         <v>23893.520429999997</v>
       </c>
       <c r="E32" s="74">
-        <f>[2]KO_EEneu4neu!$J$206*277.7778</f>
+        <f>[3]KO_EEneu4neu!$J$206*277.7778</f>
         <v>6347.2227300000004</v>
       </c>
       <c r="F32" s="74">
@@ -31081,11 +31475,11 @@
         <v>35380.019</v>
       </c>
       <c r="D34" s="74">
-        <f>[2]KO_EEneu4neu!$K$205*277.7778</f>
+        <f>[3]KO_EEneu4neu!$K$205*277.7778</f>
         <v>27643.520730000004</v>
       </c>
       <c r="E34" s="74">
-        <f>[2]KO_EEneu4neu!$J$205*277.7778</f>
+        <f>[3]KO_EEneu4neu!$J$205*277.7778</f>
         <v>7736.1117300000005</v>
       </c>
       <c r="F34" s="74">
@@ -31276,7 +31670,7 @@
         <v>50</v>
       </c>
       <c r="C41" s="46">
-        <f>[2]KO_EEneu4neu!$E$237*277.7778</f>
+        <f>[3]KO_EEneu4neu!$E$237*277.7778</f>
         <v>88592.599679999999</v>
       </c>
       <c r="D41" s="9">
@@ -31287,7 +31681,7 @@
         <v>11</v>
       </c>
       <c r="F41" s="46">
-        <f>([2]KO_EEneu4neu!$E$257)*277.7778</f>
+        <f>([3]KO_EEneu4neu!$E$257)*277.7778</f>
         <v>18333.334800000001</v>
       </c>
     </row>
@@ -31307,7 +31701,7 @@
         <v>20</v>
       </c>
       <c r="F42" s="74">
-        <f>([2]KO_EEneu4neu!$E$267)*277.7778</f>
+        <f>([3]KO_EEneu4neu!$E$267)*277.7778</f>
         <v>22777.779600000002</v>
       </c>
       <c r="H42" s="42" t="s">
@@ -31336,18 +31730,18 @@
         <v>16</v>
       </c>
       <c r="F43" s="74">
-        <f>([2]KO_EEneu4neu!$E$276)*277.7778</f>
+        <f>([3]KO_EEneu4neu!$E$276)*277.7778</f>
         <v>24722.224200000001</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I43" s="74">
-        <f>[2]KO_EEneu4neu!D288*277.7778</f>
+        <f>[3]KO_EEneu4neu!D288*277.7778</f>
         <v>22777.779600000002</v>
       </c>
       <c r="J43" s="74">
-        <f>[2]KO_EEneu4neu!E288*277.7778</f>
+        <f>[3]KO_EEneu4neu!E288*277.7778</f>
         <v>17114.691042908176</v>
       </c>
       <c r="K43" s="75">
@@ -31371,18 +31765,18 @@
         <v>17</v>
       </c>
       <c r="F44" s="74">
-        <f>([2]KO_EEneu4neu!$E$258)*277.7778</f>
+        <f>([3]KO_EEneu4neu!$E$258)*277.7778</f>
         <v>6388.8894</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>31</v>
       </c>
       <c r="I44" s="74">
-        <f>[2]KO_EEneu4neu!D289*277.7778</f>
+        <f>[3]KO_EEneu4neu!D289*277.7778</f>
         <v>6944.4450000000006</v>
       </c>
       <c r="J44" s="74">
-        <f>[2]KO_EEneu4neu!E289*277.7778</f>
+        <f>[3]KO_EEneu4neu!E289*277.7778</f>
         <v>6944.4450000000006</v>
       </c>
       <c r="K44" s="75">
@@ -31406,18 +31800,18 @@
         <v>18</v>
       </c>
       <c r="F45" s="74">
-        <f>([2]KO_EEneu4neu!$E$272)*277.7778</f>
+        <f>([3]KO_EEneu4neu!$E$272)*277.7778</f>
         <v>6944.4450000000015</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>51</v>
       </c>
       <c r="I45" s="74">
-        <f>[2]KO_EEneu4neu!D290*277.7778</f>
+        <f>[3]KO_EEneu4neu!D290*277.7778</f>
         <v>24722.224200000001</v>
       </c>
       <c r="J45" s="74">
-        <f>[2]KO_EEneu4neu!E290*277.7778</f>
+        <f>[3]KO_EEneu4neu!E290*277.7778</f>
         <v>19777.77936</v>
       </c>
       <c r="K45" s="75">
@@ -31452,11 +31846,11 @@
         <v>9</v>
       </c>
       <c r="I46" s="47">
-        <f>[2]KO_EEneu4neu!D291*277.7778</f>
+        <f>[3]KO_EEneu4neu!D291*277.7778</f>
         <v>54444.448800000006</v>
       </c>
       <c r="J46" s="47">
-        <f>[2]KO_EEneu4neu!E291*277.7778</f>
+        <f>[3]KO_EEneu4neu!E291*277.7778</f>
         <v>43836.915402908176</v>
       </c>
       <c r="K46" s="75">
@@ -31525,7 +31919,7 @@
         <v>56</v>
       </c>
       <c r="I49" s="76">
-        <f>[2]KO_EEneu4neu!$C$293</f>
+        <f>[3]KO_EEneu4neu!$C$293</f>
         <v>9460000</v>
       </c>
     </row>
@@ -31567,7 +31961,7 @@
         <v>21</v>
       </c>
       <c r="C52" s="74">
-        <f>([2]KO_EEneu4neu!$N$263)*277.7778</f>
+        <f>([3]KO_EEneu4neu!$N$263)*277.7778</f>
         <v>18888.8904</v>
       </c>
       <c r="D52" s="1"/>
@@ -31640,7 +32034,7 @@
         <v>45</v>
       </c>
       <c r="F55" s="74">
-        <f>[2]KO_EEneu4neu!$D$240*277.7778</f>
+        <f>[3]KO_EEneu4neu!$D$240*277.7778</f>
         <v>25277.7798</v>
       </c>
       <c r="H55" s="6" t="s">
@@ -31696,7 +32090,7 @@
         <v>4</v>
       </c>
       <c r="C59" s="74">
-        <f>([2]KO_EEneu4neu!$N$263)*277.7778</f>
+        <f>([3]KO_EEneu4neu!$N$263)*277.7778</f>
         <v>18888.8904</v>
       </c>
     </row>
@@ -31735,14 +32129,14 @@
         <v>22</v>
       </c>
       <c r="C63" s="74">
-        <f>[2]KO_EEneu4neu!$E$242*277.7778</f>
+        <f>[3]KO_EEneu4neu!$E$242*277.7778</f>
         <v>49250.003940000002</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F63" s="50">
-        <f>([2]KO_EEneu4neu!$E$261+[2]KO_EEneu4neu!$E$262)*277.7778</f>
+        <f>([3]KO_EEneu4neu!$E$261+[3]KO_EEneu4neu!$E$262)*277.7778</f>
         <v>22777.779600000002</v>
       </c>
       <c r="G63" s="74">
@@ -31759,7 +32153,7 @@
         <v>5</v>
       </c>
       <c r="C64" s="74">
-        <f>[2]KO_EEneu4neu!$F$242*277.7778</f>
+        <f>[3]KO_EEneu4neu!$F$242*277.7778</f>
         <v>28416.66894</v>
       </c>
       <c r="E64" s="3" t="s">
@@ -31823,7 +32217,7 @@
         <v>3</v>
       </c>
       <c r="C69" s="74">
-        <f>[2]KO_EEneu4neu!$M$242*277.7778</f>
+        <f>[3]KO_EEneu4neu!$M$242*277.7778</f>
         <v>20833.335000000003</v>
       </c>
     </row>
@@ -31873,7 +32267,7 @@
         <v>23</v>
       </c>
       <c r="C74" s="74">
-        <f>[2]KO_EEneu4neu!$C$214*277.7778</f>
+        <f>[3]KO_EEneu4neu!$C$214*277.7778</f>
         <v>18055.557000000001</v>
       </c>
       <c r="E74" s="3" t="s">
@@ -31951,7 +32345,7 @@
         <v>29</v>
       </c>
       <c r="F78" s="74">
-        <f>([2]KO_EEneu4neu!$E$272+[2]KO_EEneu4neu!$E$273+[2]KO_EEneu4neu!$E$274)*277.7778</f>
+        <f>([3]KO_EEneu4neu!$E$272+[3]KO_EEneu4neu!$E$273+[3]KO_EEneu4neu!$E$274)*277.7778</f>
         <v>35833.336200000005</v>
       </c>
     </row>
@@ -32009,7 +32403,7 @@
         <v>40</v>
       </c>
       <c r="C86" s="30">
-        <f>[2]KO_EEneu4neu!$E$244*277.7778</f>
+        <f>[3]KO_EEneu4neu!$E$244*277.7778</f>
         <v>17777.779200000001</v>
       </c>
     </row>
@@ -32027,7 +32421,7 @@
         <v>7</v>
       </c>
       <c r="C88" s="88">
-        <f>([2]KO_EEneu4neu!$H$244+[2]KO_EEneu4neu!$J$244+[2]KO_EEneu4neu!$L$244)*277.7778</f>
+        <f>([3]KO_EEneu4neu!$H$244+[3]KO_EEneu4neu!$J$244+[3]KO_EEneu4neu!$L$244)*277.7778</f>
         <v>13694.445540000004</v>
       </c>
     </row>
@@ -32075,7 +32469,7 @@
         <v>26</v>
       </c>
       <c r="C95" s="88">
-        <f>[2]KO_EEneu4neu!$E$273*277.7778</f>
+        <f>[3]KO_EEneu4neu!$E$273*277.7778</f>
         <v>12777.778800000002</v>
       </c>
       <c r="D95" t="s">
@@ -32094,7 +32488,7 @@
         <v>5</v>
       </c>
       <c r="C96" s="88">
-        <f>[2]KO_EEneu4neu!$F$273*277.778</f>
+        <f>[3]KO_EEneu4neu!$F$273*277.778</f>
         <v>2934.8981812500001</v>
       </c>
       <c r="D96" s="9"/>
@@ -32104,7 +32498,7 @@
         <v>0</v>
       </c>
       <c r="D97" s="88">
-        <f>[2]KO_EEneu4neu!$H$245*277.7778</f>
+        <f>[3]KO_EEneu4neu!$H$245*277.7778</f>
         <v>5121.6513742017514</v>
       </c>
     </row>
@@ -32113,7 +32507,7 @@
         <v>2</v>
       </c>
       <c r="D98" s="88">
-        <f>[2]KO_EEneu4neu!$L$245*277.7778</f>
+        <f>[3]KO_EEneu4neu!$L$245*277.7778</f>
         <v>2127.8133436456369</v>
       </c>
       <c r="F98" s="10"/>
@@ -32132,7 +32526,7 @@
         <v>1</v>
       </c>
       <c r="D100" s="88">
-        <f>[2]KO_EEneu4neu!$J$245*277.7778</f>
+        <f>[3]KO_EEneu4neu!$J$245*277.7778</f>
         <v>2593.4180140276144</v>
       </c>
     </row>
@@ -32179,7 +32573,7 @@
         <v>24</v>
       </c>
       <c r="C106" s="88">
-        <f>([2]KO_EEneu4neu!$E$265)*277.7778</f>
+        <f>([3]KO_EEneu4neu!$E$265)*277.7778</f>
         <v>4166.6670000000013</v>
       </c>
       <c r="E106" s="3" t="s">
@@ -32195,7 +32589,7 @@
         <v>5</v>
       </c>
       <c r="C107" s="88">
-        <f>([2]KO_EEneu4neu!$F$265)*277.7778</f>
+        <f>([3]KO_EEneu4neu!$F$265)*277.7778</f>
         <v>957.0313265625</v>
       </c>
     </row>
@@ -32204,7 +32598,7 @@
         <v>0</v>
       </c>
       <c r="C108" s="88">
-        <f>[2]KO_EEneu4neu!$H$265*277.7778</f>
+        <f>[3]KO_EEneu4neu!$H$265*277.7778</f>
         <v>1670.1037089788319</v>
       </c>
     </row>
@@ -32213,7 +32607,7 @@
         <v>2</v>
       </c>
       <c r="C109" s="88">
-        <f>([2]KO_EEneu4neu!$L$265)*277.7778</f>
+        <f>([3]KO_EEneu4neu!$L$265)*277.7778</f>
         <v>693.85217727575105</v>
       </c>
       <c r="E109" s="36" t="s">
@@ -32236,7 +32630,7 @@
         <v>41</v>
       </c>
       <c r="F110" s="88">
-        <f>[2]KO_EEneu4neu!$E$273*277.7778</f>
+        <f>[3]KO_EEneu4neu!$E$273*277.7778</f>
         <v>12777.778800000002</v>
       </c>
     </row>
@@ -32245,14 +32639,14 @@
         <v>1</v>
       </c>
       <c r="C111" s="88">
-        <f>[2]KO_EEneu4neu!$J$265*277.7778</f>
+        <f>[3]KO_EEneu4neu!$J$265*277.7778</f>
         <v>845.67978718291772</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F111" s="88">
-        <f>[2]KO_EEneu4neu!$E$265*277.7778</f>
+        <f>[3]KO_EEneu4neu!$E$265*277.7778</f>
         <v>4166.6670000000013</v>
       </c>
       <c r="G111" s="1"/>
@@ -32303,7 +32697,7 @@
         <v>25</v>
       </c>
       <c r="C118" s="88">
-        <f>[2]KO_EEneu4neu!$E$266*277.7778</f>
+        <f>[3]KO_EEneu4neu!$E$266*277.7778</f>
         <v>11111.112000000001</v>
       </c>
       <c r="E118" s="3" t="s">
@@ -32329,7 +32723,7 @@
         <v>62</v>
       </c>
       <c r="C120" s="88">
-        <f>[2]KO_EEneu4neu!$H$266*277.7778</f>
+        <f>[3]KO_EEneu4neu!$H$266*277.7778</f>
         <v>2656.7656413028794</v>
       </c>
     </row>
@@ -32338,7 +32732,7 @@
         <v>63</v>
       </c>
       <c r="C121" s="88">
-        <f>[2]KO_EEneu4neu!$L$266*277.7778</f>
+        <f>[3]KO_EEneu4neu!$L$266*277.7778</f>
         <v>1103.7653618867416</v>
       </c>
     </row>
@@ -32357,14 +32751,14 @@
         <v>64</v>
       </c>
       <c r="C123" s="88">
-        <f>[2]KO_EEneu4neu!$J$266*277.7778</f>
+        <f>[3]KO_EEneu4neu!$J$266*277.7778</f>
         <v>1345.2895110960944</v>
       </c>
       <c r="E123" s="36" t="s">
         <v>43</v>
       </c>
       <c r="F123" s="30">
-        <f>[2]KO_EEneu4neu!$E$266*277.7778</f>
+        <f>[3]KO_EEneu4neu!$E$266*277.7778</f>
         <v>11111.112000000001</v>
       </c>
     </row>
@@ -33876,7 +34270,7 @@
         <v>91</v>
       </c>
       <c r="J36" s="125" t="str">
-        <f>[3]TabellenEE!J5</f>
+        <f>[4]TabellenEE!J5</f>
         <v>2050      Streicher 0,8% Var1 Mobi LW UBA</v>
       </c>
     </row>
@@ -34242,7 +34636,7 @@
         <v>43</v>
       </c>
       <c r="J52" s="133">
-        <f>([3]TabellenEE!J74-[3]TabellenEE!I74)+I52</f>
+        <f>([4]TabellenEE!J74-[4]TabellenEE!I74)+I52</f>
         <v>82</v>
       </c>
       <c r="K52" s="115">
@@ -37017,15 +37411,15 @@
         <v>92</v>
       </c>
       <c r="E278" s="89">
-        <f>[3]Quellen!C43</f>
+        <f>[4]Quellen!C43</f>
         <v>391</v>
       </c>
       <c r="F278" s="89">
-        <f>[3]Quellen!D43</f>
+        <f>[4]Quellen!D43</f>
         <v>276</v>
       </c>
       <c r="G278" s="89">
-        <f>[3]Quellen!E43</f>
+        <f>[4]Quellen!E43</f>
         <v>147</v>
       </c>
       <c r="J278" s="165" t="s">
@@ -37059,15 +37453,15 @@
         <v>92</v>
       </c>
       <c r="E279" s="89">
-        <f>[3]Quellen!C44</f>
+        <f>[4]Quellen!C44</f>
         <v>315</v>
       </c>
       <c r="F279" s="89">
-        <f>[3]Quellen!D44</f>
+        <f>[4]Quellen!D44</f>
         <v>320</v>
       </c>
       <c r="G279" s="89">
-        <f>[3]Quellen!E44</f>
+        <f>[4]Quellen!E44</f>
         <v>273</v>
       </c>
       <c r="J279" s="165" t="s">
@@ -37101,15 +37495,15 @@
         <v>92</v>
       </c>
       <c r="E280" s="89">
-        <f>[3]Quellen!C45</f>
+        <f>[4]Quellen!C45</f>
         <v>287</v>
       </c>
       <c r="F280" s="89">
-        <f>[3]Quellen!D45</f>
+        <f>[4]Quellen!D45</f>
         <v>202</v>
       </c>
       <c r="G280" s="89">
-        <f>[3]Quellen!E45</f>
+        <f>[4]Quellen!E45</f>
         <v>140</v>
       </c>
       <c r="J280" s="165" t="s">
@@ -37143,15 +37537,15 @@
         <v>92</v>
       </c>
       <c r="E281" s="89">
-        <f>[3]Quellen!C46</f>
+        <f>[4]Quellen!C46</f>
         <v>131</v>
       </c>
       <c r="F281" s="89">
-        <f>[3]Quellen!D46</f>
+        <f>[4]Quellen!D46</f>
         <v>102</v>
       </c>
       <c r="G281" s="89">
-        <f>[3]Quellen!E46</f>
+        <f>[4]Quellen!E46</f>
         <v>66</v>
       </c>
       <c r="J281" s="165" t="s">
@@ -37185,15 +37579,15 @@
         <v>92</v>
       </c>
       <c r="E282" s="89">
-        <f>[3]Quellen!C47</f>
+        <f>[4]Quellen!C47</f>
         <v>14</v>
       </c>
       <c r="F282" s="89">
-        <f>[3]Quellen!D47</f>
+        <f>[4]Quellen!D47</f>
         <v>12</v>
       </c>
       <c r="G282" s="89">
-        <f>[3]Quellen!E47</f>
+        <f>[4]Quellen!E47</f>
         <v>11</v>
       </c>
       <c r="J282" s="165" t="s">
@@ -37227,15 +37621,15 @@
         <v>92</v>
       </c>
       <c r="E283" s="117">
-        <f>[3]Quellen!C48</f>
+        <f>[4]Quellen!C48</f>
         <v>1138</v>
       </c>
       <c r="F283" s="117">
-        <f>[3]Quellen!D48</f>
+        <f>[4]Quellen!D48</f>
         <v>912</v>
       </c>
       <c r="G283" s="117">
-        <f>[3]Quellen!E48</f>
+        <f>[4]Quellen!E48</f>
         <v>637</v>
       </c>
       <c r="J283" s="165" t="s">
@@ -37427,22 +37821,22 @@
     </row>
     <row r="298" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C298" s="89" t="str">
-        <f>[3]Quellen!C29</f>
+        <f>[4]Quellen!C29</f>
         <v xml:space="preserve">Kohle </v>
       </c>
       <c r="D298" s="89" t="s">
         <v>92</v>
       </c>
       <c r="E298" s="89">
-        <f>[3]Quellen!D29</f>
+        <f>[4]Quellen!D29</f>
         <v>143</v>
       </c>
       <c r="F298" s="89">
-        <f>[3]Quellen!I29</f>
+        <f>[4]Quellen!I29</f>
         <v>46</v>
       </c>
       <c r="G298" s="89">
-        <f>[3]Quellen!J29</f>
+        <f>[4]Quellen!J29</f>
         <v>1</v>
       </c>
       <c r="J298" s="89" t="s">
@@ -37463,22 +37857,22 @@
     </row>
     <row r="299" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C299" s="89" t="str">
-        <f>[3]Quellen!C30</f>
+        <f>[4]Quellen!C30</f>
         <v xml:space="preserve">Öl </v>
       </c>
       <c r="D299" s="89" t="s">
         <v>92</v>
       </c>
       <c r="E299" s="89">
-        <f>[3]Quellen!D30</f>
+        <f>[4]Quellen!D30</f>
         <v>549</v>
       </c>
       <c r="F299" s="89">
-        <f>[3]Quellen!I30</f>
+        <f>[4]Quellen!I30</f>
         <v>308</v>
       </c>
       <c r="G299" s="89">
-        <f>[3]Quellen!J30</f>
+        <f>[4]Quellen!J30</f>
         <v>82</v>
       </c>
       <c r="J299" s="89" t="s">
@@ -37499,22 +37893,22 @@
     </row>
     <row r="300" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C300" s="89" t="str">
-        <f>[3]Quellen!C31</f>
+        <f>[4]Quellen!C31</f>
         <v xml:space="preserve">Gas </v>
       </c>
       <c r="D300" s="89" t="s">
         <v>92</v>
       </c>
       <c r="E300" s="89">
-        <f>[3]Quellen!D31</f>
+        <f>[4]Quellen!D31</f>
         <v>344</v>
       </c>
       <c r="F300" s="89">
-        <f>[3]Quellen!I31</f>
+        <f>[4]Quellen!I31</f>
         <v>217</v>
       </c>
       <c r="G300" s="89">
-        <f>[3]Quellen!J31</f>
+        <f>[4]Quellen!J31</f>
         <v>135</v>
       </c>
       <c r="J300" s="89" t="s">
@@ -37535,22 +37929,22 @@
     </row>
     <row r="301" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C301" s="89" t="str">
-        <f>[3]Quellen!C32</f>
+        <f>[4]Quellen!C32</f>
         <v xml:space="preserve">Abfälle </v>
       </c>
       <c r="D301" s="89" t="s">
         <v>92</v>
       </c>
       <c r="E301" s="89">
-        <f>[3]Quellen!D32</f>
+        <f>[4]Quellen!D32</f>
         <v>28</v>
       </c>
       <c r="F301" s="89">
-        <f>[3]Quellen!I32</f>
+        <f>[4]Quellen!I32</f>
         <v>28</v>
       </c>
       <c r="G301" s="89">
-        <f>[3]Quellen!J32</f>
+        <f>[4]Quellen!J32</f>
         <v>24</v>
       </c>
       <c r="J301" s="89" t="s">
@@ -37571,22 +37965,22 @@
     </row>
     <row r="302" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C302" s="89" t="str">
-        <f>[3]Quellen!C33</f>
+        <f>[4]Quellen!C33</f>
         <v xml:space="preserve">Biomasse </v>
       </c>
       <c r="D302" s="89" t="s">
         <v>92</v>
       </c>
       <c r="E302" s="89">
-        <f>[3]Quellen!D33</f>
+        <f>[4]Quellen!D33</f>
         <v>237</v>
       </c>
       <c r="F302" s="89">
-        <f>[3]Quellen!I33</f>
+        <f>[4]Quellen!I33</f>
         <v>319</v>
       </c>
       <c r="G302" s="89">
-        <f>[3]Quellen!J33</f>
+        <f>[4]Quellen!J33</f>
         <v>282</v>
       </c>
       <c r="J302" s="89" t="s">
@@ -37607,22 +38001,22 @@
     </row>
     <row r="303" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C303" s="89" t="str">
-        <f>[3]Quellen!C34</f>
+        <f>[4]Quellen!C34</f>
         <v xml:space="preserve">Umgebungswärme etc. </v>
       </c>
       <c r="D303" s="89" t="s">
         <v>92</v>
       </c>
       <c r="E303" s="89">
-        <f>[3]Quellen!D34</f>
+        <f>[4]Quellen!D34</f>
         <v>13</v>
       </c>
       <c r="F303" s="89">
-        <f>[3]Quellen!I34</f>
+        <f>[4]Quellen!I34</f>
         <v>41</v>
       </c>
       <c r="G303" s="89">
-        <f>[3]Quellen!J34</f>
+        <f>[4]Quellen!J34</f>
         <v>54</v>
       </c>
       <c r="J303" s="89" t="s">
@@ -37643,22 +38037,22 @@
     </row>
     <row r="304" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C304" s="89" t="str">
-        <f>[3]Quellen!C35</f>
+        <f>[4]Quellen!C35</f>
         <v xml:space="preserve">Elektrische Energie </v>
       </c>
       <c r="D304" s="89" t="s">
         <v>92</v>
       </c>
       <c r="E304" s="89">
-        <f>[3]Quellen!D35</f>
+        <f>[4]Quellen!D35</f>
         <v>8</v>
       </c>
       <c r="F304" s="89">
-        <f>[3]Quellen!I35</f>
+        <f>[4]Quellen!I35</f>
         <v>-51</v>
       </c>
       <c r="G304" s="89">
-        <f>[3]Quellen!J35</f>
+        <f>[4]Quellen!J35</f>
         <v>-71</v>
       </c>
       <c r="H304" s="89" t="s">
@@ -37682,22 +38076,22 @@
     </row>
     <row r="305" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C305" s="89" t="str">
-        <f>[3]Quellen!C36</f>
+        <f>[4]Quellen!C36</f>
         <v xml:space="preserve">Wasserkraft </v>
       </c>
       <c r="D305" s="89" t="s">
         <v>92</v>
       </c>
       <c r="E305" s="89">
-        <f>[3]Quellen!D36</f>
+        <f>[4]Quellen!D36</f>
         <v>138</v>
       </c>
       <c r="F305" s="89">
-        <f>[3]Quellen!I36</f>
+        <f>[4]Quellen!I36</f>
         <v>154</v>
       </c>
       <c r="G305" s="117">
-        <f>[3]Quellen!J36</f>
+        <f>[4]Quellen!J36</f>
         <v>163</v>
       </c>
       <c r="J305" s="89" t="s">
@@ -37718,22 +38112,22 @@
     </row>
     <row r="306" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C306" s="89" t="str">
-        <f>[3]Quellen!C37</f>
+        <f>[4]Quellen!C37</f>
         <v xml:space="preserve">Wind </v>
       </c>
       <c r="D306" s="89" t="s">
         <v>92</v>
       </c>
       <c r="E306" s="89">
-        <f>[3]Quellen!D37</f>
+        <f>[4]Quellen!D37</f>
         <v>7</v>
       </c>
       <c r="F306" s="89">
-        <f>[3]Quellen!I37</f>
+        <f>[4]Quellen!I37</f>
         <v>63</v>
       </c>
       <c r="G306" s="117">
-        <f>[3]Quellen!J37</f>
+        <f>[4]Quellen!J37</f>
         <v>76</v>
       </c>
       <c r="J306" s="89" t="s">
@@ -37754,22 +38148,22 @@
     </row>
     <row r="307" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C307" s="89" t="str">
-        <f>[3]Quellen!C38</f>
+        <f>[4]Quellen!C38</f>
         <v xml:space="preserve">Photovoltaik </v>
       </c>
       <c r="D307" s="89" t="s">
         <v>92</v>
       </c>
       <c r="E307" s="89">
-        <f>[3]Quellen!D38</f>
+        <f>[4]Quellen!D38</f>
         <v>0</v>
       </c>
       <c r="F307" s="89">
-        <f>[3]Quellen!I38</f>
+        <f>[4]Quellen!I38</f>
         <v>53</v>
       </c>
       <c r="G307" s="117">
-        <f>[3]Quellen!J38</f>
+        <f>[4]Quellen!J38</f>
         <v>85</v>
       </c>
       <c r="J307" s="89" t="s">
@@ -37790,22 +38184,22 @@
     </row>
     <row r="308" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C308" s="89" t="str">
-        <f>[3]Quellen!C39</f>
+        <f>[4]Quellen!C39</f>
         <v xml:space="preserve">Wasserstoff </v>
       </c>
       <c r="D308" s="89" t="s">
         <v>92</v>
       </c>
       <c r="E308" s="89">
-        <f>[3]Quellen!D39</f>
+        <f>[4]Quellen!D39</f>
         <v>0</v>
       </c>
       <c r="F308" s="89">
-        <f>[3]Quellen!I39</f>
+        <f>[4]Quellen!I39</f>
         <v>1</v>
       </c>
       <c r="G308" s="89">
-        <f>[3]Quellen!J39</f>
+        <f>[4]Quellen!J39</f>
         <v>21</v>
       </c>
       <c r="J308" s="89" t="s">
@@ -37826,22 +38220,22 @@
     </row>
     <row r="309" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C309" s="89" t="str">
-        <f>[3]Quellen!C40</f>
+        <f>[4]Quellen!C40</f>
         <v xml:space="preserve">energetischer Endverbrauch </v>
       </c>
       <c r="D309" s="89" t="s">
         <v>92</v>
       </c>
       <c r="E309" s="117">
-        <f>[3]Quellen!D40</f>
+        <f>[4]Quellen!D40</f>
         <v>1467</v>
       </c>
       <c r="F309" s="117">
-        <f>[3]Quellen!I40</f>
+        <f>[4]Quellen!I40</f>
         <v>1179</v>
       </c>
       <c r="G309" s="117">
-        <f>[3]Quellen!J40</f>
+        <f>[4]Quellen!J40</f>
         <v>853</v>
       </c>
       <c r="J309" s="89" t="s">
@@ -37873,145 +38267,145 @@
     </row>
     <row r="311" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C311" s="89" t="str">
-        <f>[3]Quellen!B60</f>
+        <f>[4]Quellen!B60</f>
         <v xml:space="preserve">Bioenergie </v>
       </c>
       <c r="D311" s="89" t="s">
         <v>92</v>
       </c>
       <c r="E311" s="89">
-        <f>[3]Quellen!C60</f>
+        <f>[4]Quellen!C60</f>
         <v>340</v>
       </c>
       <c r="F311" s="89">
-        <f>[3]Quellen!D60</f>
+        <f>[4]Quellen!D60</f>
         <v>319</v>
       </c>
       <c r="G311" s="89">
-        <f>[3]Quellen!E60</f>
+        <f>[4]Quellen!E60</f>
         <v>282</v>
       </c>
     </row>
     <row r="312" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C312" s="89" t="str">
-        <f>[3]Quellen!B61</f>
+        <f>[4]Quellen!B61</f>
         <v xml:space="preserve">Wasserkraft </v>
       </c>
       <c r="D312" s="89" t="s">
         <v>92</v>
       </c>
       <c r="E312" s="89">
-        <f>[3]Quellen!C61</f>
+        <f>[4]Quellen!C61</f>
         <v>195</v>
       </c>
       <c r="F312" s="89">
-        <f>[3]Quellen!D61</f>
+        <f>[4]Quellen!D61</f>
         <v>154</v>
       </c>
       <c r="G312" s="89">
-        <f>[3]Quellen!E61</f>
+        <f>[4]Quellen!E61</f>
         <v>163</v>
       </c>
     </row>
     <row r="313" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C313" s="89" t="str">
-        <f>[3]Quellen!B62</f>
+        <f>[4]Quellen!B62</f>
         <v xml:space="preserve">Wind </v>
       </c>
       <c r="D313" s="89" t="s">
         <v>92</v>
       </c>
       <c r="E313" s="89">
-        <f>[3]Quellen!C62</f>
+        <f>[4]Quellen!C62</f>
         <v>63</v>
       </c>
       <c r="F313" s="89">
-        <f>[3]Quellen!D62</f>
+        <f>[4]Quellen!D62</f>
         <v>63</v>
       </c>
       <c r="G313" s="89">
-        <f>[3]Quellen!E62</f>
+        <f>[4]Quellen!E62</f>
         <v>76</v>
       </c>
     </row>
     <row r="314" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C314" s="89" t="str">
-        <f>[3]Quellen!B63</f>
+        <f>[4]Quellen!B63</f>
         <v xml:space="preserve">Umgebungswärme etc. </v>
       </c>
       <c r="D314" s="89" t="s">
         <v>92</v>
       </c>
       <c r="E314" s="89">
-        <f>[3]Quellen!C63</f>
+        <f>[4]Quellen!C63</f>
         <v>22</v>
       </c>
       <c r="F314" s="89">
-        <f>[3]Quellen!D63</f>
+        <f>[4]Quellen!D63</f>
         <v>41</v>
       </c>
       <c r="G314" s="89">
-        <f>[3]Quellen!E63</f>
+        <f>[4]Quellen!E63</f>
         <v>54</v>
       </c>
     </row>
     <row r="315" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C315" s="89" t="str">
-        <f>[3]Quellen!B64</f>
+        <f>[4]Quellen!B64</f>
         <v xml:space="preserve">Solarthermie </v>
       </c>
       <c r="D315" s="89" t="s">
         <v>92</v>
       </c>
       <c r="E315" s="89">
-        <f>[3]Quellen!C64</f>
+        <f>[4]Quellen!C64</f>
         <v>27</v>
       </c>
       <c r="F315" s="89">
-        <f>[3]Quellen!D64</f>
+        <f>[4]Quellen!D64</f>
         <v>27</v>
       </c>
       <c r="G315" s="89">
-        <f>[3]Quellen!E64</f>
+        <f>[4]Quellen!E64</f>
         <v>0</v>
       </c>
     </row>
     <row r="316" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C316" s="89" t="str">
-        <f>[3]Quellen!B65</f>
+        <f>[4]Quellen!B65</f>
         <v xml:space="preserve">Photovoltaik </v>
       </c>
       <c r="D316" s="89" t="s">
         <v>92</v>
       </c>
       <c r="E316" s="89">
-        <f>[3]Quellen!C65</f>
+        <f>[4]Quellen!C65</f>
         <v>67</v>
       </c>
       <c r="F316" s="89">
-        <f>[3]Quellen!D65</f>
+        <f>[4]Quellen!D65</f>
         <v>53</v>
       </c>
       <c r="G316" s="89">
-        <f>[3]Quellen!E65</f>
+        <f>[4]Quellen!E65</f>
         <v>85</v>
       </c>
     </row>
     <row r="317" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C317" s="89" t="str">
-        <f>[3]Quellen!B66</f>
+        <f>[4]Quellen!B66</f>
         <v xml:space="preserve">Summe </v>
       </c>
       <c r="E317" s="89" t="str">
-        <f>[3]Quellen!C66</f>
+        <f>[4]Quellen!C66</f>
         <v xml:space="preserve">714 bzw. 781 </v>
       </c>
       <c r="F317" s="89">
-        <f>[3]Quellen!D66</f>
+        <f>[4]Quellen!D66</f>
         <v>629</v>
       </c>
       <c r="G317" s="89">
-        <f>[3]Quellen!E66</f>
+        <f>[4]Quellen!E66</f>
         <v>659</v>
       </c>
       <c r="J317" s="170" t="s">
@@ -40233,7 +40627,7 @@
         <v>353</v>
       </c>
       <c r="D5" s="183">
-        <f>[3]SimonStadt!E46</f>
+        <f>[4]SimonStadt!E46</f>
         <v>1000</v>
       </c>
       <c r="E5" s="184"/>
@@ -40244,11 +40638,11 @@
         <v>176</v>
       </c>
       <c r="V5" s="185">
-        <f>[3]Way2smartKenndatenFlächen!K6</f>
+        <f>[4]Way2smartKenndatenFlächen!K6</f>
         <v>9460000</v>
       </c>
       <c r="W5" s="186">
-        <f>[3]Way2smartKenndatenFlächen!S6</f>
+        <f>[4]Way2smartKenndatenFlächen!S6</f>
         <v>20403.335767750003</v>
       </c>
     </row>
@@ -40260,7 +40654,7 @@
         <v>355</v>
       </c>
       <c r="D6" s="187">
-        <f>[3]SimonStadt!E48</f>
+        <f>[4]SimonStadt!E48</f>
         <v>6.5</v>
       </c>
       <c r="E6" s="188">
@@ -40273,15 +40667,15 @@
         <v>357</v>
       </c>
       <c r="U6" s="190" t="str">
-        <f>[3]Way2smartKenndatenFlächen!B12</f>
+        <f>[4]Way2smartKenndatenFlächen!B12</f>
         <v>Fläche gesamt</v>
       </c>
       <c r="V6" s="191">
-        <f>[3]Way2smartKenndatenFlächen!C12</f>
+        <f>[4]Way2smartKenndatenFlächen!C12</f>
         <v>83882000000</v>
       </c>
       <c r="W6" s="191">
-        <f>[3]Way2smartKenndatenFlächen!D12</f>
+        <f>[4]Way2smartKenndatenFlächen!D12</f>
         <v>9772290.5432699975</v>
       </c>
       <c r="X6" s="192">
@@ -40297,26 +40691,26 @@
         <v>359</v>
       </c>
       <c r="D7" s="193">
-        <f>1/[3]TabellenEE!D211/0.9</f>
+        <f>1/[4]TabellenEE!D211/0.9</f>
         <v>1.8518518518518519</v>
       </c>
       <c r="F7" s="92" t="s">
         <v>360</v>
       </c>
       <c r="T7" s="190" t="str">
-        <f>[3]Way2smartKenndatenFlächen!B16</f>
+        <f>[4]Way2smartKenndatenFlächen!B16</f>
         <v>bebaubare Fläche</v>
       </c>
       <c r="U7" s="190" t="str">
-        <f>[3]Way2smartKenndatenFlächen!B13</f>
+        <f>[4]Way2smartKenndatenFlächen!B13</f>
         <v>Bauland</v>
       </c>
       <c r="V7" s="191">
-        <f>[3]Way2smartKenndatenFlächen!C13</f>
+        <f>[4]Way2smartKenndatenFlächen!C13</f>
         <v>2383200000</v>
       </c>
       <c r="W7" s="191">
-        <f>[3]Way2smartKenndatenFlächen!D13</f>
+        <f>[4]Way2smartKenndatenFlächen!D13</f>
         <v>3864818.1810719986</v>
       </c>
       <c r="X7" s="194">
@@ -40335,19 +40729,19 @@
         <v>0.9</v>
       </c>
       <c r="T8" s="190" t="str">
-        <f>[3]Way2smartKenndatenFlächen!B17</f>
+        <f>[4]Way2smartKenndatenFlächen!B17</f>
         <v>Landwirtschaftlich genutzte Fläche</v>
       </c>
       <c r="U8" s="190" t="str">
-        <f>[3]Way2smartKenndatenFlächen!B14</f>
+        <f>[4]Way2smartKenndatenFlächen!B14</f>
         <v>bebaute Fläche</v>
       </c>
       <c r="V8" s="191">
-        <f>[3]Way2smartKenndatenFlächen!C14</f>
+        <f>[4]Way2smartKenndatenFlächen!C14</f>
         <v>769300000</v>
       </c>
       <c r="W8" s="191">
-        <f>[3]Way2smartKenndatenFlächen!D14</f>
+        <f>[4]Way2smartKenndatenFlächen!D14</f>
         <v>830171.24385714298</v>
       </c>
       <c r="X8" s="195">
@@ -40392,15 +40786,15 @@
         <v>366</v>
       </c>
       <c r="U9" s="190">
-        <f>[3]Way2smartKenndatenFlächen!B15</f>
+        <f>[4]Way2smartKenndatenFlächen!B15</f>
         <v>0</v>
       </c>
       <c r="V9" s="191">
-        <f>[3]Way2smartKenndatenFlächen!C15</f>
+        <f>[4]Way2smartKenndatenFlächen!C15</f>
         <v>0.32280127559583754</v>
       </c>
       <c r="W9" s="191">
-        <f>[3]Way2smartKenndatenFlächen!D15</f>
+        <f>[4]Way2smartKenndatenFlächen!D15</f>
         <v>0.21480214720654087</v>
       </c>
       <c r="X9" s="192">
@@ -40443,11 +40837,11 @@
       </c>
       <c r="P10" s="202"/>
       <c r="V10" s="191">
-        <f>[3]Way2smartKenndatenFlächen!C16</f>
+        <f>[4]Way2smartKenndatenFlächen!C16</f>
         <v>0.21480214595794678</v>
       </c>
       <c r="W10" s="191">
-        <f>[3]Way2smartKenndatenFlächen!D16</f>
+        <f>[4]Way2smartKenndatenFlächen!D16</f>
         <v>7046253.7566462075</v>
       </c>
       <c r="X10" s="192">
@@ -40501,11 +40895,11 @@
         <v>373</v>
       </c>
       <c r="V11" s="191">
-        <f>[3]Way2smartKenndatenFlächen!C17</f>
+        <f>[4]Way2smartKenndatenFlächen!C17</f>
         <v>2114500000</v>
       </c>
       <c r="W11" s="191">
-        <f>[3]Way2smartKenndatenFlächen!D17</f>
+        <f>[4]Way2smartKenndatenFlächen!D17</f>
         <v>3292955.7401469992</v>
       </c>
       <c r="X11" s="192">
@@ -40540,7 +40934,7 @@
         <v>2050</v>
       </c>
       <c r="M12" s="192">
-        <f>[3]Way2smartKenndatenFlächen!O6</f>
+        <f>[4]Way2smartKenndatenFlächen!O6</f>
         <v>2.1568008211152222E-3</v>
       </c>
       <c r="N12" s="191">
@@ -40559,7 +40953,7 @@
         <v>375</v>
       </c>
       <c r="W12" s="185">
-        <f>[3]SimonStadt!U57</f>
+        <f>[4]SimonStadt!U57</f>
         <v>1684324.9400000002</v>
       </c>
     </row>
@@ -40590,7 +40984,7 @@
         <v>2036</v>
       </c>
       <c r="M13" s="192">
-        <f>[3]Way2smartKenndatenFlächen!O7</f>
+        <f>[4]Way2smartKenndatenFlächen!O7</f>
         <v>1.9783633000418754E-3</v>
       </c>
       <c r="N13" s="191">
@@ -40609,7 +41003,7 @@
         <v>376</v>
       </c>
       <c r="W13" s="185">
-        <f>[3]SimonStadt!V57</f>
+        <f>[4]SimonStadt!V57</f>
         <v>1347459.9519999982</v>
       </c>
     </row>
@@ -40640,19 +41034,19 @@
         <v>2017</v>
       </c>
       <c r="M14" s="192">
-        <f>[3]Way2smartKenndatenFlächen!O8</f>
+        <f>[4]Way2smartKenndatenFlächen!O8</f>
         <v>1.7122207246889195E-3</v>
       </c>
       <c r="N14" s="207">
-        <f>[3]Way2smartKenndatenFlächen!P22</f>
+        <f>[4]Way2smartKenndatenFlächen!P22</f>
         <v>3887212.196883</v>
       </c>
       <c r="O14" s="207">
-        <f>[3]SimonStadt!P57</f>
+        <f>[4]SimonStadt!P57</f>
         <v>830171.24385714298</v>
       </c>
       <c r="P14" s="207">
-        <f>[3]Way2smartKenndatenFlächen!N22</f>
+        <f>[4]Way2smartKenndatenFlächen!N22</f>
         <v>3028209.1047799997</v>
       </c>
       <c r="U14" s="92" t="s">
@@ -40688,7 +41082,7 @@
         <v>2008</v>
       </c>
       <c r="M15" s="192">
-        <f>[3]Way2smartKenndatenFlächen!O9</f>
+        <f>[4]Way2smartKenndatenFlächen!O9</f>
         <v>1.575268255129076E-3</v>
       </c>
       <c r="N15" s="137"/>
@@ -40698,7 +41092,7 @@
         <v>380</v>
       </c>
       <c r="W15" s="185">
-        <f>[3]SimonStadt!U56</f>
+        <f>[4]SimonStadt!U56</f>
         <v>839902.89000000013</v>
       </c>
     </row>
@@ -40723,7 +41117,7 @@
         <v>381</v>
       </c>
       <c r="W16" s="185">
-        <f>[3]SimonStadt!V56</f>
+        <f>[4]SimonStadt!V56</f>
         <v>671922.31199999817</v>
       </c>
       <c r="Y16" s="92" t="s">
@@ -41634,19 +42028,19 @@
       </c>
       <c r="D39" s="139"/>
       <c r="E39" s="139">
-        <f>[3]PVGebäude!D56</f>
+        <f>[4]PVGebäude!D56</f>
         <v>209.73000000000002</v>
       </c>
       <c r="F39" s="139">
-        <f>[3]PVGebäude!E127</f>
+        <f>[4]PVGebäude!E127</f>
         <v>130.67000000000002</v>
       </c>
       <c r="G39" s="230">
-        <f>[3]PVGebäude!N85</f>
+        <f>[4]PVGebäude!N85</f>
         <v>124.7</v>
       </c>
       <c r="H39" s="139">
-        <f>[3]PVGebäude!AL27</f>
+        <f>[4]PVGebäude!AL27</f>
         <v>127.96</v>
       </c>
       <c r="I39" s="139">
@@ -41708,19 +42102,19 @@
       </c>
       <c r="D40" s="223"/>
       <c r="E40" s="223">
-        <f>[3]PVGebäude!J107</f>
+        <f>[4]PVGebäude!J107</f>
         <v>204022</v>
       </c>
       <c r="F40" s="223">
-        <f>[3]PVGebäude!J127</f>
+        <f>[4]PVGebäude!J127</f>
         <v>135880</v>
       </c>
       <c r="G40" s="223">
-        <f>[3]PVGebäude!Q85</f>
+        <f>[4]PVGebäude!Q85</f>
         <v>140107.84826326772</v>
       </c>
       <c r="H40" s="223">
-        <f>[3]PVGebäude!AO27</f>
+        <f>[4]PVGebäude!AO27</f>
         <v>110009.89115696501</v>
       </c>
       <c r="I40" s="223">
@@ -42812,7 +43206,7 @@
         <v>158</v>
       </c>
       <c r="E56" s="123" t="str">
-        <f>[3]TabellenEE!J36</f>
+        <f>[4]TabellenEE!J36</f>
         <v>2050      Streicher 0,8% Var1 Mobi LW UBA</v>
       </c>
       <c r="F56" s="276" t="s">
@@ -43094,7 +43488,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="129">
-        <f>[3]TabellenEE!J39</f>
+        <f>[4]TabellenEE!J39</f>
         <v>0</v>
       </c>
       <c r="F59" s="223">
@@ -43102,7 +43496,7 @@
         <v>37631.408316972367</v>
       </c>
       <c r="G59" s="223">
-        <f>[3]EEKorneuburgStreicher!O27</f>
+        <f>[4]EEKorneuburgStreicher!O27</f>
         <v>104450.78356819091</v>
       </c>
       <c r="H59" s="223">
@@ -43135,7 +43529,7 @@
         <v>0</v>
       </c>
       <c r="Q59" s="301">
-        <f>([3]SimonStadt!E8+[3]SimonStadt!F8+[3]SimonStadt!J8+[3]SimonStadt!K8)/1000</f>
+        <f>([4]SimonStadt!E8+[4]SimonStadt!F8+[4]SimonStadt!J8+[4]SimonStadt!K8)/1000</f>
         <v>740.08582369031433</v>
       </c>
       <c r="R59" s="221"/>
@@ -43176,7 +43570,7 @@
         <v>74</v>
       </c>
       <c r="AG59" s="301">
-        <f>([3]SimonStadt!U8+[3]SimonStadt!V8+[3]SimonStadt!Z8+[3]SimonStadt!AA8)/1000</f>
+        <f>([4]SimonStadt!U8+[4]SimonStadt!V8+[4]SimonStadt!Z8+[4]SimonStadt!AA8)/1000</f>
         <v>0</v>
       </c>
       <c r="AH59" s="221"/>
@@ -43201,7 +43595,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="129">
-        <f>[3]TabellenEE!J40</f>
+        <f>[4]TabellenEE!J40</f>
         <v>0</v>
       </c>
       <c r="F60" s="223">
@@ -43242,7 +43636,7 @@
         <v>0</v>
       </c>
       <c r="Q60" s="301">
-        <f>([3]SimonStadt!E9+[3]SimonStadt!F9+[3]SimonStadt!J9+[3]SimonStadt!K9)/1000</f>
+        <f>([4]SimonStadt!E9+[4]SimonStadt!F9+[4]SimonStadt!J9+[4]SimonStadt!K9)/1000</f>
         <v>3833.6912907851925</v>
       </c>
       <c r="R60" s="221"/>
@@ -43283,7 +43677,7 @@
         <v>75</v>
       </c>
       <c r="AG60" s="301">
-        <f>([3]SimonStadt!U9+[3]SimonStadt!V9+[3]SimonStadt!Z9+[3]SimonStadt!AA9)/1000</f>
+        <f>([4]SimonStadt!U9+[4]SimonStadt!V9+[4]SimonStadt!Z9+[4]SimonStadt!AA9)/1000</f>
         <v>0</v>
       </c>
       <c r="AH60" s="221"/>
@@ -43308,7 +43702,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="129">
-        <f>[3]TabellenEE!J41</f>
+        <f>[4]TabellenEE!J41</f>
         <v>0</v>
       </c>
       <c r="F61" s="223">
@@ -43412,7 +43806,7 @@
         <v>57</v>
       </c>
       <c r="E62" s="129">
-        <f>[3]TabellenEE!J42</f>
+        <f>[4]TabellenEE!J42</f>
         <v>66</v>
       </c>
       <c r="F62" s="223">
@@ -43453,7 +43847,7 @@
         <v>22083.206055317998</v>
       </c>
       <c r="Q62" s="301">
-        <f>SUM([3]SimonStadt!E13:F14,[3]SimonStadt!J13:K14)/1000</f>
+        <f>SUM([4]SimonStadt!E13:F14,[4]SimonStadt!J13:K14)/1000</f>
         <v>39786.260931503544</v>
       </c>
       <c r="R62" s="221"/>
@@ -43503,7 +43897,7 @@
         <v>77</v>
       </c>
       <c r="AG62" s="301">
-        <f>SUM([3]SimonStadt!U13:V14,[3]SimonStadt!Z13:AA14)/1000</f>
+        <f>SUM([4]SimonStadt!U13:V14,[4]SimonStadt!Z13:AA14)/1000</f>
         <v>0</v>
       </c>
       <c r="AH62" s="221"/>
@@ -43531,7 +43925,7 @@
         <v>16</v>
       </c>
       <c r="E63" s="129">
-        <f>[3]TabellenEE!J43</f>
+        <f>[4]TabellenEE!J43</f>
         <v>23</v>
       </c>
       <c r="F63" s="223">
@@ -43572,7 +43966,7 @@
         <v>6639.1252273736118</v>
       </c>
       <c r="Q63" s="301">
-        <f>([3]SimonStadt!E12+[3]SimonStadt!F12+[3]SimonStadt!J12+[3]SimonStadt!K12)/1000</f>
+        <f>([4]SimonStadt!E12+[4]SimonStadt!F12+[4]SimonStadt!J12+[4]SimonStadt!K12)/1000</f>
         <v>2134.0854023925413</v>
       </c>
       <c r="R63" s="221"/>
@@ -43622,7 +44016,7 @@
         <v>78</v>
       </c>
       <c r="AG63" s="301">
-        <f>([3]SimonStadt!U12+[3]SimonStadt!V12+[3]SimonStadt!Z12+[3]SimonStadt!AA12)/1000</f>
+        <f>([4]SimonStadt!U12+[4]SimonStadt!V12+[4]SimonStadt!Z12+[4]SimonStadt!AA12)/1000</f>
         <v>0</v>
       </c>
       <c r="AH63" s="221"/>
@@ -43660,7 +44054,7 @@
         <v>42050.910921640054</v>
       </c>
       <c r="G64" s="223">
-        <f>[3]EEKorneuburgStreicher!Q27</f>
+        <f>[4]EEKorneuburgStreicher!Q27</f>
         <v>40035.365511862772</v>
       </c>
       <c r="H64" s="223">
@@ -43771,7 +44165,7 @@
         <v>49</v>
       </c>
       <c r="E65" s="129">
-        <f>[3]TabellenEE!J45</f>
+        <f>[4]TabellenEE!J45</f>
         <v>68</v>
       </c>
       <c r="F65" s="223">
@@ -43878,7 +44272,7 @@
         <v>49</v>
       </c>
       <c r="E66" s="129">
-        <f>[3]TabellenEE!J46</f>
+        <f>[4]TabellenEE!J46</f>
         <v>69</v>
       </c>
       <c r="F66" s="223">
@@ -43983,7 +44377,7 @@
         <v>39</v>
       </c>
       <c r="E67" s="129">
-        <f>[3]TabellenEE!J47</f>
+        <f>[4]TabellenEE!J47</f>
         <v>13</v>
       </c>
       <c r="F67" s="223">
@@ -43991,7 +44385,7 @@
         <v>68699.198904240257</v>
       </c>
       <c r="G67" s="223">
-        <f>[3]EEKorneuburgStreicher!P27</f>
+        <f>[4]EEKorneuburgStreicher!P27</f>
         <v>14569.012671949025</v>
       </c>
       <c r="H67" s="223">
@@ -44027,7 +44421,7 @@
         <v>0</v>
       </c>
       <c r="Q67" s="301">
-        <f>([3]SimonStadt!E11+[3]SimonStadt!F11+[3]SimonStadt!J11+[3]SimonStadt!K11+[3]SimonStadt!E10+[3]SimonStadt!F10+[3]SimonStadt!J10+[3]SimonStadt!K10)/1000</f>
+        <f>([4]SimonStadt!E11+[4]SimonStadt!F11+[4]SimonStadt!J11+[4]SimonStadt!K11+[4]SimonStadt!E10+[4]SimonStadt!F10+[4]SimonStadt!J10+[4]SimonStadt!K10)/1000</f>
         <v>418.44466529621081</v>
       </c>
       <c r="R67" s="223">
@@ -44077,7 +44471,7 @@
         <v>81</v>
       </c>
       <c r="AG67" s="301">
-        <f>([3]SimonStadt!U11+[3]SimonStadt!V11+[3]SimonStadt!Z11+[3]SimonStadt!AA11+[3]SimonStadt!U10+[3]SimonStadt!V10+[3]SimonStadt!Z10+[3]SimonStadt!AA10)/1000</f>
+        <f>([4]SimonStadt!U11+[4]SimonStadt!V11+[4]SimonStadt!Z11+[4]SimonStadt!AA11+[4]SimonStadt!U10+[4]SimonStadt!V10+[4]SimonStadt!Z10+[4]SimonStadt!AA10)/1000</f>
         <v>0</v>
       </c>
       <c r="AH67" s="223">
@@ -44318,7 +44712,7 @@
         <v>17</v>
       </c>
       <c r="E70" s="310">
-        <f>[3]TabellenEE!J50</f>
+        <f>[4]TabellenEE!J50</f>
         <v>15</v>
       </c>
       <c r="F70" s="223">
@@ -44440,7 +44834,7 @@
         <v>38</v>
       </c>
       <c r="E71" s="310">
-        <f>[3]TabellenEE!J51</f>
+        <f>[4]TabellenEE!J51</f>
         <v>40</v>
       </c>
       <c r="F71" s="223">
@@ -44562,7 +44956,7 @@
         <v>30</v>
       </c>
       <c r="E72" s="310">
-        <f>[3]TabellenEE!J52</f>
+        <f>[4]TabellenEE!J52</f>
         <v>82</v>
       </c>
       <c r="F72" s="223">
@@ -44888,7 +45282,7 @@
         <v>0</v>
       </c>
       <c r="E75" s="129">
-        <f>[3]TabellenEE!J55</f>
+        <f>[4]TabellenEE!J55</f>
         <v>0</v>
       </c>
       <c r="F75" s="223">
@@ -45008,7 +45402,7 @@
         <v>57</v>
       </c>
       <c r="E76" s="129">
-        <f>[3]TabellenEE!J56</f>
+        <f>[4]TabellenEE!J56</f>
         <v>86</v>
       </c>
       <c r="F76" s="223">
@@ -45016,7 +45410,7 @@
         <v>38942.237047913732</v>
       </c>
       <c r="G76" s="223">
-        <f>[3]EEKorneuburgStreicher!O24*0.5</f>
+        <f>[4]EEKorneuburgStreicher!O24*0.5</f>
         <v>22826.45646190456</v>
       </c>
       <c r="H76" s="223">
@@ -45129,7 +45523,7 @@
         <v>25</v>
       </c>
       <c r="E77" s="129">
-        <f>[3]TabellenEE!J57</f>
+        <f>[4]TabellenEE!J57</f>
         <v>25</v>
       </c>
       <c r="F77" s="223">
@@ -45250,7 +45644,7 @@
         <v>22</v>
       </c>
       <c r="E78" s="129">
-        <f>[3]TabellenEE!J58</f>
+        <f>[4]TabellenEE!J58</f>
         <v>46</v>
       </c>
       <c r="F78" s="223">
@@ -45371,7 +45765,7 @@
         <v>38</v>
       </c>
       <c r="E79" s="129">
-        <f>[3]TabellenEE!J59</f>
+        <f>[4]TabellenEE!J59</f>
         <v>58</v>
       </c>
       <c r="F79" s="223">
@@ -45379,7 +45773,7 @@
         <v>4193.7793743907096</v>
       </c>
       <c r="G79" s="223">
-        <f>[3]EEKorneuburgStreicher!P24</f>
+        <f>[4]EEKorneuburgStreicher!P24</f>
         <v>6160.7568808098986</v>
       </c>
       <c r="H79" s="223">
@@ -45493,7 +45887,7 @@
         <v>0</v>
       </c>
       <c r="E80" s="129">
-        <f>[3]TabellenEE!J60</f>
+        <f>[4]TabellenEE!J60</f>
         <v>0</v>
       </c>
       <c r="F80" s="223">
@@ -45618,7 +46012,7 @@
         <v>59</v>
       </c>
       <c r="E81" s="129">
-        <f>[3]TabellenEE!J61</f>
+        <f>[4]TabellenEE!J61</f>
         <v>89</v>
       </c>
       <c r="F81" s="223">
@@ -45746,7 +46140,7 @@
         <v>142</v>
       </c>
       <c r="E82" s="129">
-        <f>[3]TabellenEE!J62</f>
+        <f>[4]TabellenEE!J62</f>
         <v>215</v>
       </c>
       <c r="F82" s="223">
@@ -45856,7 +46250,7 @@
         <v>59</v>
       </c>
       <c r="E83" s="129">
-        <f>[3]TabellenEE!J63</f>
+        <f>[4]TabellenEE!J63</f>
         <v>89</v>
       </c>
       <c r="F83" s="223">
@@ -45864,7 +46258,7 @@
         <v>59312.022580668614</v>
       </c>
       <c r="G83" s="223">
-        <f>[3]EEKorneuburgStreicher!Q24</f>
+        <f>[4]EEKorneuburgStreicher!Q24</f>
         <v>78381.54017813722</v>
       </c>
       <c r="H83" s="223">
@@ -47275,63 +47669,63 @@
     </row>
     <row r="107" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C107" t="str">
-        <f>[3]StadtVerbrauchswerteEVN2018!B13</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!B13</f>
         <v>Erdgas Haushalte</v>
       </c>
       <c r="D107" t="str">
-        <f>[3]StadtVerbrauchswerteEVN2018!C13</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!C13</f>
         <v>Erdgas NWG</v>
       </c>
       <c r="E107" t="str">
-        <f>[3]StadtVerbrauchswerteEVN2018!D13</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!D13</f>
         <v>Fernwärme Haushalte</v>
       </c>
       <c r="F107" t="str">
-        <f>[3]StadtVerbrauchswerteEVN2018!E13</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!E13</f>
         <v>Fernwärme NWG</v>
       </c>
       <c r="G107" t="str">
-        <f>[3]StadtVerbrauchswerteEVN2018!F13</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!F13</f>
         <v>Biomasse Haushalte</v>
       </c>
       <c r="H107" t="str">
-        <f>[3]StadtVerbrauchswerteEVN2018!G13</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!G13</f>
         <v>Biomasse NWG</v>
       </c>
       <c r="I107" t="str">
-        <f>[3]StadtVerbrauchswerteEVN2018!H13</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!H13</f>
         <v>Fremdstrom Haushalte</v>
       </c>
       <c r="J107" t="str">
-        <f>[3]StadtVerbrauchswerteEVN2018!I13</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!I13</f>
         <v>Fremdstrom NWG</v>
       </c>
       <c r="K107" t="str">
-        <f>[3]StadtVerbrauchswerteEVN2018!J13</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!J13</f>
         <v>Mobilität fossil</v>
       </c>
       <c r="L107" t="str">
-        <f>[3]StadtVerbrauchswerteEVN2018!K13</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!K13</f>
         <v>Solarthermie</v>
       </c>
       <c r="M107" t="str">
-        <f>[3]StadtVerbrauchswerteEVN2018!L13</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!L13</f>
         <v>Biomasse/Klärschlamm/Biogas</v>
       </c>
       <c r="N107" t="str">
-        <f>[3]StadtVerbrauchswerteEVN2018!M13</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!M13</f>
         <v>Umweltwärme/kälte, Abwasser</v>
       </c>
       <c r="O107" t="str">
-        <f>[3]StadtVerbrauchswerteEVN2018!N13</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!N13</f>
         <v>Photovoltaik</v>
       </c>
       <c r="P107" t="str">
-        <f>[3]StadtVerbrauchswerteEVN2018!O13</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!O13</f>
         <v>Windkraft</v>
       </c>
       <c r="Q107" t="str">
-        <f>[3]StadtVerbrauchswerteEVN2018!P13</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!P13</f>
         <v>Wasserkraft</v>
       </c>
       <c r="R107" s="182" t="s">
@@ -47340,67 +47734,67 @@
     </row>
     <row r="108" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B108" s="185" t="str">
-        <f>[3]StadtVerbrauchswerteEVN2018!A14</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!A14</f>
         <v>2008 Energiekataster</v>
       </c>
       <c r="C108" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!B14</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!B14</f>
         <v>65007.222000000002</v>
       </c>
       <c r="D108" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!C14</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!C14</f>
         <v>56181.667000000001</v>
       </c>
       <c r="E108" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!D14</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!D14</f>
         <v>0</v>
       </c>
       <c r="F108" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!E14</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!E14</f>
         <v>0</v>
       </c>
       <c r="G108" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!F14</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!F14</f>
         <v>0</v>
       </c>
       <c r="H108" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!G14</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!G14</f>
         <v>0</v>
       </c>
       <c r="I108" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!H14</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!H14</f>
         <v>429.08300000000003</v>
       </c>
       <c r="J108" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!I14</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!I14</f>
         <v>107480</v>
       </c>
       <c r="K108" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!J14</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!J14</f>
         <v>130397.20556346241</v>
       </c>
       <c r="L108" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!K14</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!K14</f>
         <v>0</v>
       </c>
       <c r="M108" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!L14</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!L14</f>
         <v>0</v>
       </c>
       <c r="N108" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!M14</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!M14</f>
         <v>0</v>
       </c>
       <c r="O108" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!N14</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!N14</f>
         <v>0</v>
       </c>
       <c r="P108" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!O14</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!O14</f>
         <v>0</v>
       </c>
       <c r="Q108" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!P14</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!P14</f>
         <v>0</v>
       </c>
       <c r="R108" s="322">
@@ -47410,67 +47804,67 @@
     </row>
     <row r="109" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B109" s="185" t="str">
-        <f>[3]StadtVerbrauchswerteEVN2018!A15</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!A15</f>
         <v>2008 FH Hochrechnung</v>
       </c>
       <c r="C109" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!B15</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!B15</f>
         <v>65007.222000000002</v>
       </c>
       <c r="D109" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!C15</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!C15</f>
         <v>56181.667000000001</v>
       </c>
       <c r="E109" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!D15</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!D15</f>
         <v>0</v>
       </c>
       <c r="F109" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!E15</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!E15</f>
         <v>0</v>
       </c>
       <c r="G109" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!F15</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!F15</f>
         <v>0</v>
       </c>
       <c r="H109" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!G15</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!G15</f>
         <v>0</v>
       </c>
       <c r="I109" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!H15</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!H15</f>
         <v>26610.733</v>
       </c>
       <c r="J109" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!I15</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!I15</f>
         <v>87582.877999999997</v>
       </c>
       <c r="K109" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!J15</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!J15</f>
         <v>130397.20556346241</v>
       </c>
       <c r="L109" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!K15</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!K15</f>
         <v>130397.1875</v>
       </c>
       <c r="M109" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!L15</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!L15</f>
         <v>130397.1875</v>
       </c>
       <c r="N109" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!M15</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!M15</f>
         <v>130397.1875</v>
       </c>
       <c r="O109" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!N15</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!N15</f>
         <v>130397.1875</v>
       </c>
       <c r="P109" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!O15</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!O15</f>
         <v>130397.1875</v>
       </c>
       <c r="Q109" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!P15</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!P15</f>
         <v>130397.1875</v>
       </c>
       <c r="R109" s="322">
@@ -47480,67 +47874,67 @@
     </row>
     <row r="110" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B110" s="185" t="str">
-        <f>[3]StadtVerbrauchswerteEVN2018!A16</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!A16</f>
         <v>EVN 2015</v>
       </c>
       <c r="C110" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!B16</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!B16</f>
         <v>79368.013999999996</v>
       </c>
       <c r="D110" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!C16</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!C16</f>
         <v>72133.240000000005</v>
       </c>
       <c r="E110" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!D16</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!D16</f>
         <v>5593.9830940000002</v>
       </c>
       <c r="F110" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!E16</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!E16</f>
         <v>3605.6899009999993</v>
       </c>
       <c r="G110" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!F16</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!F16</f>
         <v>3605.689453125</v>
       </c>
       <c r="H110" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!G16</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!G16</f>
         <v>3605.689453125</v>
       </c>
       <c r="I110" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!H16</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!H16</f>
         <v>31497.856</v>
       </c>
       <c r="J110" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!I16</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!I16</f>
         <v>85228.160000000003</v>
       </c>
       <c r="K110" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!J16</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!J16</f>
         <v>130397.20556346241</v>
       </c>
       <c r="L110" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!K16</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!K16</f>
         <v>130397.1875</v>
       </c>
       <c r="M110" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!L16</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!L16</f>
         <v>130397.1875</v>
       </c>
       <c r="N110" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!M16</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!M16</f>
         <v>130397.1875</v>
       </c>
       <c r="O110" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!N16</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!N16</f>
         <v>130397.1875</v>
       </c>
       <c r="P110" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!O16</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!O16</f>
         <v>130397.1875</v>
       </c>
       <c r="Q110" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!P16</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!P16</f>
         <v>130397.1875</v>
       </c>
       <c r="R110" s="322">
@@ -47550,67 +47944,67 @@
     </row>
     <row r="111" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B111" s="185" t="str">
-        <f>[3]StadtVerbrauchswerteEVN2018!A17</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!A17</f>
         <v>EVN 2016</v>
       </c>
       <c r="C111" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!B17</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!B17</f>
         <v>74580.330099999992</v>
       </c>
       <c r="D111" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!C17</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!C17</f>
         <v>75703.539099999995</v>
       </c>
       <c r="E111" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!D17</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!D17</f>
         <v>5515.1254880000015</v>
       </c>
       <c r="F111" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!E17</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!E17</f>
         <v>4157.9463750000004</v>
       </c>
       <c r="G111" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!F17</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!F17</f>
         <v>4157.9453125</v>
       </c>
       <c r="H111" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!G17</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!G17</f>
         <v>4157.9453125</v>
       </c>
       <c r="I111" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!H17</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!H17</f>
         <v>30688.386999999999</v>
       </c>
       <c r="J111" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!I17</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!I17</f>
         <v>84002.376999999993</v>
       </c>
       <c r="K111" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!J17</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!J17</f>
         <v>130397.20556346241</v>
       </c>
       <c r="L111" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!K17</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!K17</f>
         <v>130397.1875</v>
       </c>
       <c r="M111" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!L17</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!L17</f>
         <v>130397.1875</v>
       </c>
       <c r="N111" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!M17</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!M17</f>
         <v>130397.1875</v>
       </c>
       <c r="O111" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!N17</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!N17</f>
         <v>130397.1875</v>
       </c>
       <c r="P111" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!O17</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!O17</f>
         <v>130397.1875</v>
       </c>
       <c r="Q111" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!P17</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!P17</f>
         <v>130397.1875</v>
       </c>
       <c r="R111" s="322">
@@ -47620,67 +48014,67 @@
     </row>
     <row r="112" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B112" s="185" t="str">
-        <f>[3]StadtVerbrauchswerteEVN2018!A18</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!A18</f>
         <v>EVN 2017</v>
       </c>
       <c r="C112" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!B18</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!B18</f>
         <v>74343.146229999998</v>
       </c>
       <c r="D112" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!C18</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!C18</f>
         <v>84178.389180000013</v>
       </c>
       <c r="E112" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!D18</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!D18</f>
         <v>5346.7912698026139</v>
       </c>
       <c r="F112" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!E18</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!E18</f>
         <v>6631.8640080000005</v>
       </c>
       <c r="G112" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!F18</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!F18</f>
         <v>6631.86328125</v>
       </c>
       <c r="H112" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!G18</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!G18</f>
         <v>6631.86328125</v>
       </c>
       <c r="I112" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!H18</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!H18</f>
         <v>31466.322609999999</v>
       </c>
       <c r="J112" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!I18</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!I18</f>
         <v>86950.583079999997</v>
       </c>
       <c r="K112" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!J18</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!J18</f>
         <v>130397.20556346241</v>
       </c>
       <c r="L112" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!K18</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!K18</f>
         <v>130397.1875</v>
       </c>
       <c r="M112" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!L18</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!L18</f>
         <v>130397.1875</v>
       </c>
       <c r="N112" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!M18</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!M18</f>
         <v>130397.1875</v>
       </c>
       <c r="O112" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!N18</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!N18</f>
         <v>130397.1875</v>
       </c>
       <c r="P112" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!O18</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!O18</f>
         <v>130397.1875</v>
       </c>
       <c r="Q112" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!P18</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!P18</f>
         <v>130397.1875</v>
       </c>
       <c r="R112" s="322">
@@ -47690,67 +48084,67 @@
     </row>
     <row r="113" spans="1:66" x14ac:dyDescent="0.25">
       <c r="B113" s="185" t="str">
-        <f>[3]StadtVerbrauchswerteEVN2018!A20</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!A20</f>
         <v>2036 FH Hochrechnung</v>
       </c>
       <c r="C113" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!B20</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!B20</f>
         <v>0</v>
       </c>
       <c r="D113" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!C20</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!C20</f>
         <v>0</v>
       </c>
       <c r="E113" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!D20</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!D20</f>
         <v>0</v>
       </c>
       <c r="F113" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!E20</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!E20</f>
         <v>0</v>
       </c>
       <c r="G113" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!F20</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!F20</f>
         <v>0</v>
       </c>
       <c r="H113" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!G20</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!G20</f>
         <v>0</v>
       </c>
       <c r="I113" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!H20</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!H20</f>
         <v>0</v>
       </c>
       <c r="J113" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!I20</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!I20</f>
         <v>0</v>
       </c>
       <c r="K113" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!J20</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!J20</f>
         <v>0</v>
       </c>
       <c r="L113" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!K20</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!K20</f>
         <v>65465.321461675085</v>
       </c>
       <c r="M113" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!L20</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!L20</f>
         <v>4947.9120000000003</v>
       </c>
       <c r="N113" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!M20</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!M20</f>
         <v>91303.98000000001</v>
       </c>
       <c r="O113" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!N20</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!N20</f>
         <v>98356.603367921372</v>
       </c>
       <c r="P113" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!O20</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!O20</f>
         <v>9098</v>
       </c>
       <c r="Q113" s="185">
-        <f>[3]StadtVerbrauchswerteEVN2018!P20</f>
+        <f>[4]StadtVerbrauchswerteEVN2018!P20</f>
         <v>9782</v>
       </c>
       <c r="R113" s="322">
@@ -54524,7 +54918,7 @@
         <v>525</v>
       </c>
       <c r="C198" s="348">
-        <f>[3]TabellenEE!L2</f>
+        <f>[4]TabellenEE!L2</f>
         <v>0.5</v>
       </c>
       <c r="D198" s="89"/>
@@ -54615,7 +55009,7 @@
         <v>527</v>
       </c>
       <c r="C199" s="348">
-        <f>[3]TabellenEE!L3</f>
+        <f>[4]TabellenEE!L3</f>
         <v>0.5</v>
       </c>
       <c r="D199" s="89"/>
@@ -54688,7 +55082,7 @@
         <v>117</v>
       </c>
       <c r="C200" s="348">
-        <f>[3]TabellenEE!L4</f>
+        <f>[4]TabellenEE!L4</f>
         <v>0.1</v>
       </c>
       <c r="D200" s="92" t="s">
@@ -55146,7 +55540,7 @@
       </c>
       <c r="E206" s="89"/>
       <c r="F206" s="351">
-        <f>[3]TabellenEE!$J$12</f>
+        <f>[4]TabellenEE!$J$12</f>
         <v>293</v>
       </c>
       <c r="G206" s="350"/>
@@ -55248,7 +55642,7 @@
         <v>55</v>
       </c>
       <c r="F207" s="351">
-        <f>[3]TabellenEE!$J$9</f>
+        <f>[4]TabellenEE!$J$9</f>
         <v>177</v>
       </c>
       <c r="G207" s="350">
@@ -55344,7 +55738,7 @@
         <v>21.1</v>
       </c>
       <c r="F208" s="351">
-        <f>[3]TabellenEE!$J$11</f>
+        <f>[4]TabellenEE!$J$11</f>
         <v>127.36666666666667</v>
       </c>
       <c r="G208" s="350">
@@ -55440,7 +55834,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="F209" s="351">
-        <f>[3]TabellenEE!$J$10</f>
+        <f>[4]TabellenEE!$J$10</f>
         <v>108.86666666666666</v>
       </c>
       <c r="G209" s="350">
@@ -55546,7 +55940,7 @@
       </c>
       <c r="E210" s="89"/>
       <c r="F210" s="351">
-        <f>[3]TabellenEE!J13</f>
+        <f>[4]TabellenEE!J13</f>
         <v>75</v>
       </c>
       <c r="G210" s="350"/>
@@ -55643,7 +56037,7 @@
       </c>
       <c r="E211" s="89"/>
       <c r="F211" s="351">
-        <f>[3]TabellenEE!J14</f>
+        <f>[4]TabellenEE!J14</f>
         <v>68</v>
       </c>
       <c r="G211" s="350"/>
@@ -56219,7 +56613,7 @@
     </row>
     <row r="223" spans="1:66" x14ac:dyDescent="0.25">
       <c r="T223">
-        <f>[3]TabellenEE!J67/0.9</f>
+        <f>[4]TabellenEE!J67/0.9</f>
         <v>316.66666666666669</v>
       </c>
     </row>
@@ -58011,11 +58405,11 @@
         <v>74</v>
       </c>
       <c r="C257" s="129">
-        <f>[3]TabellenEE!I39</f>
+        <f>[4]TabellenEE!I39</f>
         <v>0</v>
       </c>
       <c r="D257" s="375">
-        <f>[3]TabellenEE!J39</f>
+        <f>[4]TabellenEE!J39</f>
         <v>0</v>
       </c>
       <c r="E257" s="375">
@@ -58034,11 +58428,11 @@
         <v>75</v>
       </c>
       <c r="C258" s="129">
-        <f>[3]TabellenEE!I40</f>
+        <f>[4]TabellenEE!I40</f>
         <v>0</v>
       </c>
       <c r="D258" s="375">
-        <f>[3]TabellenEE!J40</f>
+        <f>[4]TabellenEE!J40</f>
         <v>0</v>
       </c>
       <c r="E258" s="375">
@@ -58058,11 +58452,11 @@
         <v>76</v>
       </c>
       <c r="C259" s="129">
-        <f>[3]TabellenEE!I41</f>
+        <f>[4]TabellenEE!I41</f>
         <v>0</v>
       </c>
       <c r="D259" s="375">
-        <f>[3]TabellenEE!J41</f>
+        <f>[4]TabellenEE!J41</f>
         <v>0</v>
       </c>
       <c r="E259" s="375">
@@ -58082,11 +58476,11 @@
         <v>77</v>
       </c>
       <c r="C260" s="129">
-        <f>[3]TabellenEE!I42</f>
+        <f>[4]TabellenEE!I42</f>
         <v>66</v>
       </c>
       <c r="D260" s="375">
-        <f>[3]TabellenEE!J42</f>
+        <f>[4]TabellenEE!J42</f>
         <v>66</v>
       </c>
       <c r="E260" s="375">
@@ -58125,11 +58519,11 @@
         <v>78</v>
       </c>
       <c r="C261" s="129">
-        <f>[3]TabellenEE!I43</f>
+        <f>[4]TabellenEE!I43</f>
         <v>23</v>
       </c>
       <c r="D261" s="375">
-        <f>[3]TabellenEE!J43</f>
+        <f>[4]TabellenEE!J43</f>
         <v>23</v>
       </c>
       <c r="E261" s="375">
@@ -58167,11 +58561,11 @@
         <v>79</v>
       </c>
       <c r="C262" s="129">
-        <f>[3]TabellenEE!I44</f>
+        <f>[4]TabellenEE!I44</f>
         <v>89</v>
       </c>
       <c r="D262" s="375">
-        <f>[3]TabellenEE!J44</f>
+        <f>[4]TabellenEE!J44</f>
         <v>89</v>
       </c>
       <c r="E262" s="375">
@@ -58190,11 +58584,11 @@
         <v>80</v>
       </c>
       <c r="C263" s="129">
-        <f>[3]TabellenEE!I45</f>
+        <f>[4]TabellenEE!I45</f>
         <v>68</v>
       </c>
       <c r="D263" s="375">
-        <f>[3]TabellenEE!J45</f>
+        <f>[4]TabellenEE!J45</f>
         <v>68</v>
       </c>
       <c r="E263" s="375">
@@ -58215,11 +58609,11 @@
         <v>3</v>
       </c>
       <c r="C264" s="129">
-        <f>[3]TabellenEE!I46</f>
+        <f>[4]TabellenEE!I46</f>
         <v>69</v>
       </c>
       <c r="D264" s="375">
-        <f>[3]TabellenEE!J46</f>
+        <f>[4]TabellenEE!J46</f>
         <v>69</v>
       </c>
       <c r="E264" s="375">
@@ -58256,11 +58650,11 @@
         <v>81</v>
       </c>
       <c r="C265" s="129">
-        <f>[3]TabellenEE!I47</f>
+        <f>[4]TabellenEE!I47</f>
         <v>13</v>
       </c>
       <c r="D265" s="375">
-        <f>[3]TabellenEE!J47</f>
+        <f>[4]TabellenEE!J47</f>
         <v>13</v>
       </c>
       <c r="E265" s="375">
@@ -58441,11 +58835,11 @@
         <v>14</v>
       </c>
       <c r="C268" s="129">
-        <f>[3]TabellenEE!I50</f>
+        <f>[4]TabellenEE!I50</f>
         <v>15</v>
       </c>
       <c r="D268" s="375">
-        <f>[3]TabellenEE!J50</f>
+        <f>[4]TabellenEE!J50</f>
         <v>15</v>
       </c>
       <c r="E268" s="375">
@@ -58515,11 +58909,11 @@
         <v>30</v>
       </c>
       <c r="C269" s="129">
-        <f>[3]TabellenEE!I51</f>
+        <f>[4]TabellenEE!I51</f>
         <v>40</v>
       </c>
       <c r="D269" s="375">
-        <f>[3]TabellenEE!J51</f>
+        <f>[4]TabellenEE!J51</f>
         <v>40</v>
       </c>
       <c r="E269" s="375">
@@ -58593,11 +58987,11 @@
         <v>83</v>
       </c>
       <c r="C270" s="375">
-        <f>[3]TabellenEE!I52</f>
+        <f>[4]TabellenEE!I52</f>
         <v>43</v>
       </c>
       <c r="D270" s="375">
-        <f>[3]TabellenEE!J52</f>
+        <f>[4]TabellenEE!J52</f>
         <v>82</v>
       </c>
       <c r="E270" s="375">
@@ -58811,11 +59205,11 @@
         <v>30</v>
       </c>
       <c r="C273" s="129">
-        <f>[3]TabellenEE!I55</f>
+        <f>[4]TabellenEE!I55</f>
         <v>0</v>
       </c>
       <c r="D273" s="375">
-        <f>[3]TabellenEE!J55</f>
+        <f>[4]TabellenEE!J55</f>
         <v>0</v>
       </c>
       <c r="E273" s="375">
@@ -58849,11 +59243,11 @@
         <v>32</v>
       </c>
       <c r="C274" s="129">
-        <f>[3]TabellenEE!I56</f>
+        <f>[4]TabellenEE!I56</f>
         <v>86</v>
       </c>
       <c r="D274" s="375">
-        <f>[3]TabellenEE!J56</f>
+        <f>[4]TabellenEE!J56</f>
         <v>86</v>
       </c>
       <c r="E274" s="375">
@@ -58924,11 +59318,11 @@
         <v>85</v>
       </c>
       <c r="C275" s="129">
-        <f>[3]TabellenEE!I57</f>
+        <f>[4]TabellenEE!I57</f>
         <v>25</v>
       </c>
       <c r="D275" s="375">
-        <f>[3]TabellenEE!J57</f>
+        <f>[4]TabellenEE!J57</f>
         <v>25</v>
       </c>
       <c r="E275" s="375">
@@ -58980,11 +59374,11 @@
         <v>86</v>
       </c>
       <c r="C276" s="129">
-        <f>[3]TabellenEE!I58</f>
+        <f>[4]TabellenEE!I58</f>
         <v>46</v>
       </c>
       <c r="D276" s="375">
-        <f>[3]TabellenEE!J58</f>
+        <f>[4]TabellenEE!J58</f>
         <v>46</v>
       </c>
       <c r="E276" s="375">
@@ -59036,11 +59430,11 @@
         <v>87</v>
       </c>
       <c r="C277" s="129">
-        <f>[3]TabellenEE!I59</f>
+        <f>[4]TabellenEE!I59</f>
         <v>58</v>
       </c>
       <c r="D277" s="375">
-        <f>[3]TabellenEE!J59</f>
+        <f>[4]TabellenEE!J59</f>
         <v>58</v>
       </c>
       <c r="E277" s="375">
@@ -59117,11 +59511,11 @@
         <v>88</v>
       </c>
       <c r="C278" s="129">
-        <f>[3]TabellenEE!I60</f>
+        <f>[4]TabellenEE!I60</f>
         <v>0</v>
       </c>
       <c r="D278" s="375">
-        <f>[3]TabellenEE!J60</f>
+        <f>[4]TabellenEE!J60</f>
         <v>0</v>
       </c>
       <c r="E278" s="375">
@@ -59159,11 +59553,11 @@
         <v>51</v>
       </c>
       <c r="C279" s="129">
-        <f>[3]TabellenEE!I61</f>
+        <f>[4]TabellenEE!I61</f>
         <v>89</v>
       </c>
       <c r="D279" s="375">
-        <f>[3]TabellenEE!J61</f>
+        <f>[4]TabellenEE!J61</f>
         <v>89</v>
       </c>
       <c r="E279" s="375">
@@ -60084,7 +60478,7 @@
         <v>Elektrizität Mobilität</v>
       </c>
       <c r="C291" s="395">
-        <f>[3]Mobilität!B49</f>
+        <f>[4]Mobilität!B49</f>
         <v>0.75137661982242443</v>
       </c>
       <c r="D291" s="185">
@@ -60446,7 +60840,7 @@
         <v>575</v>
       </c>
       <c r="C296" s="186">
-        <f>[3]Way2smartKenndatenFlächen!K6</f>
+        <f>[4]Way2smartKenndatenFlächen!K6</f>
         <v>9460000</v>
       </c>
       <c r="D296" s="185">
@@ -60657,7 +61051,7 @@
         <v>350</v>
       </c>
       <c r="C300" s="186">
-        <f>[3]Way2smartKenndatenFlächen!S6</f>
+        <f>[4]Way2smartKenndatenFlächen!S6</f>
         <v>20403.335767750003</v>
       </c>
       <c r="D300" s="92" t="s">
@@ -61032,7 +61426,7 @@
         <v>591</v>
       </c>
       <c r="D315" s="223">
-        <f>[3]Mobilität!B32</f>
+        <f>[4]Mobilität!B32</f>
         <v>2500</v>
       </c>
       <c r="E315" s="202" t="s">
@@ -61068,7 +61462,7 @@
         <v>594</v>
       </c>
       <c r="D317" s="221">
-        <f>[3]Mobilität!F46</f>
+        <f>[4]Mobilität!F46</f>
         <v>8305.5</v>
       </c>
       <c r="E317" s="202" t="s">
@@ -61117,7 +61511,7 @@
         <v>597</v>
       </c>
       <c r="D319" s="229">
-        <f>[3]Mobilität!B50</f>
+        <f>[4]Mobilität!B50</f>
         <v>1.4141278375149344</v>
       </c>
       <c r="E319" s="202" t="s">
@@ -61155,7 +61549,7 @@
         <v>599</v>
       </c>
       <c r="D320" s="223">
-        <f>D318/D319*[3]Mobilität!B35</f>
+        <f>D318/D319*[4]Mobilität!B35</f>
         <v>492.64287253141822</v>
       </c>
       <c r="E320" s="202" t="s">
@@ -61228,43 +61622,43 @@
         <v>604</v>
       </c>
       <c r="K327" t="str">
-        <f>[3]Stadtbilanz!D5</f>
+        <f>[4]Stadtbilanz!D5</f>
         <v>Haushalte</v>
       </c>
       <c r="L327">
-        <f>[3]Stadtbilanz!E5</f>
+        <f>[4]Stadtbilanz!E5</f>
         <v>0</v>
       </c>
       <c r="M327" t="str">
-        <f>[3]Stadtbilanz!F5</f>
+        <f>[4]Stadtbilanz!F5</f>
         <v>Sachgüterindustrie</v>
       </c>
       <c r="N327">
-        <f>[3]Stadtbilanz!G5</f>
+        <f>[4]Stadtbilanz!G5</f>
         <v>0</v>
       </c>
       <c r="O327" t="str">
-        <f>[3]Stadtbilanz!H5</f>
+        <f>[4]Stadtbilanz!H5</f>
         <v>Handel</v>
       </c>
       <c r="P327">
-        <f>[3]Stadtbilanz!I5</f>
+        <f>[4]Stadtbilanz!I5</f>
         <v>0</v>
       </c>
       <c r="Q327" t="str">
-        <f>[3]Stadtbilanz!J5</f>
+        <f>[4]Stadtbilanz!J5</f>
         <v>Infrastruktur</v>
       </c>
       <c r="R327">
-        <f>[3]Stadtbilanz!K5</f>
+        <f>[4]Stadtbilanz!K5</f>
         <v>0</v>
       </c>
       <c r="S327" t="str">
-        <f>[3]Stadtbilanz!L5</f>
+        <f>[4]Stadtbilanz!L5</f>
         <v>Rest</v>
       </c>
       <c r="T327">
-        <f>[3]Stadtbilanz!M5</f>
+        <f>[4]Stadtbilanz!M5</f>
         <v>0</v>
       </c>
     </row>
@@ -61294,43 +61688,43 @@
         <v>610</v>
       </c>
       <c r="K328">
-        <f>[3]Stadtbilanz!D6/3.6</f>
+        <f>[4]Stadtbilanz!D6/3.6</f>
         <v>0</v>
       </c>
       <c r="L328">
-        <f>[3]Stadtbilanz!E6/3.6</f>
+        <f>[4]Stadtbilanz!E6/3.6</f>
         <v>0</v>
       </c>
       <c r="M328">
-        <f>[3]Stadtbilanz!F6/3.6</f>
+        <f>[4]Stadtbilanz!F6/3.6</f>
         <v>0</v>
       </c>
       <c r="N328">
-        <f>[3]Stadtbilanz!G6/3.6</f>
+        <f>[4]Stadtbilanz!G6/3.6</f>
         <v>0</v>
       </c>
       <c r="O328">
-        <f>[3]Stadtbilanz!H6/3.6</f>
+        <f>[4]Stadtbilanz!H6/3.6</f>
         <v>0</v>
       </c>
       <c r="P328">
-        <f>[3]Stadtbilanz!I6/3.6</f>
+        <f>[4]Stadtbilanz!I6/3.6</f>
         <v>0</v>
       </c>
       <c r="Q328">
-        <f>[3]Stadtbilanz!J6/3.6</f>
+        <f>[4]Stadtbilanz!J6/3.6</f>
         <v>0</v>
       </c>
       <c r="R328">
-        <f>[3]Stadtbilanz!K6/3.6</f>
+        <f>[4]Stadtbilanz!K6/3.6</f>
         <v>0</v>
       </c>
       <c r="S328">
-        <f>[3]Stadtbilanz!L6/3.6</f>
+        <f>[4]Stadtbilanz!L6/3.6</f>
         <v>0</v>
       </c>
       <c r="T328">
-        <f>[3]Stadtbilanz!M6/3.6</f>
+        <f>[4]Stadtbilanz!M6/3.6</f>
         <v>0</v>
       </c>
     </row>
@@ -61360,43 +61754,43 @@
         <v>0</v>
       </c>
       <c r="K329">
-        <f>[3]Stadtbilanz!D7/3.6</f>
+        <f>[4]Stadtbilanz!D7/3.6</f>
         <v>624.16666666666663</v>
       </c>
       <c r="L329">
-        <f>[3]Stadtbilanz!E7/3.6</f>
+        <f>[4]Stadtbilanz!E7/3.6</f>
         <v>0.27777777777777779</v>
       </c>
       <c r="M329">
-        <f>[3]Stadtbilanz!F7/3.6</f>
+        <f>[4]Stadtbilanz!F7/3.6</f>
         <v>2.2222222222222223</v>
       </c>
       <c r="N329">
-        <f>[3]Stadtbilanz!G7/3.6</f>
+        <f>[4]Stadtbilanz!G7/3.6</f>
         <v>1.4137083053242374E-5</v>
       </c>
       <c r="O329">
-        <f>[3]Stadtbilanz!H7/3.6</f>
+        <f>[4]Stadtbilanz!H7/3.6</f>
         <v>4.7222222222222223</v>
       </c>
       <c r="P329">
-        <f>[3]Stadtbilanz!I7/3.6</f>
+        <f>[4]Stadtbilanz!I7/3.6</f>
         <v>8.2141317855976306E-5</v>
       </c>
       <c r="Q329">
-        <f>[3]Stadtbilanz!J7/3.6</f>
+        <f>[4]Stadtbilanz!J7/3.6</f>
         <v>0</v>
       </c>
       <c r="R329">
-        <f>[3]Stadtbilanz!K7/3.6</f>
+        <f>[4]Stadtbilanz!K7/3.6</f>
         <v>0</v>
       </c>
       <c r="S329">
-        <f>[3]Stadtbilanz!L7/3.6</f>
+        <f>[4]Stadtbilanz!L7/3.6</f>
         <v>2.2222222222222223</v>
       </c>
       <c r="T329">
-        <f>[3]Stadtbilanz!M7/3.6</f>
+        <f>[4]Stadtbilanz!M7/3.6</f>
         <v>2.3179537104644018E-4</v>
       </c>
     </row>
@@ -61427,7 +61821,7 @@
         <v>340</v>
       </c>
       <c r="K330">
-        <f>[3]Stadtbilanz!D8/3.6</f>
+        <f>[4]Stadtbilanz!D8/3.6</f>
         <v>146.94444444444443</v>
       </c>
     </row>
@@ -61458,7 +61852,7 @@
         <v>4249.8858682501859</v>
       </c>
       <c r="K331">
-        <f>[3]Stadtbilanz!D9/3.6</f>
+        <f>[4]Stadtbilanz!D9/3.6</f>
         <v>146.94444444444443</v>
       </c>
     </row>
@@ -61489,7 +61883,7 @@
         <v>143618.05516063794</v>
       </c>
       <c r="K332">
-        <f>[3]Stadtbilanz!D10/3.6</f>
+        <f>[4]Stadtbilanz!D10/3.6</f>
         <v>918.05555555555554</v>
       </c>
     </row>
@@ -61516,7 +61910,7 @@
         <v>361.32467392868887</v>
       </c>
       <c r="K333">
-        <f>[3]Stadtbilanz!D11/3.6</f>
+        <f>[4]Stadtbilanz!D11/3.6</f>
         <v>4001.1111111111109</v>
       </c>
     </row>
@@ -61543,7 +61937,7 @@
         <v>0</v>
       </c>
       <c r="K334">
-        <f>[3]Stadtbilanz!D12/3.6</f>
+        <f>[4]Stadtbilanz!D12/3.6</f>
         <v>0</v>
       </c>
     </row>
@@ -61570,7 +61964,7 @@
         <v>0</v>
       </c>
       <c r="K335">
-        <f>[3]Stadtbilanz!D13/3.6</f>
+        <f>[4]Stadtbilanz!D13/3.6</f>
         <v>43.333333333333336</v>
       </c>
       <c r="P335" s="92" t="s">
@@ -61600,15 +61994,15 @@
         <v>0</v>
       </c>
       <c r="K336">
-        <f>[3]Stadtbilanz!D14/3.6</f>
+        <f>[4]Stadtbilanz!D14/3.6</f>
         <v>0</v>
       </c>
       <c r="P336" s="185" t="str">
-        <f>[3]Stadtflächen!A22</f>
+        <f>[4]Stadtflächen!A22</f>
         <v>EFH_klein</v>
       </c>
       <c r="Q336" s="185">
-        <f>[3]Stadtflächen!B22</f>
+        <f>[4]Stadtflächen!B22</f>
         <v>151581.92648339999</v>
       </c>
     </row>
@@ -61635,15 +62029,15 @@
         <v>673.48393787920668</v>
       </c>
       <c r="K337">
-        <f>[3]Stadtbilanz!D15/3.6</f>
+        <f>[4]Stadtbilanz!D15/3.6</f>
         <v>3801.3888888888887</v>
       </c>
       <c r="P337" s="185" t="str">
-        <f>[3]Stadtflächen!A23</f>
+        <f>[4]Stadtflächen!A23</f>
         <v>EFH_großDoppelhaus</v>
       </c>
       <c r="Q337" s="185">
-        <f>[3]Stadtflächen!B23</f>
+        <f>[4]Stadtflächen!B23</f>
         <v>339297.43656638899</v>
       </c>
     </row>
@@ -61670,15 +62064,15 @@
         <v>0</v>
       </c>
       <c r="K338">
-        <f>[3]Stadtbilanz!D16/3.6</f>
+        <f>[4]Stadtbilanz!D16/3.6</f>
         <v>2096.1111111111109</v>
       </c>
       <c r="P338" s="185" t="str">
-        <f>[3]Stadtflächen!A24</f>
+        <f>[4]Stadtflächen!A24</f>
         <v>MFH</v>
       </c>
       <c r="Q338" s="185">
-        <f>[3]Stadtflächen!B24</f>
+        <f>[4]Stadtflächen!B24</f>
         <v>261507.25988064997</v>
       </c>
       <c r="R338" s="185">
@@ -61709,18 +62103,18 @@
         <v>0</v>
       </c>
       <c r="K339">
-        <f>[3]Stadtbilanz!D17/3.6</f>
+        <f>[4]Stadtbilanz!D17/3.6</f>
         <v>0</v>
       </c>
       <c r="L339" s="182" t="s">
         <v>622</v>
       </c>
       <c r="P339" s="185" t="str">
-        <f>[3]Stadtflächen!A25</f>
+        <f>[4]Stadtflächen!A25</f>
         <v>Betrieb</v>
       </c>
       <c r="Q339" s="185">
-        <f>[3]Stadtflächen!B25</f>
+        <f>[4]Stadtflächen!B25</f>
         <v>145238.5638296796</v>
       </c>
     </row>
@@ -61747,23 +62141,23 @@
         <v>0</v>
       </c>
       <c r="K340">
-        <f>[3]Stadtbilanz!D18/3.6</f>
+        <f>[4]Stadtbilanz!D18/3.6</f>
         <v>491.66666666666663</v>
       </c>
       <c r="L340" s="185" t="str">
-        <f>[3]SimonStadt!N52</f>
+        <f>[4]SimonStadt!N52</f>
         <v>Betriebsgebiet</v>
       </c>
       <c r="M340" s="185">
-        <f>[3]SimonStadt!U52</f>
+        <f>[4]SimonStadt!U52</f>
         <v>238361.81</v>
       </c>
       <c r="P340" s="185" t="str">
-        <f>[3]Stadtflächen!A26</f>
+        <f>[4]Stadtflächen!A26</f>
         <v>Industrie</v>
       </c>
       <c r="Q340" s="185">
-        <f>[3]Stadtflächen!B26</f>
+        <f>[4]Stadtflächen!B26</f>
         <v>15420.1914196176</v>
       </c>
     </row>
@@ -61790,23 +62184,23 @@
         <v>0</v>
       </c>
       <c r="K341">
-        <f>[3]Stadtbilanz!D19/3.6</f>
+        <f>[4]Stadtbilanz!D19/3.6</f>
         <v>65007.222222222219</v>
       </c>
       <c r="L341" s="185" t="str">
-        <f>[3]SimonStadt!N53</f>
+        <f>[4]SimonStadt!N53</f>
         <v>Industriegebiet</v>
       </c>
       <c r="M341" s="185">
-        <f>[3]SimonStadt!U53</f>
+        <f>[4]SimonStadt!U53</f>
         <v>73715</v>
       </c>
       <c r="P341" s="185" t="str">
-        <f>[3]Stadtflächen!A27</f>
+        <f>[4]Stadtflächen!A27</f>
         <v>Handel</v>
       </c>
       <c r="Q341" s="185">
-        <f>[3]Stadtflächen!B27</f>
+        <f>[4]Stadtflächen!B27</f>
         <v>67007.138875548801</v>
       </c>
     </row>
@@ -61833,26 +62227,26 @@
         <v>0</v>
       </c>
       <c r="K342">
-        <f>[3]Stadtbilanz!D20/3.6</f>
+        <f>[4]Stadtbilanz!D20/3.6</f>
         <v>0</v>
       </c>
       <c r="L342" s="185" t="str">
-        <f>[3]SimonStadt!N54</f>
+        <f>[4]SimonStadt!N54</f>
         <v>Kerngebiet</v>
       </c>
       <c r="M342" s="185">
-        <f>[3]SimonStadt!U54</f>
+        <f>[4]SimonStadt!U54</f>
         <v>473079.04000000004</v>
       </c>
       <c r="N342" s="92" t="s">
         <v>626</v>
       </c>
       <c r="P342" s="185" t="str">
-        <f>[3]Stadtflächen!A28</f>
+        <f>[4]Stadtflächen!A28</f>
         <v>Büro/Verwaltung</v>
       </c>
       <c r="Q342" s="185">
-        <f>[3]Stadtflächen!B28</f>
+        <f>[4]Stadtflächen!B28</f>
         <v>109920.77750998901</v>
       </c>
     </row>
@@ -61879,31 +62273,31 @@
         <v>134509.03575996819</v>
       </c>
       <c r="I343" t="str">
-        <f>[3]Stadtbilanz!B21</f>
+        <f>[4]Stadtbilanz!B21</f>
         <v>Wärmepumpe</v>
       </c>
       <c r="J343" t="str">
-        <f>[3]Stadtbilanz!C21</f>
+        <f>[4]Stadtbilanz!C21</f>
         <v>GJ/a</v>
       </c>
       <c r="K343">
-        <f>[3]Stadtbilanz!D21/3.6</f>
+        <f>[4]Stadtbilanz!D21/3.6</f>
         <v>158.61111111111111</v>
       </c>
       <c r="L343" s="185" t="str">
-        <f>[3]SimonStadt!N55</f>
+        <f>[4]SimonStadt!N55</f>
         <v>Sondergebiet</v>
       </c>
       <c r="M343" s="185">
-        <f>[3]SimonStadt!U55</f>
+        <f>[4]SimonStadt!U55</f>
         <v>59266.200000000004</v>
       </c>
       <c r="P343" s="185" t="str">
-        <f>[3]Stadtflächen!A29</f>
+        <f>[4]Stadtflächen!A29</f>
         <v>Sonstige (Infrastruktur) eingeschossig</v>
       </c>
       <c r="Q343" s="185">
-        <f>[3]Stadtflächen!B29</f>
+        <f>[4]Stadtflächen!B29</f>
         <v>12564</v>
       </c>
     </row>
@@ -61933,15 +62327,15 @@
         <v>276957.40642580879</v>
       </c>
       <c r="K344">
-        <f>[3]Stadtbilanz!D22/3.6</f>
+        <f>[4]Stadtbilanz!D22/3.6</f>
         <v>0</v>
       </c>
       <c r="L344" s="185" t="str">
-        <f>[3]SimonStadt!N56</f>
+        <f>[4]SimonStadt!N56</f>
         <v>Wohngebiet</v>
       </c>
       <c r="M344" s="185">
-        <f>[3]SimonStadt!U56</f>
+        <f>[4]SimonStadt!U56</f>
         <v>839902.89000000013</v>
       </c>
     </row>
@@ -62067,7 +62461,7 @@
         <v>2648.8043264854746</v>
       </c>
       <c r="I347" s="316">
-        <f>[3]Stadtbilanz!N7/3.6</f>
+        <f>[4]Stadtbilanz!N7/3.6</f>
         <v>633.33333333333337</v>
       </c>
       <c r="J347" s="185">
@@ -62165,7 +62559,7 @@
         <v>0</v>
       </c>
       <c r="I348" s="316">
-        <f>[3]Stadtbilanz!N8/3.6</f>
+        <f>[4]Stadtbilanz!N8/3.6</f>
         <v>146.94444444444443</v>
       </c>
       <c r="J348" s="185">
@@ -62261,7 +62655,7 @@
         <v>0</v>
       </c>
       <c r="I349" s="316">
-        <f>[3]Stadtbilanz!N9/3.6</f>
+        <f>[4]Stadtbilanz!N9/3.6</f>
         <v>146.94444444444443</v>
       </c>
       <c r="J349" s="185">
@@ -62357,7 +62751,7 @@
         <v>0</v>
       </c>
       <c r="I350" s="316">
-        <f>[3]Stadtbilanz!N10/3.6</f>
+        <f>[4]Stadtbilanz!N10/3.6</f>
         <v>923.88888888888891</v>
       </c>
       <c r="J350" s="185">
@@ -62453,7 +62847,7 @@
         <v>2932.0672593470385</v>
       </c>
       <c r="I351" s="316">
-        <f>[3]Stadtbilanz!N11/3.6</f>
+        <f>[4]Stadtbilanz!N11/3.6</f>
         <v>4188.8888888888887</v>
       </c>
       <c r="J351" s="185">
@@ -62549,7 +62943,7 @@
         <v>1317.8186089031472</v>
       </c>
       <c r="I352" s="316">
-        <f>[3]Stadtbilanz!N12/3.6</f>
+        <f>[4]Stadtbilanz!N12/3.6</f>
         <v>3197.2222222222222</v>
       </c>
       <c r="J352" s="185">
@@ -62645,7 +63039,7 @@
         <v>0</v>
       </c>
       <c r="I353" s="316">
-        <f>[3]Stadtbilanz!N13/3.6</f>
+        <f>[4]Stadtbilanz!N13/3.6</f>
         <v>1826.1111111111111</v>
       </c>
       <c r="J353" s="185">
@@ -62741,7 +63135,7 @@
         <v>0</v>
       </c>
       <c r="I354" s="316">
-        <f>[3]Stadtbilanz!N14/3.6</f>
+        <f>[4]Stadtbilanz!N14/3.6</f>
         <v>35.555555555555557</v>
       </c>
       <c r="J354" s="185">
@@ -62837,7 +63231,7 @@
         <v>18605.175667230862</v>
       </c>
       <c r="I355" s="316">
-        <f>[3]Stadtbilanz!N15/3.6</f>
+        <f>[4]Stadtbilanz!N15/3.6</f>
         <v>6598.6111111111113</v>
       </c>
       <c r="J355" s="185">
@@ -62933,7 +63327,7 @@
         <v>0</v>
       </c>
       <c r="I356" s="316">
-        <f>[3]Stadtbilanz!N16/3.6</f>
+        <f>[4]Stadtbilanz!N16/3.6</f>
         <v>14835</v>
       </c>
       <c r="J356" s="185">
@@ -63029,7 +63423,7 @@
         <v>0</v>
       </c>
       <c r="I357" s="316">
-        <f>[3]Stadtbilanz!N17/3.6</f>
+        <f>[4]Stadtbilanz!N17/3.6</f>
         <v>380.27777777777777</v>
       </c>
       <c r="J357" s="185">
@@ -63125,7 +63519,7 @@
         <v>0</v>
       </c>
       <c r="I358" s="316">
-        <f>[3]Stadtbilanz!N18/3.6</f>
+        <f>[4]Stadtbilanz!N18/3.6</f>
         <v>665.55555555555554</v>
       </c>
       <c r="J358" s="185">
@@ -63221,7 +63615,7 @@
         <v>122364.0751669216</v>
       </c>
       <c r="I359" s="384">
-        <f>[3]Stadtbilanz!N19/3.6</f>
+        <f>[4]Stadtbilanz!N19/3.6</f>
         <v>121188.88888888889</v>
       </c>
       <c r="J359" s="385">
@@ -63233,11 +63627,11 @@
         <v>84178.389180000013</v>
       </c>
       <c r="L359" s="385">
-        <f>[3]KO_EE!C106</f>
+        <f>[4]KO_EE!C106</f>
         <v>74343.146229999998</v>
       </c>
       <c r="M359" s="385">
-        <f>[3]KO_EE!D106</f>
+        <f>[4]KO_EE!D106</f>
         <v>84178.389180000013</v>
       </c>
       <c r="N359" s="385">
@@ -63359,7 +63753,7 @@
         <v>0</v>
       </c>
       <c r="I360" s="316">
-        <f>[3]Stadtbilanz!N20/3.6</f>
+        <f>[4]Stadtbilanz!N20/3.6</f>
         <v>74.444444444444443</v>
       </c>
       <c r="J360" s="185">
@@ -63455,7 +63849,7 @@
         <v>872.85936864824203</v>
       </c>
       <c r="I361" s="316">
-        <f>[3]Stadtbilanz!N21/3.6</f>
+        <f>[4]Stadtbilanz!N21/3.6</f>
         <v>173.88888888888889</v>
       </c>
       <c r="J361" s="185">
@@ -63551,7 +63945,7 @@
         <v>0</v>
       </c>
       <c r="I362" s="316">
-        <f>[3]Stadtbilanz!N22/3.6</f>
+        <f>[4]Stadtbilanz!N22/3.6</f>
         <v>0</v>
       </c>
       <c r="J362" s="185">
@@ -63648,7 +64042,7 @@
         <v>340</v>
       </c>
       <c r="I363" s="316">
-        <f>[3]Stadtbilanz!N23/3.6</f>
+        <f>[4]Stadtbilanz!N23/3.6</f>
         <v>340</v>
       </c>
       <c r="J363" s="185">
@@ -63744,7 +64138,7 @@
         <v>0</v>
       </c>
       <c r="I364" s="316">
-        <f>[3]Stadtbilanz!N24/3.6</f>
+        <f>[4]Stadtbilanz!N24/3.6</f>
         <v>0</v>
       </c>
       <c r="J364" s="185">
@@ -63840,7 +64234,7 @@
         <v>0</v>
       </c>
       <c r="I365" s="316">
-        <f>[3]Stadtbilanz!N25/3.6</f>
+        <f>[4]Stadtbilanz!N25/3.6</f>
         <v>1.9444444444444444</v>
       </c>
       <c r="J365" s="185">
@@ -63936,7 +64330,7 @@
         <v>0</v>
       </c>
       <c r="I366" s="316">
-        <f>[3]Stadtbilanz!N26/3.6</f>
+        <f>[4]Stadtbilanz!N26/3.6</f>
         <v>0.27777777777777779</v>
       </c>
       <c r="J366" s="185">
@@ -64032,7 +64426,7 @@
         <v>4851.3731316197518</v>
       </c>
       <c r="I367" s="384">
-        <f>[3]Stadtbilanz!N27/3.6</f>
+        <f>[4]Stadtbilanz!N27/3.6</f>
         <v>3706.1111111111109</v>
       </c>
       <c r="J367" s="385">
@@ -64044,11 +64438,11 @@
         <v>6631.8640080000005</v>
       </c>
       <c r="L367" s="385">
-        <f>[3]KO_EE!E106</f>
+        <f>[4]KO_EE!E106</f>
         <v>5346.7912698026139</v>
       </c>
       <c r="M367" s="385">
-        <f>[3]KO_EE!F106</f>
+        <f>[4]KO_EE!F106</f>
         <v>6631.8640080000005</v>
       </c>
       <c r="N367" s="385">
@@ -64170,7 +64564,7 @@
         <v>0</v>
       </c>
       <c r="I368" s="316">
-        <f>[3]Stadtbilanz!N28/3.6</f>
+        <f>[4]Stadtbilanz!N28/3.6</f>
         <v>2422.7777777777778</v>
       </c>
       <c r="J368" s="185">
@@ -64266,7 +64660,7 @@
         <v>134509.03575996816</v>
       </c>
       <c r="I369" s="384">
-        <f>[3]Stadtbilanz!N29/3.6</f>
+        <f>[4]Stadtbilanz!N29/3.6</f>
         <v>111770.83333333333</v>
       </c>
       <c r="J369" s="385">
@@ -64278,11 +64672,11 @@
         <v>86950.583079999982</v>
       </c>
       <c r="L369" s="385">
-        <f>[3]KO_EE!I106</f>
+        <f>[4]KO_EE!I106</f>
         <v>31466.322609999999</v>
       </c>
       <c r="M369" s="385">
-        <f>[3]KO_EE!J106</f>
+        <f>[4]KO_EE!J106</f>
         <v>86950.583079999997</v>
       </c>
       <c r="N369" s="385">
